--- a/Export_simple.xlsx
+++ b/Export_simple.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1740" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1740" uniqueCount="216">
   <si>
     <t>Gold Coast VS Hawthorn</t>
   </si>
@@ -105,81 +105,66 @@
     <t>3+ Goalscorer</t>
   </si>
   <si>
+    <t>Bailey Humphrey</t>
+  </si>
+  <si>
+    <t>Jack Gunston</t>
+  </si>
+  <si>
+    <t>15+ Disposals</t>
+  </si>
+  <si>
+    <t>Wil Powell</t>
+  </si>
+  <si>
+    <t>Sam Clohesy</t>
+  </si>
+  <si>
+    <t>Daniel Rioli</t>
+  </si>
+  <si>
+    <t>Dylan Moore</t>
+  </si>
+  <si>
+    <t>Tom Barrass</t>
+  </si>
+  <si>
+    <t>Harry Morrison</t>
+  </si>
+  <si>
+    <t>James Sicily</t>
+  </si>
+  <si>
+    <t>Connor Macdonald</t>
+  </si>
+  <si>
+    <t>20+ Disposals</t>
+  </si>
+  <si>
     <t>Sam Flanders</t>
   </si>
   <si>
-    <t>Will Graham</t>
-  </si>
-  <si>
-    <t>Daniel Rioli</t>
-  </si>
-  <si>
-    <t>Lloyd Meek</t>
-  </si>
-  <si>
-    <t>15+ Disposals</t>
-  </si>
-  <si>
-    <t>Wil Powell</t>
-  </si>
-  <si>
-    <t>Sam Clohesy</t>
-  </si>
-  <si>
-    <t>Dylan Moore</t>
-  </si>
-  <si>
-    <t>Tom Barrass</t>
-  </si>
-  <si>
-    <t>Harry Morrison</t>
-  </si>
-  <si>
-    <t>James Sicily</t>
-  </si>
-  <si>
-    <t>Connor Macdonald</t>
-  </si>
-  <si>
-    <t>20+ Disposals</t>
-  </si>
-  <si>
-    <t>Sam Collins</t>
+    <t>Touk Miller</t>
   </si>
   <si>
     <t>Karl Amon</t>
   </si>
   <si>
+    <t>Jarman Impey</t>
+  </si>
+  <si>
     <t>25+ Disposals</t>
   </si>
   <si>
-    <t>Touk Miller</t>
-  </si>
-  <si>
-    <t>Bodhi Uwland</t>
-  </si>
-  <si>
-    <t>Henry Hustwaite</t>
-  </si>
-  <si>
-    <t>Jack Gunston</t>
-  </si>
-  <si>
     <t>30+ Disposals</t>
   </si>
   <si>
-    <t>Bailey Humphrey</t>
-  </si>
-  <si>
-    <t>Joel Jeffrey</t>
+    <t>Matt Rowell</t>
   </si>
   <si>
     <t>Blake Hardwick</t>
   </si>
   <si>
-    <t>Josh Weddle</t>
-  </si>
-  <si>
     <t>Sydney VS Carlton</t>
   </si>
   <si>
@@ -189,9 +174,6 @@
     <t>Sam Wicks</t>
   </si>
   <si>
-    <t>Ben Paton</t>
-  </si>
-  <si>
     <t>Isaac Heeney</t>
   </si>
   <si>
@@ -201,6 +183,9 @@
     <t>Will Hayward</t>
   </si>
   <si>
+    <t>James Rowbottom</t>
+  </si>
+  <si>
     <t>Carlton</t>
   </si>
   <si>
@@ -219,70 +204,61 @@
     <t>Charlie Curnow</t>
   </si>
   <si>
-    <t>Joel Hamling</t>
-  </si>
-  <si>
-    <t>Caiden Cleary</t>
+    <t>Chad Warner</t>
+  </si>
+  <si>
+    <t>Hayden McLean</t>
+  </si>
+  <si>
+    <t>Jesse Motlop</t>
+  </si>
+  <si>
+    <t>Harry McKay</t>
+  </si>
+  <si>
+    <t>Justin McInerney</t>
+  </si>
+  <si>
+    <t>Francis Evans</t>
+  </si>
+  <si>
+    <t>Oliver Florent</t>
+  </si>
+  <si>
+    <t>James Jordon</t>
+  </si>
+  <si>
+    <t>Jake Lloyd</t>
+  </si>
+  <si>
+    <t>Nick Blakey</t>
+  </si>
+  <si>
+    <t>Blake Acres</t>
+  </si>
+  <si>
+    <t>Lewis Young</t>
+  </si>
+  <si>
+    <t>Adam Saad</t>
   </si>
   <si>
     <t>Riley Bice</t>
   </si>
   <si>
-    <t>Jesse Motlop</t>
-  </si>
-  <si>
-    <t>Harry McKay</t>
-  </si>
-  <si>
-    <t>Braeden Campbell</t>
-  </si>
-  <si>
-    <t>Corey Warner</t>
-  </si>
-  <si>
-    <t>James Jordon</t>
-  </si>
-  <si>
-    <t>Francis Evans</t>
-  </si>
-  <si>
-    <t>Oliver Florent</t>
-  </si>
-  <si>
-    <t>Jake Lloyd</t>
-  </si>
-  <si>
-    <t>James Rowbottom</t>
-  </si>
-  <si>
-    <t>Blake Acres</t>
-  </si>
-  <si>
-    <t>Lewis Young</t>
-  </si>
-  <si>
-    <t>Adam Saad</t>
-  </si>
-  <si>
-    <t>Chad Warner</t>
-  </si>
-  <si>
     <t>Sam Walsh</t>
   </si>
   <si>
-    <t>Corey Durdin</t>
-  </si>
-  <si>
-    <t>Hayden McLean</t>
+    <t>Adam Cerra</t>
+  </si>
+  <si>
+    <t>Patrick Cripps</t>
   </si>
   <si>
     <t>Nick Haynes</t>
   </si>
   <si>
-    <t>Dane Rampe</t>
-  </si>
-  <si>
-    <t>Tom De Koning</t>
+    <t>George Hewett</t>
   </si>
   <si>
     <t>Collingwood VS Adelaide</t>
@@ -327,67 +303,70 @@
     <t>Darcy Fogarty</t>
   </si>
   <si>
-    <t>Lachlan Sullivan</t>
-  </si>
-  <si>
-    <t>Ned Long</t>
-  </si>
-  <si>
     <t>Brody Mihocek</t>
   </si>
   <si>
     <t>Jamie Elliott</t>
   </si>
   <si>
+    <t>Tim Membrey</t>
+  </si>
+  <si>
     <t>James Peatling</t>
   </si>
   <si>
+    <t>Daniel Curtin</t>
+  </si>
+  <si>
+    <t>Bobby Hill</t>
+  </si>
+  <si>
+    <t>Zac Taylor</t>
+  </si>
+  <si>
+    <t>Isaac Quaynor</t>
+  </si>
+  <si>
+    <t>Darcy Moore</t>
+  </si>
+  <si>
+    <t>Will Hoskin-Elliott</t>
+  </si>
+  <si>
+    <t>Harry Perryman</t>
+  </si>
+  <si>
+    <t>Dan Houston</t>
+  </si>
+  <si>
     <t>Luke Nankervis</t>
   </si>
   <si>
-    <t>Mason Cox</t>
-  </si>
-  <si>
-    <t>Will Hoskin-Elliott</t>
-  </si>
-  <si>
-    <t>Zac Taylor</t>
-  </si>
-  <si>
-    <t>Isaac Quaynor</t>
-  </si>
-  <si>
-    <t>Darcy Moore</t>
-  </si>
-  <si>
-    <t>Harry Perryman</t>
-  </si>
-  <si>
-    <t>Dan Houston</t>
-  </si>
-  <si>
     <t>Ben Keays</t>
   </si>
   <si>
     <t>Isaac Cumming</t>
   </si>
   <si>
-    <t>Bobby Hill</t>
-  </si>
-  <si>
     <t>Rory Laird</t>
   </si>
   <si>
     <t>Jordan Dawson</t>
   </si>
   <si>
-    <t>Riley Thilthorpe</t>
-  </si>
-  <si>
-    <t>Jeremy Howe</t>
-  </si>
-  <si>
-    <t>Brayden Maynard</t>
+    <t>Mark Keane</t>
+  </si>
+  <si>
+    <t>Nick Daicos</t>
+  </si>
+  <si>
+    <t>Scott Pendlebury</t>
+  </si>
+  <si>
+    <t>Max Michalanney</t>
+  </si>
+  <si>
+    <t>Wayne Milera</t>
   </si>
   <si>
     <t>Greater Western Sydney VS Frema</t>
@@ -402,96 +381,90 @@
     <t>Toby McMullin</t>
   </si>
   <si>
-    <t>Cody Angove</t>
+    <t>Jesse Hogan</t>
+  </si>
+  <si>
+    <t>Toby Greene</t>
+  </si>
+  <si>
+    <t>Jake Riccardi</t>
+  </si>
+  <si>
+    <t>Fremantle</t>
+  </si>
+  <si>
+    <t>Isaiah Dudley</t>
+  </si>
+  <si>
+    <t>Andrew Brayshaw</t>
+  </si>
+  <si>
+    <t>Sam Switkowski</t>
+  </si>
+  <si>
+    <t>Murphy Reid</t>
+  </si>
+  <si>
+    <t>Michael Frederick</t>
+  </si>
+  <si>
+    <t>Tom Green</t>
+  </si>
+  <si>
+    <t>Shai Bolton</t>
+  </si>
+  <si>
+    <t>Jye Amiss</t>
+  </si>
+  <si>
+    <t>Luke Jackson</t>
+  </si>
+  <si>
+    <t>Xavier OHalloran</t>
+  </si>
+  <si>
+    <t>Josh Treacy</t>
+  </si>
+  <si>
+    <t>Sam Taylor</t>
+  </si>
+  <si>
+    <t>Callan Ward</t>
+  </si>
+  <si>
+    <t>Kieren Briggs</t>
+  </si>
+  <si>
+    <t>Brennan Cox</t>
+  </si>
+  <si>
+    <t>Heath Chapman</t>
+  </si>
+  <si>
+    <t>Corey Wagner</t>
+  </si>
+  <si>
+    <t>Hayden Young</t>
+  </si>
+  <si>
+    <t>Luke Ryan</t>
+  </si>
+  <si>
+    <t>Finn Callaghan</t>
   </si>
   <si>
     <t>Connor Idun</t>
   </si>
   <si>
-    <t>Joe Fonti</t>
-  </si>
-  <si>
-    <t>Fremantle</t>
-  </si>
-  <si>
-    <t>Isaiah Dudley</t>
-  </si>
-  <si>
-    <t>Andrew Brayshaw</t>
-  </si>
-  <si>
-    <t>Sam Switkowski</t>
-  </si>
-  <si>
-    <t>Murphy Reid</t>
-  </si>
-  <si>
-    <t>Michael Frederick</t>
-  </si>
-  <si>
-    <t>Toby Greene</t>
-  </si>
-  <si>
-    <t>Lachie Ash</t>
-  </si>
-  <si>
-    <t>Shai Bolton</t>
-  </si>
-  <si>
-    <t>Matthew Johnson</t>
-  </si>
-  <si>
-    <t>Cooper Simpson</t>
-  </si>
-  <si>
-    <t>Heath Chapman</t>
-  </si>
-  <si>
-    <t>Jake Riccardi</t>
-  </si>
-  <si>
-    <t>Harvey Thomas</t>
-  </si>
-  <si>
-    <t>Callan Ward</t>
-  </si>
-  <si>
-    <t>Kieren Briggs</t>
-  </si>
-  <si>
-    <t>Jye Amiss</t>
-  </si>
-  <si>
-    <t>Patrick Voss</t>
-  </si>
-  <si>
-    <t>Sam Taylor</t>
-  </si>
-  <si>
-    <t>Aaron Cadman</t>
-  </si>
-  <si>
-    <t>Brennan Cox</t>
-  </si>
-  <si>
-    <t>Corey Wagner</t>
-  </si>
-  <si>
     <t>Caleb Serong</t>
   </si>
   <si>
-    <t>Hayden Young</t>
-  </si>
-  <si>
-    <t>Jacob Wehr</t>
+    <t>Lachie Whitfield</t>
   </si>
   <si>
     <t>Jeremy Sharp</t>
   </si>
   <si>
-    <t>Luke Ryan</t>
-  </si>
-  <si>
     <t>Port Adelaide VS Geelong</t>
   </si>
   <si>
@@ -522,102 +495,75 @@
     <t>Brad Close</t>
   </si>
   <si>
-    <t>Connor OSullivan</t>
-  </si>
-  <si>
     <t>Shannon Neale</t>
   </si>
   <si>
     <t>Oliver Henry</t>
   </si>
   <si>
+    <t>Tyson Stengle</t>
+  </si>
+  <si>
     <t>Willie Rioli</t>
   </si>
   <si>
-    <t>Dante Visentini</t>
-  </si>
-  <si>
     <t>Mitch Georgiades</t>
   </si>
   <si>
-    <t>Tyson Stengle</t>
-  </si>
-  <si>
-    <t>Jhye Clark</t>
-  </si>
-  <si>
-    <t>Tom Atkins</t>
+    <t>Kane Farrell</t>
+  </si>
+  <si>
+    <t>Shaun Mannagh</t>
+  </si>
+  <si>
+    <t>Jeremy Cameron</t>
+  </si>
+  <si>
+    <t>Jeremy Finlayson</t>
+  </si>
+  <si>
+    <t>Gryan Miers</t>
+  </si>
+  <si>
+    <t>Darcy Byrne-Jones</t>
+  </si>
+  <si>
+    <t>Willem Drew</t>
+  </si>
+  <si>
+    <t>Ryan Burton</t>
+  </si>
+  <si>
+    <t>Patrick Dangerfield</t>
+  </si>
+  <si>
+    <t>Mitch Duncan</t>
   </si>
   <si>
     <t>Mark OConnor</t>
   </si>
   <si>
+    <t>Ollie Wines</t>
+  </si>
+  <si>
+    <t>Jack Bowes</t>
+  </si>
+  <si>
     <t>Joe Richards</t>
   </si>
   <si>
-    <t>Ryan Burton</t>
+    <t>Oliver Dempsey</t>
+  </si>
+  <si>
+    <t>Mark Blicavs</t>
+  </si>
+  <si>
+    <t>Jackson Mead</t>
   </si>
   <si>
     <t>Bailey Smith</t>
   </si>
   <si>
-    <t>Mark Blicavs</t>
-  </si>
-  <si>
-    <t>Jack Bowes</t>
-  </si>
-  <si>
-    <t>Darcy Byrne-Jones</t>
-  </si>
-  <si>
-    <t>Willem Drew</t>
-  </si>
-  <si>
-    <t>Kane Farrell</t>
-  </si>
-  <si>
-    <t>Jeremy Cameron</t>
-  </si>
-  <si>
-    <t>Patrick Dangerfield</t>
-  </si>
-  <si>
-    <t>Mitch Duncan</t>
-  </si>
-  <si>
-    <t>Lachie Jones</t>
-  </si>
-  <si>
-    <t>Esava Ratugolea</t>
-  </si>
-  <si>
-    <t>Oisin Mullin</t>
-  </si>
-  <si>
-    <t>Josh Sinn</t>
-  </si>
-  <si>
-    <t>Aliir Aliir</t>
-  </si>
-  <si>
-    <t>Oliver Dempsey</t>
-  </si>
-  <si>
-    <t>Lawson Humphries</t>
-  </si>
-  <si>
-    <t>Miles Bergman</t>
-  </si>
-  <si>
-    <t>Jeremy Finlayson</t>
-  </si>
-  <si>
-    <t>Sam De Koning</t>
-  </si>
-  <si>
-    <t>Shaun Mannagh</t>
-  </si>
-  <si>
     <t>Western Bulldogs VS Essendon</t>
   </si>
   <si>
@@ -660,27 +606,27 @@
     <t>Peter Wright</t>
   </si>
   <si>
-    <t>Caleb Poulter</t>
-  </si>
-  <si>
     <t>Todd Goldstein</t>
   </si>
   <si>
+    <t>Nate Caddy</t>
+  </si>
+  <si>
+    <t>Rhylee West</t>
+  </si>
+  <si>
+    <t>Zach Merrett</t>
+  </si>
+  <si>
+    <t>Nic Martin</t>
+  </si>
+  <si>
+    <t>Lachlan Bramble</t>
+  </si>
+  <si>
     <t>Ryley Sanders</t>
   </si>
   <si>
-    <t>Ed Richards</t>
-  </si>
-  <si>
-    <t>Joel Freijah</t>
-  </si>
-  <si>
-    <t>Sam Durham</t>
-  </si>
-  <si>
-    <t>Lachlan Bramble</t>
-  </si>
-  <si>
     <t>Jason Johannisen</t>
   </si>
   <si>
@@ -693,37 +639,22 @@
     <t>Ben Hobbs</t>
   </si>
   <si>
-    <t>Lachlan McNeil</t>
-  </si>
-  <si>
-    <t>Buku Khamis</t>
-  </si>
-  <si>
-    <t>Luke Cleary</t>
+    <t>Mason Redman</t>
   </si>
   <si>
     <t>Dylan Shiel</t>
   </si>
   <si>
-    <t>Nate Caddy</t>
-  </si>
-  <si>
-    <t>Rhylee West</t>
-  </si>
-  <si>
-    <t>Zach Merrett</t>
+    <t>Bailey Dale</t>
+  </si>
+  <si>
+    <t>Tom Liberatore</t>
+  </si>
+  <si>
+    <t>Saad El-Hawli</t>
   </si>
   <si>
     <t>Zach Reid</t>
-  </si>
-  <si>
-    <t>Saad El-Hawli</t>
-  </si>
-  <si>
-    <t>James Harmes</t>
-  </si>
-  <si>
-    <t>Will Setterfield</t>
   </si>
   <si>
     <t>Richmond VS North Melbourne</t>
@@ -1659,19 +1590,19 @@
         <v>9</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="C39" s="3">
-        <v>0</v>
+        <v>2.17</v>
       </c>
       <c r="D39" s="3">
-        <v>6.5</v>
+        <v>1.95</v>
       </c>
       <c r="E39" s="4">
-        <v>0</v>
+        <v>-10.1</v>
       </c>
       <c r="F39" s="4">
-        <v>0</v>
+        <v>-10.1</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1679,19 +1610,19 @@
         <v>9</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C40" s="3">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="D40" s="3">
-        <v>7.5</v>
+        <v>5.5</v>
       </c>
       <c r="E40" s="4">
-        <v>0</v>
+        <v>-47.6</v>
       </c>
       <c r="F40" s="4">
-        <v>0</v>
+        <v>-38.1</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1699,19 +1630,19 @@
         <v>9</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C41" s="3">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="D41" s="3">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E41" s="4">
-        <v>0</v>
+        <v>-58.3</v>
       </c>
       <c r="F41" s="4">
-        <v>0</v>
+        <v>-52.5</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1719,19 +1650,19 @@
         <v>9</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C42" s="3">
-        <v>0</v>
+        <v>33.5</v>
       </c>
       <c r="D42" s="3">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="E42" s="4">
-        <v>0</v>
+        <v>-61.2</v>
       </c>
       <c r="F42" s="4">
-        <v>0</v>
+        <v>-49</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1824,19 +1755,19 @@
         <v>15</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C49" s="3">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="D49" s="3">
-        <v>26</v>
+        <v>2.3</v>
       </c>
       <c r="E49" s="4">
-        <v>0</v>
+        <v>-20.7</v>
       </c>
       <c r="F49" s="4">
-        <v>0</v>
+        <v>-24.8</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1844,24 +1775,24 @@
         <v>15</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C50" s="3">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="D50" s="3">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="E50" s="4">
-        <v>0</v>
+        <v>-29.4</v>
       </c>
       <c r="F50" s="4">
-        <v>0</v>
+        <v>-23.5</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1889,7 +1820,7 @@
         <v>9</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C54" s="3">
         <v>1.3</v>
@@ -1929,19 +1860,19 @@
         <v>9</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C56" s="3">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="D56" s="3">
-        <v>6.5</v>
+        <v>1.52</v>
       </c>
       <c r="E56" s="4">
-        <v>0</v>
+        <v>-2.6</v>
       </c>
       <c r="F56" s="4">
-        <v>0</v>
+        <v>-2.3</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1949,19 +1880,19 @@
         <v>9</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C57" s="3">
-        <v>1.56</v>
+        <v>1.1</v>
       </c>
       <c r="D57" s="3">
-        <v>1.52</v>
+        <v>1.02</v>
       </c>
       <c r="E57" s="4">
-        <v>-2.6</v>
+        <v>-7.3</v>
       </c>
       <c r="F57" s="4">
-        <v>-2.3</v>
+        <v>-6.6</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1969,24 +1900,24 @@
         <v>9</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="C58" s="3">
-        <v>1.1</v>
+        <v>1.33</v>
       </c>
       <c r="D58" s="3">
-        <v>1.02</v>
+        <v>1.17</v>
       </c>
       <c r="E58" s="4">
-        <v>-7.3</v>
+        <v>-12</v>
       </c>
       <c r="F58" s="4">
-        <v>-6.6</v>
+        <v>-10.8</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2014,7 +1945,7 @@
         <v>15</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C62" s="3">
         <v>1.18</v>
@@ -2034,7 +1965,7 @@
         <v>15</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C63" s="3">
         <v>2.57</v>
@@ -2054,7 +1985,7 @@
         <v>15</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C64" s="3">
         <v>1.25</v>
@@ -2074,7 +2005,7 @@
         <v>15</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C65" s="3">
         <v>1.04</v>
@@ -2094,7 +2025,7 @@
         <v>15</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C66" s="3">
         <v>1.66</v>
@@ -2111,7 +2042,7 @@
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2159,7 +2090,7 @@
         <v>9</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="C71" s="3">
         <v>1.41</v>
@@ -2179,19 +2110,19 @@
         <v>9</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C72" s="3">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="D72" s="3">
-        <v>9</v>
+        <v>1.4</v>
       </c>
       <c r="E72" s="4">
-        <v>0</v>
+        <v>-3.4</v>
       </c>
       <c r="F72" s="4">
-        <v>0</v>
+        <v>-3.4</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2199,19 +2130,19 @@
         <v>9</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="C73" s="3">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="D73" s="3">
-        <v>9</v>
+        <v>1.05</v>
       </c>
       <c r="E73" s="4">
-        <v>0</v>
+        <v>-5.4</v>
       </c>
       <c r="F73" s="4">
-        <v>0</v>
+        <v>-5.4</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2219,24 +2150,24 @@
         <v>9</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="C74" s="3">
-        <v>0</v>
+        <v>3.29</v>
       </c>
       <c r="D74" s="3">
-        <v>9</v>
+        <v>3.1</v>
       </c>
       <c r="E74" s="4">
-        <v>0</v>
+        <v>-5.8</v>
       </c>
       <c r="F74" s="4">
-        <v>0</v>
+        <v>-4.6</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2264,7 +2195,7 @@
         <v>15</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C78" s="3">
         <v>2.26</v>
@@ -2284,7 +2215,7 @@
         <v>15</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C79" s="3">
         <v>1.24</v>
@@ -2304,7 +2235,7 @@
         <v>15</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C80" s="3">
         <v>8.43</v>
@@ -2324,19 +2255,19 @@
         <v>15</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="C81" s="3">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="D81" s="3">
-        <v>9</v>
+        <v>1.3</v>
       </c>
       <c r="E81" s="4">
-        <v>0</v>
+        <v>-0.8</v>
       </c>
       <c r="F81" s="4">
-        <v>0</v>
+        <v>-0.8</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2344,24 +2275,24 @@
         <v>15</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C82" s="3">
-        <v>1.31</v>
+        <v>2.32</v>
       </c>
       <c r="D82" s="3">
-        <v>1.3</v>
+        <v>2.2</v>
       </c>
       <c r="E82" s="4">
-        <v>-0.8</v>
+        <v>-5.2</v>
       </c>
       <c r="F82" s="4">
-        <v>-0.8</v>
+        <v>-5.2</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2389,7 +2320,7 @@
         <v>9</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="C86" s="3">
         <v>1.73</v>
@@ -2409,7 +2340,7 @@
         <v>9</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C87" s="3">
         <v>9.33</v>
@@ -2449,7 +2380,7 @@
         <v>9</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C89" s="3">
         <v>1.45</v>
@@ -2469,24 +2400,24 @@
         <v>9</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="C90" s="3">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="D90" s="3">
-        <v>10</v>
+        <v>1.28</v>
       </c>
       <c r="E90" s="4">
-        <v>0</v>
+        <v>-7.9</v>
       </c>
       <c r="F90" s="4">
-        <v>0</v>
+        <v>-7.1</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2514,7 +2445,7 @@
         <v>15</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C94" s="3">
         <v>4.94</v>
@@ -2534,19 +2465,19 @@
         <v>15</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C95" s="3">
-        <v>0</v>
+        <v>18.25</v>
       </c>
       <c r="D95" s="3">
-        <v>4.5</v>
+        <v>17</v>
       </c>
       <c r="E95" s="4">
-        <v>0</v>
+        <v>-6.8</v>
       </c>
       <c r="F95" s="4">
-        <v>0</v>
+        <v>-6.1</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2554,19 +2485,19 @@
         <v>15</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C96" s="3">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="D96" s="3">
-        <v>26</v>
+        <v>2.6</v>
       </c>
       <c r="E96" s="4">
-        <v>0</v>
+        <v>-9.699999999999999</v>
       </c>
       <c r="F96" s="4">
-        <v>0</v>
+        <v>-7.8</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2574,19 +2505,19 @@
         <v>15</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="C97" s="3">
-        <v>0</v>
+        <v>29.5</v>
       </c>
       <c r="D97" s="3">
         <v>26</v>
       </c>
       <c r="E97" s="4">
-        <v>0</v>
+        <v>-11.9</v>
       </c>
       <c r="F97" s="4">
-        <v>0</v>
+        <v>-9.5</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2594,24 +2525,24 @@
         <v>15</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="C98" s="3">
-        <v>0</v>
+        <v>2.81</v>
       </c>
       <c r="D98" s="3">
-        <v>26</v>
+        <v>2.4</v>
       </c>
       <c r="E98" s="4">
-        <v>0</v>
+        <v>-14.6</v>
       </c>
       <c r="F98" s="4">
-        <v>0</v>
+        <v>-13.1</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2639,7 +2570,7 @@
         <v>9</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="C102" s="3">
         <v>3.25</v>
@@ -2659,19 +2590,19 @@
         <v>9</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C103" s="3">
-        <v>0</v>
+        <v>3.21</v>
       </c>
       <c r="D103" s="3">
-        <v>34</v>
+        <v>2.6</v>
       </c>
       <c r="E103" s="4">
-        <v>0</v>
+        <v>-19</v>
       </c>
       <c r="F103" s="4">
-        <v>0</v>
+        <v>-15.2</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -2679,19 +2610,19 @@
         <v>9</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="C104" s="3">
-        <v>0</v>
+        <v>3.12</v>
       </c>
       <c r="D104" s="3">
-        <v>51</v>
+        <v>2</v>
       </c>
       <c r="E104" s="4">
-        <v>0</v>
+        <v>-35.9</v>
       </c>
       <c r="F104" s="4">
-        <v>0</v>
+        <v>-39.5</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -2699,19 +2630,19 @@
         <v>9</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="C105" s="3">
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="D105" s="3">
-        <v>51</v>
+        <v>5.5</v>
       </c>
       <c r="E105" s="4">
-        <v>0</v>
+        <v>-42.1</v>
       </c>
       <c r="F105" s="4">
-        <v>0</v>
+        <v>-37.9</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -2719,24 +2650,24 @@
         <v>9</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="C106" s="3">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="D106" s="3">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="E106" s="4">
-        <v>0</v>
+        <v>-56.8</v>
       </c>
       <c r="F106" s="4">
-        <v>0</v>
+        <v>-45.4</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -2764,7 +2695,7 @@
         <v>15</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C110" s="3">
         <v>39.5</v>
@@ -2784,7 +2715,7 @@
         <v>15</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C111" s="3">
         <v>39.5</v>
@@ -2804,19 +2735,19 @@
         <v>15</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="C112" s="3">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="D112" s="3">
-        <v>16</v>
+        <v>6.5</v>
       </c>
       <c r="E112" s="4">
-        <v>0</v>
+        <v>-9.699999999999999</v>
       </c>
       <c r="F112" s="4">
-        <v>0</v>
+        <v>-7.8</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -2824,19 +2755,19 @@
         <v>15</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C113" s="3">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="D113" s="3">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="E113" s="4">
-        <v>0</v>
+        <v>-13.6</v>
       </c>
       <c r="F113" s="4">
-        <v>0</v>
+        <v>-10.9</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -2844,19 +2775,19 @@
         <v>15</v>
       </c>
       <c r="B114" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C114" s="3">
+        <v>68</v>
+      </c>
+      <c r="D114" s="3">
         <v>51</v>
       </c>
-      <c r="C114" s="3">
-        <v>0</v>
-      </c>
-      <c r="D114" s="3">
-        <v>41</v>
-      </c>
       <c r="E114" s="4">
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="F114" s="4">
-        <v>0</v>
+        <v>-20</v>
       </c>
     </row>
   </sheetData>
@@ -2874,7 +2805,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2882,7 +2813,7 @@
         <v>45793</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2912,10 +2843,10 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C6" s="3">
         <v>2.65</v>
@@ -2932,82 +2863,82 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C7" s="3">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="D7" s="3">
-        <v>4</v>
+        <v>1.26</v>
       </c>
       <c r="E7" s="4">
-        <v>0</v>
+        <v>-3.8</v>
       </c>
       <c r="F7" s="4">
-        <v>0</v>
+        <v>-3.4</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C8" s="3">
-        <v>1.31</v>
+        <v>4.46</v>
       </c>
       <c r="D8" s="3">
-        <v>1.26</v>
+        <v>4</v>
       </c>
       <c r="E8" s="4">
-        <v>-3.8</v>
+        <v>-10.3</v>
       </c>
       <c r="F8" s="4">
-        <v>-3.4</v>
+        <v>-9.300000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C9" s="3">
-        <v>4.46</v>
+        <v>1.3</v>
       </c>
       <c r="D9" s="3">
-        <v>4</v>
+        <v>1.16</v>
       </c>
       <c r="E9" s="4">
-        <v>-10.3</v>
+        <v>-10.8</v>
       </c>
       <c r="F9" s="4">
-        <v>-9.300000000000001</v>
+        <v>-9.699999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>58</v>
-      </c>
       <c r="C10" s="3">
-        <v>1.3</v>
+        <v>3.52</v>
       </c>
       <c r="D10" s="3">
-        <v>1.16</v>
+        <v>2.9</v>
       </c>
       <c r="E10" s="4">
-        <v>-10.8</v>
+        <v>-17.6</v>
       </c>
       <c r="F10" s="4">
-        <v>-9.699999999999999</v>
+        <v>-17.6</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -3037,10 +2968,10 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="3" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C14" s="3">
         <v>1.33</v>
@@ -3057,10 +2988,10 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="3" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C15" s="3">
         <v>2.05</v>
@@ -3077,10 +3008,10 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="3" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C16" s="3">
         <v>1.5</v>
@@ -3097,10 +3028,10 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="3" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C17" s="3">
         <v>2.22</v>
@@ -3117,10 +3048,10 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>59</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>64</v>
       </c>
       <c r="C18" s="3">
         <v>1.04</v>
@@ -3162,10 +3093,10 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C22" s="3">
         <v>7.5</v>
@@ -3182,10 +3113,10 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C23" s="3">
         <v>2.13</v>
@@ -3202,62 +3133,62 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C24" s="3">
-        <v>0</v>
+        <v>3.16</v>
       </c>
       <c r="D24" s="3">
-        <v>4.2</v>
+        <v>2.6</v>
       </c>
       <c r="E24" s="4">
-        <v>0</v>
+        <v>-17.7</v>
       </c>
       <c r="F24" s="4">
-        <v>0</v>
+        <v>-15.9</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="C25" s="3">
-        <v>0</v>
+        <v>2.59</v>
       </c>
       <c r="D25" s="3">
-        <v>5.5</v>
+        <v>1.9</v>
       </c>
       <c r="E25" s="4">
-        <v>0</v>
+        <v>-26.6</v>
       </c>
       <c r="F25" s="4">
-        <v>0</v>
+        <v>-26.6</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C26" s="3">
-        <v>0</v>
+        <v>3.05</v>
       </c>
       <c r="D26" s="3">
-        <v>15</v>
+        <v>1.85</v>
       </c>
       <c r="E26" s="4">
-        <v>0</v>
+        <v>-39.3</v>
       </c>
       <c r="F26" s="4">
-        <v>0</v>
+        <v>-35.4</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -3287,10 +3218,10 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="3" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C30" s="3">
         <v>6.43</v>
@@ -3307,10 +3238,10 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="3" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C31" s="3">
         <v>5.71</v>
@@ -3327,10 +3258,10 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="3" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C32" s="3">
         <v>3.27</v>
@@ -3347,10 +3278,10 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="3" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C33" s="3">
         <v>1.69</v>
@@ -3367,10 +3298,10 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B34" s="3" t="s">
         <v>59</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>64</v>
       </c>
       <c r="C34" s="3">
         <v>1.28</v>
@@ -3412,102 +3343,102 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="C38" s="3">
-        <v>0</v>
+        <v>5.4</v>
       </c>
       <c r="D38" s="3">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="E38" s="4">
-        <v>0</v>
+        <v>-7.4</v>
       </c>
       <c r="F38" s="4">
-        <v>0</v>
+        <v>-6.7</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="C39" s="3">
-        <v>0</v>
+        <v>6.38</v>
       </c>
       <c r="D39" s="3">
-        <v>13</v>
+        <v>3.8</v>
       </c>
       <c r="E39" s="4">
-        <v>0</v>
+        <v>-40.4</v>
       </c>
       <c r="F39" s="4">
-        <v>0</v>
+        <v>-32.3</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="C40" s="3">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="D40" s="3">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="E40" s="4">
-        <v>0</v>
+        <v>-42.2</v>
       </c>
       <c r="F40" s="4">
-        <v>0</v>
+        <v>-33.8</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C41" s="3">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="D41" s="3">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E41" s="4">
-        <v>0</v>
+        <v>-61.2</v>
       </c>
       <c r="F41" s="4">
-        <v>0</v>
+        <v>-49</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="C42" s="3">
-        <v>0</v>
+        <v>15.8</v>
       </c>
       <c r="D42" s="3">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="E42" s="4">
-        <v>0</v>
+        <v>-62</v>
       </c>
       <c r="F42" s="4">
-        <v>0</v>
+        <v>-49.6</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -3537,10 +3468,10 @@
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="3" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C46" s="3">
         <v>6</v>
@@ -3557,10 +3488,10 @@
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="3" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C47" s="3">
         <v>15</v>
@@ -3577,10 +3508,10 @@
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="3" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C48" s="3">
         <v>2.75</v>
@@ -3597,10 +3528,10 @@
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="3" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C49" s="3">
         <v>17.5</v>
@@ -3617,10 +3548,10 @@
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B50" s="3" t="s">
         <v>59</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>64</v>
       </c>
       <c r="C50" s="3">
         <v>1.93</v>
@@ -3637,7 +3568,7 @@
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -3662,10 +3593,10 @@
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C54" s="3">
         <v>1.25</v>
@@ -3682,10 +3613,10 @@
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C55" s="3">
         <v>1.5</v>
@@ -3702,10 +3633,10 @@
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C56" s="3">
         <v>1.08</v>
@@ -3722,47 +3653,47 @@
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B57" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B57" s="3" t="s">
-        <v>65</v>
-      </c>
       <c r="C57" s="3">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="D57" s="3">
-        <v>4.5</v>
+        <v>1.2</v>
       </c>
       <c r="E57" s="4">
-        <v>0</v>
+        <v>-2.4</v>
       </c>
       <c r="F57" s="4">
-        <v>0</v>
+        <v>-2.2</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C58" s="3">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="D58" s="3">
-        <v>1.2</v>
+        <v>1.11</v>
       </c>
       <c r="E58" s="4">
-        <v>-2.4</v>
+        <v>-2.6</v>
       </c>
       <c r="F58" s="4">
-        <v>-2.2</v>
+        <v>-2.6</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -3787,10 +3718,10 @@
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="3" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C62" s="3">
         <v>1.04</v>
@@ -3807,10 +3738,10 @@
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="3" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C63" s="3">
         <v>2.88</v>
@@ -3827,10 +3758,10 @@
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="3" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C64" s="3">
         <v>1.16</v>
@@ -3847,10 +3778,10 @@
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="3" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C65" s="3">
         <v>1.33</v>
@@ -3867,10 +3798,10 @@
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="3" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C66" s="3">
         <v>1.54</v>
@@ -3887,7 +3818,7 @@
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -3912,10 +3843,10 @@
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C70" s="3">
         <v>2</v>
@@ -3932,10 +3863,10 @@
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C71" s="3">
         <v>2.47</v>
@@ -3952,10 +3883,10 @@
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C72" s="3">
         <v>1.52</v>
@@ -3972,10 +3903,10 @@
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C73" s="3">
         <v>3.95</v>
@@ -3992,10 +3923,10 @@
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="C74" s="3">
         <v>1.22</v>
@@ -4012,7 +3943,7 @@
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -4037,10 +3968,10 @@
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="3" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C78" s="3">
         <v>1.52</v>
@@ -4057,10 +3988,10 @@
     </row>
     <row r="79" spans="1:6">
       <c r="A79" s="3" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C79" s="3">
         <v>1.02</v>
@@ -4077,67 +4008,67 @@
     </row>
     <row r="80" spans="1:6">
       <c r="A80" s="3" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C80" s="3">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="D80" s="3">
-        <v>9</v>
+        <v>1.65</v>
       </c>
       <c r="E80" s="4">
-        <v>0</v>
+        <v>-2.9</v>
       </c>
       <c r="F80" s="4">
-        <v>0</v>
+        <v>-2.6</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81" s="3" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C81" s="3">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="D81" s="3">
-        <v>9</v>
+        <v>1.2</v>
       </c>
       <c r="E81" s="4">
-        <v>0</v>
+        <v>-3.2</v>
       </c>
       <c r="F81" s="4">
-        <v>0</v>
+        <v>-2.9</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82" s="3" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="C82" s="3">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="D82" s="3">
-        <v>9</v>
+        <v>1.06</v>
       </c>
       <c r="E82" s="4">
-        <v>0</v>
+        <v>-10.2</v>
       </c>
       <c r="F82" s="4">
-        <v>0</v>
+        <v>-9.199999999999999</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -4162,10 +4093,10 @@
     </row>
     <row r="86" spans="1:6">
       <c r="A86" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C86" s="3">
         <v>3.42</v>
@@ -4182,10 +4113,10 @@
     </row>
     <row r="87" spans="1:6">
       <c r="A87" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C87" s="3">
         <v>9.33</v>
@@ -4202,67 +4133,67 @@
     </row>
     <row r="88" spans="1:6">
       <c r="A88" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="C88" s="3">
-        <v>0</v>
+        <v>18.75</v>
       </c>
       <c r="D88" s="3">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E88" s="4">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="F88" s="4">
-        <v>0</v>
+        <v>-3.2</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="C89" s="3">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D89" s="3">
-        <v>26</v>
+        <v>7.5</v>
       </c>
       <c r="E89" s="4">
-        <v>0</v>
+        <v>-6.2</v>
       </c>
       <c r="F89" s="4">
-        <v>0</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="C90" s="3">
-        <v>0</v>
+        <v>2.39</v>
       </c>
       <c r="D90" s="3">
-        <v>26</v>
+        <v>2.1</v>
       </c>
       <c r="E90" s="4">
-        <v>0</v>
+        <v>-12.1</v>
       </c>
       <c r="F90" s="4">
-        <v>0</v>
+        <v>-10.9</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -4287,10 +4218,10 @@
     </row>
     <row r="94" spans="1:6">
       <c r="A94" s="3" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C94" s="3">
         <v>3.62</v>
@@ -4307,10 +4238,10 @@
     </row>
     <row r="95" spans="1:6">
       <c r="A95" s="3" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C95" s="3">
         <v>1.24</v>
@@ -4327,10 +4258,10 @@
     </row>
     <row r="96" spans="1:6">
       <c r="A96" s="3" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="C96" s="3">
         <v>10.8</v>
@@ -4347,47 +4278,47 @@
     </row>
     <row r="97" spans="1:6">
       <c r="A97" s="3" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="C97" s="3">
-        <v>0</v>
+        <v>1.59</v>
       </c>
       <c r="D97" s="3">
-        <v>6</v>
+        <v>1.55</v>
       </c>
       <c r="E97" s="4">
-        <v>0</v>
+        <v>-2.5</v>
       </c>
       <c r="F97" s="4">
-        <v>0</v>
+        <v>-2.5</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98" s="3" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="C98" s="3">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="D98" s="3">
-        <v>10</v>
+        <v>2.05</v>
       </c>
       <c r="E98" s="4">
-        <v>0</v>
+        <v>-10.9</v>
       </c>
       <c r="F98" s="4">
-        <v>0</v>
+        <v>-10.9</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -4412,10 +4343,10 @@
     </row>
     <row r="102" spans="1:6">
       <c r="A102" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C102" s="3">
         <v>28</v>
@@ -4432,87 +4363,87 @@
     </row>
     <row r="103" spans="1:6">
       <c r="A103" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C103" s="3">
-        <v>0</v>
+        <v>16.6</v>
       </c>
       <c r="D103" s="3">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="E103" s="4">
-        <v>0</v>
+        <v>-15.7</v>
       </c>
       <c r="F103" s="4">
-        <v>0</v>
+        <v>-14.1</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C104" s="3">
-        <v>0</v>
+        <v>16.4</v>
       </c>
       <c r="D104" s="3">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="E104" s="4">
-        <v>0</v>
+        <v>-20.7</v>
       </c>
       <c r="F104" s="4">
-        <v>0</v>
+        <v>-16.6</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C105" s="3">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="D105" s="3">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="E105" s="4">
-        <v>0</v>
+        <v>-29.3</v>
       </c>
       <c r="F105" s="4">
-        <v>0</v>
+        <v>-23.4</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="C106" s="3">
-        <v>0</v>
+        <v>9.880000000000001</v>
       </c>
       <c r="D106" s="3">
-        <v>51</v>
+        <v>4.5</v>
       </c>
       <c r="E106" s="4">
-        <v>0</v>
+        <v>-54.5</v>
       </c>
       <c r="F106" s="4">
-        <v>0</v>
+        <v>-43.6</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -4537,10 +4468,10 @@
     </row>
     <row r="110" spans="1:6">
       <c r="A110" s="3" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C110" s="3">
         <v>15.2</v>
@@ -4557,10 +4488,10 @@
     </row>
     <row r="111" spans="1:6">
       <c r="A111" s="3" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C111" s="3">
         <v>2.03</v>
@@ -4577,62 +4508,62 @@
     </row>
     <row r="112" spans="1:6">
       <c r="A112" s="3" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C112" s="3">
-        <v>0</v>
+        <v>2.89</v>
       </c>
       <c r="D112" s="3">
-        <v>12</v>
+        <v>2.8</v>
       </c>
       <c r="E112" s="4">
-        <v>0</v>
+        <v>-3.1</v>
       </c>
       <c r="F112" s="4">
-        <v>0</v>
+        <v>-3.1</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113" s="3" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="C113" s="3">
-        <v>0</v>
+        <v>6.2</v>
       </c>
       <c r="D113" s="3">
-        <v>14</v>
+        <v>4.5</v>
       </c>
       <c r="E113" s="4">
-        <v>0</v>
+        <v>-27.4</v>
       </c>
       <c r="F113" s="4">
-        <v>0</v>
+        <v>-21.9</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114" s="3" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="C114" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D114" s="3">
-        <v>23</v>
+        <v>2.2</v>
       </c>
       <c r="E114" s="4">
-        <v>0</v>
+        <v>-45</v>
       </c>
       <c r="F114" s="4">
-        <v>0</v>
+        <v>-45</v>
       </c>
     </row>
   </sheetData>
@@ -4650,7 +4581,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -4658,7 +4589,7 @@
         <v>45794</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -4688,10 +4619,10 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="3" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C6" s="3">
         <v>2.59</v>
@@ -4708,10 +4639,10 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="3" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C7" s="3">
         <v>2.52</v>
@@ -4728,10 +4659,10 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="3" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="C8" s="3">
         <v>2.42</v>
@@ -4748,10 +4679,10 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="3" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C9" s="3">
         <v>2.73</v>
@@ -4768,10 +4699,10 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="3" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C10" s="3">
         <v>2.09</v>
@@ -4813,10 +4744,10 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="3" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C14" s="3">
         <v>1.19</v>
@@ -4833,10 +4764,10 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="3" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C15" s="3">
         <v>1.08</v>
@@ -4853,10 +4784,10 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="3" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C16" s="3">
         <v>1.32</v>
@@ -4873,10 +4804,10 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="3" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="C17" s="3">
         <v>2.05</v>
@@ -4893,10 +4824,10 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="3" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="C18" s="3">
         <v>1.3</v>
@@ -4938,102 +4869,102 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="3" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="C22" s="3">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="D22" s="3">
-        <v>8</v>
+        <v>1.58</v>
       </c>
       <c r="E22" s="4">
-        <v>0</v>
+        <v>-5.4</v>
       </c>
       <c r="F22" s="4">
-        <v>0</v>
+        <v>-4.9</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="3" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="C23" s="3">
-        <v>0</v>
+        <v>16.6</v>
       </c>
       <c r="D23" s="3">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E23" s="4">
-        <v>0</v>
+        <v>-15.7</v>
       </c>
       <c r="F23" s="4">
-        <v>0</v>
+        <v>-12.6</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="3" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="C24" s="3">
-        <v>1.67</v>
+        <v>2.03</v>
       </c>
       <c r="D24" s="3">
         <v>1.58</v>
       </c>
       <c r="E24" s="4">
-        <v>-5.4</v>
+        <v>-22.2</v>
       </c>
       <c r="F24" s="4">
-        <v>-4.9</v>
+        <v>-22.2</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="3" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C25" s="3">
-        <v>16.6</v>
+        <v>14.2</v>
       </c>
       <c r="D25" s="3">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E25" s="4">
-        <v>-15.7</v>
+        <v>-22.5</v>
       </c>
       <c r="F25" s="4">
-        <v>-12.6</v>
+        <v>-20.2</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="3" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C26" s="3">
-        <v>2.03</v>
+        <v>2.55</v>
       </c>
       <c r="D26" s="3">
-        <v>1.58</v>
+        <v>1.95</v>
       </c>
       <c r="E26" s="4">
-        <v>-22.2</v>
+        <v>-23.5</v>
       </c>
       <c r="F26" s="4">
-        <v>-22.2</v>
+        <v>-21.2</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -5063,10 +4994,10 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="3" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C30" s="3">
         <v>1.43</v>
@@ -5083,10 +5014,10 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="3" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C31" s="3">
         <v>1.82</v>
@@ -5103,10 +5034,10 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="3" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="C32" s="3">
         <v>1.64</v>
@@ -5123,10 +5054,10 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="3" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C33" s="3">
         <v>12.25</v>
@@ -5143,22 +5074,22 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="3" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="C34" s="3">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D34" s="3">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E34" s="4">
-        <v>0</v>
+        <v>-12.5</v>
       </c>
       <c r="F34" s="4">
-        <v>0</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -5188,102 +5119,102 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="3" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="C38" s="3">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="D38" s="3">
-        <v>12</v>
+        <v>2.8</v>
       </c>
       <c r="E38" s="4">
-        <v>0</v>
+        <v>-13.8</v>
       </c>
       <c r="F38" s="4">
-        <v>0</v>
+        <v>-13.8</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="3" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="C39" s="3">
-        <v>0</v>
+        <v>5.09</v>
       </c>
       <c r="D39" s="3">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="E39" s="4">
-        <v>0</v>
+        <v>-21.4</v>
       </c>
       <c r="F39" s="4">
-        <v>0</v>
+        <v>-17.1</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="3" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="C40" s="3">
-        <v>0</v>
+        <v>41.5</v>
       </c>
       <c r="D40" s="3">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="E40" s="4">
-        <v>0</v>
+        <v>-37.3</v>
       </c>
       <c r="F40" s="4">
-        <v>0</v>
+        <v>-29.8</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="3" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C41" s="3">
-        <v>0</v>
+        <v>4.79</v>
       </c>
       <c r="D41" s="3">
-        <v>26</v>
+        <v>2.8</v>
       </c>
       <c r="E41" s="4">
-        <v>0</v>
+        <v>-41.5</v>
       </c>
       <c r="F41" s="4">
-        <v>0</v>
+        <v>-45.7</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="3" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C42" s="3">
-        <v>0</v>
+        <v>7.44</v>
       </c>
       <c r="D42" s="3">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="E42" s="4">
-        <v>0</v>
+        <v>-46.2</v>
       </c>
       <c r="F42" s="4">
-        <v>0</v>
+        <v>-46.2</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -5313,10 +5244,10 @@
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="3" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C46" s="3">
         <v>2.68</v>
@@ -5333,10 +5264,10 @@
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="3" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="C47" s="3">
         <v>14</v>
@@ -5353,10 +5284,10 @@
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="3" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C48" s="3">
         <v>16.33</v>
@@ -5373,10 +5304,10 @@
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="3" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C49" s="3">
         <v>4.43</v>
@@ -5393,10 +5324,10 @@
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="3" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="C50" s="3">
         <v>3.14</v>
@@ -5413,7 +5344,7 @@
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -5438,10 +5369,10 @@
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="3" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="C54" s="3">
         <v>2.1</v>
@@ -5458,10 +5389,10 @@
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="3" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="C55" s="3">
         <v>2.39</v>
@@ -5478,10 +5409,10 @@
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="3" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C56" s="3">
         <v>3.17</v>
@@ -5498,10 +5429,10 @@
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="3" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="C57" s="3">
         <v>1.17</v>
@@ -5518,10 +5449,10 @@
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="3" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="C58" s="3">
         <v>1.06</v>
@@ -5538,7 +5469,7 @@
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -5563,10 +5494,10 @@
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="3" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C62" s="3">
         <v>1.43</v>
@@ -5583,10 +5514,10 @@
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="3" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="C63" s="3">
         <v>1.28</v>
@@ -5603,10 +5534,10 @@
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="3" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="C64" s="3">
         <v>1.44</v>
@@ -5623,10 +5554,10 @@
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="3" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="C65" s="3">
         <v>1.48</v>
@@ -5643,10 +5574,10 @@
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="3" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C66" s="3">
         <v>2.3</v>
@@ -5663,7 +5594,7 @@
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -5688,10 +5619,10 @@
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="3" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="C70" s="3">
         <v>1.45</v>
@@ -5708,10 +5639,10 @@
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="3" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="C71" s="3">
         <v>7.9</v>
@@ -5728,67 +5659,67 @@
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="3" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="C72" s="3">
-        <v>0</v>
+        <v>9.109999999999999</v>
       </c>
       <c r="D72" s="3">
         <v>9</v>
       </c>
       <c r="E72" s="4">
-        <v>0</v>
+        <v>-1.2</v>
       </c>
       <c r="F72" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="3" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="C73" s="3">
-        <v>9.109999999999999</v>
+        <v>1.6</v>
       </c>
       <c r="D73" s="3">
-        <v>9</v>
+        <v>1.5</v>
       </c>
       <c r="E73" s="4">
-        <v>-1.2</v>
+        <v>-6.2</v>
       </c>
       <c r="F73" s="4">
-        <v>-1</v>
+        <v>-6.2</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="3" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C74" s="3">
-        <v>1.6</v>
+        <v>2.03</v>
       </c>
       <c r="D74" s="3">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="E74" s="4">
-        <v>-6.2</v>
+        <v>-6.4</v>
       </c>
       <c r="F74" s="4">
-        <v>-6.2</v>
+        <v>-6.4</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -5813,10 +5744,10 @@
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="3" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="C78" s="3">
         <v>2.43</v>
@@ -5833,10 +5764,10 @@
     </row>
     <row r="79" spans="1:6">
       <c r="A79" s="3" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="C79" s="3">
         <v>2.08</v>
@@ -5853,10 +5784,10 @@
     </row>
     <row r="80" spans="1:6">
       <c r="A80" s="3" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="C80" s="3">
         <v>1.04</v>
@@ -5873,10 +5804,10 @@
     </row>
     <row r="81" spans="1:6">
       <c r="A81" s="3" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="C81" s="3">
         <v>1.17</v>
@@ -5893,27 +5824,27 @@
     </row>
     <row r="82" spans="1:6">
       <c r="A82" s="3" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="C82" s="3">
-        <v>0</v>
+        <v>4.38</v>
       </c>
       <c r="D82" s="3">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="E82" s="4">
-        <v>0</v>
+        <v>-4.1</v>
       </c>
       <c r="F82" s="4">
-        <v>0</v>
+        <v>-3.7</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -5938,10 +5869,10 @@
     </row>
     <row r="86" spans="1:6">
       <c r="A86" s="3" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="C86" s="3">
         <v>2.64</v>
@@ -5958,87 +5889,87 @@
     </row>
     <row r="87" spans="1:6">
       <c r="A87" s="3" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="C87" s="3">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="D87" s="3">
-        <v>10</v>
+        <v>1.16</v>
       </c>
       <c r="E87" s="4">
-        <v>0</v>
+        <v>-8.699999999999999</v>
       </c>
       <c r="F87" s="4">
-        <v>0</v>
+        <v>-7.8</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88" s="3" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>116</v>
+        <v>83</v>
       </c>
       <c r="C88" s="3">
-        <v>0</v>
+        <v>3.61</v>
       </c>
       <c r="D88" s="3">
-        <v>26</v>
+        <v>3.1</v>
       </c>
       <c r="E88" s="4">
-        <v>0</v>
+        <v>-14.1</v>
       </c>
       <c r="F88" s="4">
-        <v>0</v>
+        <v>-11.3</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89" s="3" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="C89" s="3">
-        <v>0</v>
+        <v>2.07</v>
       </c>
       <c r="D89" s="3">
-        <v>26</v>
+        <v>1.42</v>
       </c>
       <c r="E89" s="4">
-        <v>0</v>
+        <v>-31.4</v>
       </c>
       <c r="F89" s="4">
-        <v>0</v>
+        <v>-31.4</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90" s="3" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C90" s="3">
-        <v>0</v>
+        <v>2.85</v>
       </c>
       <c r="D90" s="3">
-        <v>26</v>
+        <v>1.85</v>
       </c>
       <c r="E90" s="4">
-        <v>0</v>
+        <v>-35.1</v>
       </c>
       <c r="F90" s="4">
-        <v>0</v>
+        <v>-35.1</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -6063,10 +5994,10 @@
     </row>
     <row r="94" spans="1:6">
       <c r="A94" s="3" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="C94" s="3">
         <v>3.67</v>
@@ -6083,10 +6014,10 @@
     </row>
     <row r="95" spans="1:6">
       <c r="A95" s="3" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="C95" s="3">
         <v>6.22</v>
@@ -6103,10 +6034,10 @@
     </row>
     <row r="96" spans="1:6">
       <c r="A96" s="3" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="C96" s="3">
         <v>1.35</v>
@@ -6123,10 +6054,10 @@
     </row>
     <row r="97" spans="1:6">
       <c r="A97" s="3" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="C97" s="3">
         <v>1.81</v>
@@ -6143,27 +6074,27 @@
     </row>
     <row r="98" spans="1:6">
       <c r="A98" s="3" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="C98" s="3">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="D98" s="3">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E98" s="4">
-        <v>0</v>
+        <v>-29.6</v>
       </c>
       <c r="F98" s="4">
-        <v>0</v>
+        <v>-26.6</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -6188,10 +6119,10 @@
     </row>
     <row r="102" spans="1:6">
       <c r="A102" s="3" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="C102" s="3">
         <v>6.17</v>
@@ -6208,10 +6139,10 @@
     </row>
     <row r="103" spans="1:6">
       <c r="A103" s="3" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C103" s="3">
         <v>17.75</v>
@@ -6228,67 +6159,67 @@
     </row>
     <row r="104" spans="1:6">
       <c r="A104" s="3" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="C104" s="3">
-        <v>0</v>
+        <v>2.19</v>
       </c>
       <c r="D104" s="3">
-        <v>14</v>
+        <v>1.65</v>
       </c>
       <c r="E104" s="4">
-        <v>0</v>
+        <v>-24.7</v>
       </c>
       <c r="F104" s="4">
-        <v>0</v>
+        <v>-22.2</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105" s="3" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="C105" s="3">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="D105" s="3">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="E105" s="4">
-        <v>0</v>
+        <v>-54.4</v>
       </c>
       <c r="F105" s="4">
-        <v>0</v>
+        <v>-43.5</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106" s="3" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>121</v>
+        <v>82</v>
       </c>
       <c r="C106" s="3">
-        <v>0</v>
+        <v>5.53</v>
       </c>
       <c r="D106" s="3">
-        <v>41</v>
+        <v>2.4</v>
       </c>
       <c r="E106" s="4">
-        <v>0</v>
+        <v>-56.6</v>
       </c>
       <c r="F106" s="4">
-        <v>0</v>
+        <v>-56.6</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -6313,10 +6244,10 @@
     </row>
     <row r="110" spans="1:6">
       <c r="A110" s="3" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="C110" s="3">
         <v>11</v>
@@ -6333,10 +6264,10 @@
     </row>
     <row r="111" spans="1:6">
       <c r="A111" s="3" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="C111" s="3">
         <v>2.24</v>
@@ -6353,10 +6284,10 @@
     </row>
     <row r="112" spans="1:6">
       <c r="A112" s="3" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="C112" s="3">
         <v>28</v>
@@ -6373,10 +6304,10 @@
     </row>
     <row r="113" spans="1:6">
       <c r="A113" s="3" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="C113" s="3">
         <v>4.47</v>
@@ -6393,22 +6324,22 @@
     </row>
     <row r="114" spans="1:6">
       <c r="A114" s="3" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="C114" s="3">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="D114" s="3">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="E114" s="4">
-        <v>0</v>
+        <v>-54.3</v>
       </c>
       <c r="F114" s="4">
-        <v>0</v>
+        <v>-43.4</v>
       </c>
     </row>
   </sheetData>
@@ -6426,7 +6357,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -6434,7 +6365,7 @@
         <v>45794</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -6464,10 +6395,10 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="3" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C6" s="3">
         <v>3.52</v>
@@ -6484,10 +6415,10 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="3" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="C7" s="3">
         <v>3.14</v>
@@ -6504,62 +6435,62 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="3" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="C8" s="3">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="D8" s="3">
-        <v>3.2</v>
+        <v>1.01</v>
       </c>
       <c r="E8" s="4">
-        <v>0</v>
+        <v>-5.6</v>
       </c>
       <c r="F8" s="4">
-        <v>0</v>
+        <v>-5.6</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="3" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="C9" s="3">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="D9" s="3">
-        <v>4</v>
+        <v>1.03</v>
       </c>
       <c r="E9" s="4">
-        <v>0</v>
+        <v>-8</v>
       </c>
       <c r="F9" s="4">
-        <v>0</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="3" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C10" s="3">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="D10" s="3">
-        <v>4</v>
+        <v>1.24</v>
       </c>
       <c r="E10" s="4">
-        <v>0</v>
+        <v>-13.3</v>
       </c>
       <c r="F10" s="4">
-        <v>0</v>
+        <v>-12</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -6589,10 +6520,10 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="3" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="C14" s="3">
         <v>1.4</v>
@@ -6609,10 +6540,10 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="3" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="C15" s="3">
         <v>2.55</v>
@@ -6629,10 +6560,10 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="3" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="C16" s="3">
         <v>1.82</v>
@@ -6649,10 +6580,10 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="3" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="C17" s="3">
         <v>1.5</v>
@@ -6669,10 +6600,10 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="3" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="C18" s="3">
         <v>1.37</v>
@@ -6714,10 +6645,10 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="3" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C22" s="3">
         <v>10.12</v>
@@ -6734,10 +6665,10 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="3" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="C23" s="3">
         <v>1.41</v>
@@ -6754,62 +6685,62 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="3" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="C24" s="3">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="D24" s="3">
-        <v>13</v>
+        <v>1.15</v>
       </c>
       <c r="E24" s="4">
-        <v>0</v>
+        <v>-15.4</v>
       </c>
       <c r="F24" s="4">
-        <v>0</v>
+        <v>-15.4</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="3" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C25" s="3">
-        <v>0</v>
+        <v>2.61</v>
       </c>
       <c r="D25" s="3">
-        <v>15</v>
+        <v>2.2</v>
       </c>
       <c r="E25" s="4">
-        <v>0</v>
+        <v>-15.7</v>
       </c>
       <c r="F25" s="4">
-        <v>0</v>
+        <v>-12.6</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="3" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="C26" s="3">
-        <v>0</v>
+        <v>10.86</v>
       </c>
       <c r="D26" s="3">
-        <v>15</v>
+        <v>7.5</v>
       </c>
       <c r="E26" s="4">
-        <v>0</v>
+        <v>-30.9</v>
       </c>
       <c r="F26" s="4">
-        <v>0</v>
+        <v>-24.7</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -6839,10 +6770,10 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="3" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="C30" s="3">
         <v>2.33</v>
@@ -6859,10 +6790,10 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B31" s="3" t="s">
         <v>129</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>137</v>
       </c>
       <c r="C31" s="3">
         <v>2.05</v>
@@ -6879,62 +6810,62 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="3" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="C32" s="3">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="D32" s="3">
-        <v>14</v>
+        <v>2.1</v>
       </c>
       <c r="E32" s="4">
-        <v>0</v>
+        <v>-2.3</v>
       </c>
       <c r="F32" s="4">
-        <v>0</v>
+        <v>-2.3</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="3" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="C33" s="3">
-        <v>0</v>
+        <v>5.29</v>
       </c>
       <c r="D33" s="3">
-        <v>15</v>
+        <v>4.5</v>
       </c>
       <c r="E33" s="4">
-        <v>0</v>
+        <v>-14.9</v>
       </c>
       <c r="F33" s="4">
-        <v>0</v>
+        <v>-13.4</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="3" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="C34" s="3">
-        <v>0</v>
+        <v>8.859999999999999</v>
       </c>
       <c r="D34" s="3">
-        <v>15</v>
+        <v>6.5</v>
       </c>
       <c r="E34" s="4">
-        <v>0</v>
+        <v>-26.6</v>
       </c>
       <c r="F34" s="4">
-        <v>0</v>
+        <v>-21.3</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -6964,10 +6895,10 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="3" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="C38" s="3">
         <v>4.62</v>
@@ -6984,10 +6915,10 @@
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="3" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="C39" s="3">
         <v>2.48</v>
@@ -7004,62 +6935,62 @@
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="3" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>142</v>
+        <v>117</v>
       </c>
       <c r="C40" s="3">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="D40" s="3">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="E40" s="4">
-        <v>0</v>
+        <v>-3.7</v>
       </c>
       <c r="F40" s="4">
-        <v>0</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="3" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="C41" s="3">
-        <v>0</v>
+        <v>2.57</v>
       </c>
       <c r="D41" s="3">
-        <v>26</v>
+        <v>1.65</v>
       </c>
       <c r="E41" s="4">
-        <v>0</v>
+        <v>-35.8</v>
       </c>
       <c r="F41" s="4">
-        <v>0</v>
+        <v>-35.8</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="3" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="C42" s="3">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="D42" s="3">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="E42" s="4">
-        <v>0</v>
+        <v>-46.4</v>
       </c>
       <c r="F42" s="4">
-        <v>0</v>
+        <v>-37.1</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -7089,10 +7020,10 @@
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="3" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="C46" s="3">
         <v>9</v>
@@ -7109,10 +7040,10 @@
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="3" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="C47" s="3">
         <v>3.73</v>
@@ -7129,10 +7060,10 @@
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B48" s="3" t="s">
         <v>129</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>137</v>
       </c>
       <c r="C48" s="3">
         <v>4.75</v>
@@ -7149,47 +7080,47 @@
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="3" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="C49" s="3">
-        <v>0</v>
+        <v>8.75</v>
       </c>
       <c r="D49" s="3">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="E49" s="4">
-        <v>0</v>
+        <v>-8.6</v>
       </c>
       <c r="F49" s="4">
-        <v>0</v>
+        <v>-6.9</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="3" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C50" s="3">
-        <v>0</v>
+        <v>3.57</v>
       </c>
       <c r="D50" s="3">
-        <v>15</v>
+        <v>2.25</v>
       </c>
       <c r="E50" s="4">
-        <v>0</v>
+        <v>-37</v>
       </c>
       <c r="F50" s="4">
-        <v>0</v>
+        <v>-40.7</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -7214,10 +7145,10 @@
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="3" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="C54" s="3">
         <v>2.09</v>
@@ -7234,87 +7165,87 @@
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="3" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="C55" s="3">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="D55" s="3">
-        <v>2.4</v>
+        <v>1.24</v>
       </c>
       <c r="E55" s="4">
-        <v>0</v>
+        <v>-2.4</v>
       </c>
       <c r="F55" s="4">
-        <v>0</v>
+        <v>-2.2</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="3" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>148</v>
+        <v>120</v>
       </c>
       <c r="C56" s="3">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="D56" s="3">
-        <v>6.5</v>
+        <v>1.45</v>
       </c>
       <c r="E56" s="4">
-        <v>0</v>
+        <v>-3.3</v>
       </c>
       <c r="F56" s="4">
-        <v>0</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="3" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="C57" s="3">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="D57" s="3">
-        <v>1.24</v>
+        <v>1.19</v>
       </c>
       <c r="E57" s="4">
-        <v>-2.4</v>
+        <v>-4.8</v>
       </c>
       <c r="F57" s="4">
-        <v>-2.2</v>
+        <v>-4.8</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="3" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C58" s="3">
-        <v>1.5</v>
+        <v>2.04</v>
       </c>
       <c r="D58" s="3">
-        <v>1.45</v>
+        <v>1.9</v>
       </c>
       <c r="E58" s="4">
-        <v>-3.3</v>
+        <v>-6.9</v>
       </c>
       <c r="F58" s="4">
-        <v>-3</v>
+        <v>-5.5</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -7339,10 +7270,10 @@
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="3" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="C62" s="3">
         <v>2.1</v>
@@ -7359,10 +7290,10 @@
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="3" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C63" s="3">
         <v>1.63</v>
@@ -7379,10 +7310,10 @@
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="3" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="C64" s="3">
         <v>1.5</v>
@@ -7399,47 +7330,47 @@
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="3" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="C65" s="3">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="D65" s="3">
-        <v>3.6</v>
+        <v>1.01</v>
       </c>
       <c r="E65" s="4">
-        <v>0</v>
+        <v>-1.9</v>
       </c>
       <c r="F65" s="4">
-        <v>0</v>
+        <v>-1.7</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="3" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C66" s="3">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="D66" s="3">
-        <v>4.2</v>
+        <v>1.02</v>
       </c>
       <c r="E66" s="4">
-        <v>0</v>
+        <v>-1.9</v>
       </c>
       <c r="F66" s="4">
-        <v>0</v>
+        <v>-1.9</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -7464,10 +7395,10 @@
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="3" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C70" s="3">
         <v>1.84</v>
@@ -7484,10 +7415,10 @@
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="3" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="C71" s="3">
         <v>1.9</v>
@@ -7504,67 +7435,67 @@
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="3" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="C72" s="3">
-        <v>0</v>
+        <v>9.57</v>
       </c>
       <c r="D72" s="3">
-        <v>4.8</v>
+        <v>7.5</v>
       </c>
       <c r="E72" s="4">
-        <v>0</v>
+        <v>-21.6</v>
       </c>
       <c r="F72" s="4">
-        <v>0</v>
+        <v>-17.3</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="3" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="C73" s="3">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="D73" s="3">
-        <v>7</v>
+        <v>1.08</v>
       </c>
       <c r="E73" s="4">
-        <v>0</v>
+        <v>-28.5</v>
       </c>
       <c r="F73" s="4">
-        <v>0</v>
+        <v>-28.5</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="3" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="C74" s="3">
-        <v>0</v>
+        <v>3.45</v>
       </c>
       <c r="D74" s="3">
-        <v>8</v>
+        <v>2.15</v>
       </c>
       <c r="E74" s="4">
-        <v>0</v>
+        <v>-37.7</v>
       </c>
       <c r="F74" s="4">
-        <v>0</v>
+        <v>-37.7</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -7589,10 +7520,10 @@
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="3" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="C78" s="3">
         <v>5.55</v>
@@ -7609,10 +7540,10 @@
     </row>
     <row r="79" spans="1:6">
       <c r="A79" s="3" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C79" s="3">
         <v>3.67</v>
@@ -7629,10 +7560,10 @@
     </row>
     <row r="80" spans="1:6">
       <c r="A80" s="3" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="C80" s="3">
         <v>3</v>
@@ -7649,10 +7580,10 @@
     </row>
     <row r="81" spans="1:6">
       <c r="A81" s="3" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="C81" s="3">
         <v>1.04</v>
@@ -7669,10 +7600,10 @@
     </row>
     <row r="82" spans="1:6">
       <c r="A82" s="3" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="C82" s="3">
         <v>1.31</v>
@@ -7689,7 +7620,7 @@
     </row>
     <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -7714,10 +7645,10 @@
     </row>
     <row r="86" spans="1:6">
       <c r="A86" s="3" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C86" s="3">
         <v>6.23</v>
@@ -7734,10 +7665,10 @@
     </row>
     <row r="87" spans="1:6">
       <c r="A87" s="3" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="C87" s="3">
         <v>5.43</v>
@@ -7754,67 +7685,67 @@
     </row>
     <row r="88" spans="1:6">
       <c r="A88" s="3" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>153</v>
+        <v>128</v>
       </c>
       <c r="C88" s="3">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="D88" s="3">
-        <v>16</v>
+        <v>1.12</v>
       </c>
       <c r="E88" s="4">
-        <v>0</v>
+        <v>-10.4</v>
       </c>
       <c r="F88" s="4">
-        <v>0</v>
+        <v>-10.4</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89" s="3" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>125</v>
+        <v>145</v>
       </c>
       <c r="C89" s="3">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="D89" s="3">
-        <v>23</v>
+        <v>1.19</v>
       </c>
       <c r="E89" s="4">
-        <v>0</v>
+        <v>-18.5</v>
       </c>
       <c r="F89" s="4">
-        <v>0</v>
+        <v>-16.7</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90" s="3" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C90" s="3">
-        <v>0</v>
+        <v>3.11</v>
       </c>
       <c r="D90" s="3">
-        <v>26</v>
+        <v>1.6</v>
       </c>
       <c r="E90" s="4">
-        <v>0</v>
+        <v>-48.6</v>
       </c>
       <c r="F90" s="4">
-        <v>0</v>
+        <v>-43.7</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -7839,10 +7770,10 @@
     </row>
     <row r="94" spans="1:6">
       <c r="A94" s="3" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C94" s="3">
         <v>14.67</v>
@@ -7859,10 +7790,10 @@
     </row>
     <row r="95" spans="1:6">
       <c r="A95" s="3" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="C95" s="3">
         <v>8.800000000000001</v>
@@ -7879,10 +7810,10 @@
     </row>
     <row r="96" spans="1:6">
       <c r="A96" s="3" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="C96" s="3">
         <v>20.33</v>
@@ -7899,10 +7830,10 @@
     </row>
     <row r="97" spans="1:6">
       <c r="A97" s="3" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="C97" s="3">
         <v>1.25</v>
@@ -7919,10 +7850,10 @@
     </row>
     <row r="98" spans="1:6">
       <c r="A98" s="3" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="C98" s="3">
         <v>1.2</v>
@@ -7939,7 +7870,7 @@
     </row>
     <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -7964,10 +7895,10 @@
     </row>
     <row r="102" spans="1:6">
       <c r="A102" s="3" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C102" s="3">
         <v>16.2</v>
@@ -7984,10 +7915,10 @@
     </row>
     <row r="103" spans="1:6">
       <c r="A103" s="3" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="C103" s="3">
         <v>12.67</v>
@@ -8004,67 +7935,67 @@
     </row>
     <row r="104" spans="1:6">
       <c r="A104" s="3" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C104" s="3">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="D104" s="3">
-        <v>23</v>
+        <v>1.52</v>
       </c>
       <c r="E104" s="4">
-        <v>0</v>
+        <v>-12.1</v>
       </c>
       <c r="F104" s="4">
-        <v>0</v>
+        <v>-12.1</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105" s="3" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="C105" s="3">
-        <v>0</v>
+        <v>2.53</v>
       </c>
       <c r="D105" s="3">
-        <v>51</v>
+        <v>1.72</v>
       </c>
       <c r="E105" s="4">
-        <v>0</v>
+        <v>-32</v>
       </c>
       <c r="F105" s="4">
-        <v>0</v>
+        <v>-28.8</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106" s="3" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="C106" s="3">
-        <v>0</v>
+        <v>11.8</v>
       </c>
       <c r="D106" s="3">
-        <v>51</v>
+        <v>2.9</v>
       </c>
       <c r="E106" s="4">
-        <v>0</v>
+        <v>-75.40000000000001</v>
       </c>
       <c r="F106" s="4">
-        <v>0</v>
+        <v>-67.90000000000001</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -8089,10 +8020,10 @@
     </row>
     <row r="110" spans="1:6">
       <c r="A110" s="3" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="C110" s="3">
         <v>30.5</v>
@@ -8109,10 +8040,10 @@
     </row>
     <row r="111" spans="1:6">
       <c r="A111" s="3" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="C111" s="3">
         <v>5.64</v>
@@ -8129,10 +8060,10 @@
     </row>
     <row r="112" spans="1:6">
       <c r="A112" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B112" s="3" t="s">
         <v>129</v>
-      </c>
-      <c r="B112" s="3" t="s">
-        <v>137</v>
       </c>
       <c r="C112" s="3">
         <v>19</v>
@@ -8149,10 +8080,10 @@
     </row>
     <row r="113" spans="1:6">
       <c r="A113" s="3" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="C113" s="3">
         <v>2.45</v>
@@ -8169,22 +8100,22 @@
     </row>
     <row r="114" spans="1:6">
       <c r="A114" s="3" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="C114" s="3">
-        <v>0</v>
+        <v>2.19</v>
       </c>
       <c r="D114" s="3">
-        <v>14</v>
+        <v>1.95</v>
       </c>
       <c r="E114" s="4">
-        <v>0</v>
+        <v>-11</v>
       </c>
       <c r="F114" s="4">
-        <v>0</v>
+        <v>-11</v>
       </c>
     </row>
   </sheetData>
@@ -8202,7 +8133,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -8210,7 +8141,7 @@
         <v>45794</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -8240,10 +8171,10 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="3" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="C6" s="3">
         <v>2.48</v>
@@ -8260,10 +8191,10 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="3" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="C7" s="3">
         <v>1.84</v>
@@ -8280,10 +8211,10 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="3" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="C8" s="3">
         <v>1.32</v>
@@ -8300,10 +8231,10 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="3" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="C9" s="3">
         <v>2.09</v>
@@ -8320,10 +8251,10 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="3" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="C10" s="3">
         <v>1.37</v>
@@ -8365,10 +8296,10 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="3" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="C14" s="3">
         <v>2.21</v>
@@ -8385,10 +8316,10 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="3" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="C15" s="3">
         <v>1.43</v>
@@ -8405,62 +8336,62 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="3" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="C16" s="3">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="D16" s="3">
-        <v>4</v>
+        <v>1.36</v>
       </c>
       <c r="E16" s="4">
-        <v>0</v>
+        <v>-1.4</v>
       </c>
       <c r="F16" s="4">
-        <v>0</v>
+        <v>-1.4</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="3" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="C17" s="3">
-        <v>1.38</v>
+        <v>1.25</v>
       </c>
       <c r="D17" s="3">
-        <v>1.36</v>
+        <v>1.22</v>
       </c>
       <c r="E17" s="4">
-        <v>-1.4</v>
+        <v>-2.4</v>
       </c>
       <c r="F17" s="4">
-        <v>-1.4</v>
+        <v>-2.2</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="3" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="C18" s="3">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="D18" s="3">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="E18" s="4">
-        <v>-2.4</v>
+        <v>-3.2</v>
       </c>
       <c r="F18" s="4">
-        <v>-2.2</v>
+        <v>-2.9</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -8490,10 +8421,10 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="3" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="C22" s="3">
         <v>5.64</v>
@@ -8510,10 +8441,10 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="3" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="C23" s="3">
         <v>2.22</v>
@@ -8530,62 +8461,62 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="3" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="C24" s="3">
-        <v>0</v>
+        <v>1.79</v>
       </c>
       <c r="D24" s="3">
-        <v>7</v>
+        <v>1.55</v>
       </c>
       <c r="E24" s="4">
-        <v>0</v>
+        <v>-13.4</v>
       </c>
       <c r="F24" s="4">
-        <v>0</v>
+        <v>-12.1</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="3" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C25" s="3">
-        <v>1.79</v>
+        <v>2.81</v>
       </c>
       <c r="D25" s="3">
-        <v>1.55</v>
+        <v>2.4</v>
       </c>
       <c r="E25" s="4">
-        <v>-13.4</v>
+        <v>-14.6</v>
       </c>
       <c r="F25" s="4">
-        <v>-12.1</v>
+        <v>-14.6</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="3" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>162</v>
       </c>
       <c r="C26" s="3">
-        <v>2.81</v>
+        <v>17.25</v>
       </c>
       <c r="D26" s="3">
-        <v>2.4</v>
+        <v>14</v>
       </c>
       <c r="E26" s="4">
-        <v>-14.6</v>
+        <v>-18.8</v>
       </c>
       <c r="F26" s="4">
-        <v>-14.6</v>
+        <v>-15</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -8615,10 +8546,10 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="3" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="C30" s="3">
         <v>1.81</v>
@@ -8635,10 +8566,10 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="3" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="C31" s="3">
         <v>2.09</v>
@@ -8655,62 +8586,62 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B32" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="B32" s="3" t="s">
-        <v>173</v>
-      </c>
       <c r="C32" s="3">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="D32" s="3">
-        <v>12</v>
+        <v>2.15</v>
       </c>
       <c r="E32" s="4">
-        <v>0</v>
+        <v>-4.4</v>
       </c>
       <c r="F32" s="4">
-        <v>0</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="3" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="C33" s="3">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="D33" s="3">
-        <v>13</v>
+        <v>1.33</v>
       </c>
       <c r="E33" s="4">
-        <v>0</v>
+        <v>-10.1</v>
       </c>
       <c r="F33" s="4">
-        <v>0</v>
+        <v>-9.1</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="3" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>175</v>
+        <v>157</v>
       </c>
       <c r="C34" s="3">
-        <v>0</v>
+        <v>3.22</v>
       </c>
       <c r="D34" s="3">
-        <v>15</v>
+        <v>2.7</v>
       </c>
       <c r="E34" s="4">
-        <v>0</v>
+        <v>-16.1</v>
       </c>
       <c r="F34" s="4">
-        <v>0</v>
+        <v>-16.1</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -8740,10 +8671,10 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="3" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="C38" s="3">
         <v>3.75</v>
@@ -8760,82 +8691,82 @@
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="3" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>176</v>
+        <v>150</v>
       </c>
       <c r="C39" s="3">
-        <v>0</v>
+        <v>26.33</v>
       </c>
       <c r="D39" s="3">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E39" s="4">
-        <v>0</v>
+        <v>-12.6</v>
       </c>
       <c r="F39" s="4">
-        <v>0</v>
+        <v>-10.1</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="3" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>161</v>
       </c>
       <c r="C40" s="3">
-        <v>0</v>
+        <v>3.12</v>
       </c>
       <c r="D40" s="3">
-        <v>23</v>
+        <v>2.7</v>
       </c>
       <c r="E40" s="4">
-        <v>0</v>
+        <v>-13.5</v>
       </c>
       <c r="F40" s="4">
-        <v>0</v>
+        <v>-12.2</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="3" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="C41" s="3">
-        <v>0</v>
+        <v>5.27</v>
       </c>
       <c r="D41" s="3">
-        <v>26</v>
+        <v>3.8</v>
       </c>
       <c r="E41" s="4">
-        <v>0</v>
+        <v>-27.9</v>
       </c>
       <c r="F41" s="4">
-        <v>0</v>
+        <v>-25.1</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="3" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="C42" s="3">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="D42" s="3">
-        <v>26</v>
+        <v>6.5</v>
       </c>
       <c r="E42" s="4">
-        <v>0</v>
+        <v>-48</v>
       </c>
       <c r="F42" s="4">
-        <v>0</v>
+        <v>-38.4</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -8865,10 +8796,10 @@
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="3" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="C46" s="3">
         <v>3.55</v>
@@ -8885,87 +8816,87 @@
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="3" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="C47" s="3">
-        <v>0</v>
+        <v>2.26</v>
       </c>
       <c r="D47" s="3">
-        <v>26</v>
+        <v>2.15</v>
       </c>
       <c r="E47" s="4">
-        <v>0</v>
+        <v>-4.9</v>
       </c>
       <c r="F47" s="4">
-        <v>0</v>
+        <v>-4.9</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="3" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>179</v>
+        <v>158</v>
       </c>
       <c r="C48" s="3">
-        <v>0</v>
+        <v>5.75</v>
       </c>
       <c r="D48" s="3">
-        <v>26</v>
+        <v>4.5</v>
       </c>
       <c r="E48" s="4">
-        <v>0</v>
+        <v>-21.7</v>
       </c>
       <c r="F48" s="4">
-        <v>0</v>
+        <v>-21.7</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="3" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="C49" s="3">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="D49" s="3">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="E49" s="4">
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="F49" s="4">
-        <v>0</v>
+        <v>-20</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="3" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="C50" s="3">
-        <v>0</v>
+        <v>25.67</v>
       </c>
       <c r="D50" s="3">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E50" s="4">
-        <v>0</v>
+        <v>-26</v>
       </c>
       <c r="F50" s="4">
-        <v>0</v>
+        <v>-20.8</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -8990,10 +8921,10 @@
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="3" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="C54" s="3">
         <v>2.11</v>
@@ -9010,10 +8941,10 @@
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="3" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="C55" s="3">
         <v>1.21</v>
@@ -9030,10 +8961,10 @@
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="3" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="C56" s="3">
         <v>2.11</v>
@@ -9050,10 +8981,10 @@
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="3" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="C57" s="3">
         <v>1.41</v>
@@ -9070,10 +9001,10 @@
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="3" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>183</v>
+        <v>162</v>
       </c>
       <c r="C58" s="3">
         <v>1.38</v>
@@ -9090,7 +9021,7 @@
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -9115,10 +9046,10 @@
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="3" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>184</v>
+        <v>164</v>
       </c>
       <c r="C62" s="3">
         <v>1.45</v>
@@ -9135,10 +9066,10 @@
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="3" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="C63" s="3">
         <v>2.29</v>
@@ -9155,10 +9086,10 @@
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="3" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="C64" s="3">
         <v>1.15</v>
@@ -9175,10 +9106,10 @@
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="3" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="C65" s="3">
         <v>1.11</v>
@@ -9195,10 +9126,10 @@
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="3" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C66" s="3">
         <v>2.44</v>
@@ -9215,7 +9146,7 @@
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -9240,10 +9171,10 @@
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="3" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="C70" s="3">
         <v>4.88</v>
@@ -9260,87 +9191,87 @@
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="3" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C71" s="3">
-        <v>0</v>
+        <v>2.48</v>
       </c>
       <c r="D71" s="3">
-        <v>6</v>
+        <v>2.2</v>
       </c>
       <c r="E71" s="4">
-        <v>0</v>
+        <v>-11.3</v>
       </c>
       <c r="F71" s="4">
-        <v>0</v>
+        <v>-10.2</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="3" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="C72" s="3">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="D72" s="3">
-        <v>7</v>
+        <v>1.06</v>
       </c>
       <c r="E72" s="4">
-        <v>0</v>
+        <v>-13.8</v>
       </c>
       <c r="F72" s="4">
-        <v>0</v>
+        <v>-12.4</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="3" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>187</v>
+        <v>150</v>
       </c>
       <c r="C73" s="3">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="D73" s="3">
-        <v>9</v>
+        <v>1.01</v>
       </c>
       <c r="E73" s="4">
-        <v>0</v>
+        <v>-17.9</v>
       </c>
       <c r="F73" s="4">
-        <v>0</v>
+        <v>-19.7</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="3" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>188</v>
+        <v>168</v>
       </c>
       <c r="C74" s="3">
-        <v>0</v>
+        <v>2.83</v>
       </c>
       <c r="D74" s="3">
-        <v>9</v>
+        <v>2.25</v>
       </c>
       <c r="E74" s="4">
-        <v>0</v>
+        <v>-20.5</v>
       </c>
       <c r="F74" s="4">
-        <v>0</v>
+        <v>-16.4</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -9365,10 +9296,10 @@
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="3" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="C78" s="3">
         <v>1.48</v>
@@ -9385,10 +9316,10 @@
     </row>
     <row r="79" spans="1:6">
       <c r="A79" s="3" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="C79" s="3">
         <v>1.79</v>
@@ -9405,10 +9336,10 @@
     </row>
     <row r="80" spans="1:6">
       <c r="A80" s="3" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="C80" s="3">
         <v>2.79</v>
@@ -9425,47 +9356,47 @@
     </row>
     <row r="81" spans="1:6">
       <c r="A81" s="3" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C81" s="3">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="D81" s="3">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E81" s="4">
-        <v>0</v>
+        <v>-9.1</v>
       </c>
       <c r="F81" s="4">
-        <v>0</v>
+        <v>-7.3</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82" s="3" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>189</v>
+        <v>166</v>
       </c>
       <c r="C82" s="3">
-        <v>0</v>
+        <v>2.03</v>
       </c>
       <c r="D82" s="3">
-        <v>9</v>
+        <v>1.72</v>
       </c>
       <c r="E82" s="4">
-        <v>0</v>
+        <v>-15.3</v>
       </c>
       <c r="F82" s="4">
-        <v>0</v>
+        <v>-13.8</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -9490,10 +9421,10 @@
     </row>
     <row r="86" spans="1:6">
       <c r="A86" s="3" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="C86" s="3">
         <v>11.14</v>
@@ -9510,10 +9441,10 @@
     </row>
     <row r="87" spans="1:6">
       <c r="A87" s="3" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C87" s="3">
         <v>17</v>
@@ -9530,67 +9461,67 @@
     </row>
     <row r="88" spans="1:6">
       <c r="A88" s="3" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>190</v>
+        <v>149</v>
       </c>
       <c r="C88" s="3">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="D88" s="3">
-        <v>23</v>
+        <v>1.26</v>
       </c>
       <c r="E88" s="4">
-        <v>0</v>
+        <v>-18.2</v>
       </c>
       <c r="F88" s="4">
-        <v>0</v>
+        <v>-18.2</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89" s="3" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C89" s="3">
-        <v>0</v>
+        <v>1.86</v>
       </c>
       <c r="D89" s="3">
-        <v>26</v>
+        <v>1.52</v>
       </c>
       <c r="E89" s="4">
-        <v>0</v>
+        <v>-18.3</v>
       </c>
       <c r="F89" s="4">
-        <v>0</v>
+        <v>-18.3</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90" s="3" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>191</v>
+        <v>150</v>
       </c>
       <c r="C90" s="3">
-        <v>0</v>
+        <v>1.84</v>
       </c>
       <c r="D90" s="3">
-        <v>26</v>
+        <v>1.36</v>
       </c>
       <c r="E90" s="4">
-        <v>0</v>
+        <v>-26.1</v>
       </c>
       <c r="F90" s="4">
-        <v>0</v>
+        <v>-28.7</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -9615,10 +9546,10 @@
     </row>
     <row r="94" spans="1:6">
       <c r="A94" s="3" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="C94" s="3">
         <v>4.07</v>
@@ -9635,10 +9566,10 @@
     </row>
     <row r="95" spans="1:6">
       <c r="A95" s="3" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="C95" s="3">
         <v>3.44</v>
@@ -9655,10 +9586,10 @@
     </row>
     <row r="96" spans="1:6">
       <c r="A96" s="3" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
       <c r="C96" s="3">
         <v>8.199999999999999</v>
@@ -9675,10 +9606,10 @@
     </row>
     <row r="97" spans="1:6">
       <c r="A97" s="3" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>184</v>
+        <v>164</v>
       </c>
       <c r="C97" s="3">
         <v>25.67</v>
@@ -9695,27 +9626,27 @@
     </row>
     <row r="98" spans="1:6">
       <c r="A98" s="3" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
       <c r="C98" s="3">
-        <v>0</v>
+        <v>18.75</v>
       </c>
       <c r="D98" s="3">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="E98" s="4">
-        <v>0</v>
+        <v>-14.7</v>
       </c>
       <c r="F98" s="4">
-        <v>0</v>
+        <v>-11.8</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -9740,107 +9671,107 @@
     </row>
     <row r="102" spans="1:6">
       <c r="A102" s="3" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C102" s="3">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="D102" s="3">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="E102" s="4">
-        <v>0</v>
+        <v>-3.8</v>
       </c>
       <c r="F102" s="4">
-        <v>0</v>
+        <v>-3.4</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103" s="3" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>194</v>
+        <v>167</v>
       </c>
       <c r="C103" s="3">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="D103" s="3">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="E103" s="4">
-        <v>0</v>
+        <v>-34.6</v>
       </c>
       <c r="F103" s="4">
-        <v>0</v>
+        <v>-27.7</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104" s="3" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>176</v>
+        <v>149</v>
       </c>
       <c r="C104" s="3">
-        <v>0</v>
+        <v>2.96</v>
       </c>
       <c r="D104" s="3">
-        <v>51</v>
+        <v>1.9</v>
       </c>
       <c r="E104" s="4">
-        <v>0</v>
+        <v>-35.8</v>
       </c>
       <c r="F104" s="4">
-        <v>0</v>
+        <v>-35.8</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105" s="3" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>190</v>
+        <v>173</v>
       </c>
       <c r="C105" s="3">
-        <v>0</v>
+        <v>4.21</v>
       </c>
       <c r="D105" s="3">
-        <v>51</v>
+        <v>2.7</v>
       </c>
       <c r="E105" s="4">
-        <v>0</v>
+        <v>-35.9</v>
       </c>
       <c r="F105" s="4">
-        <v>0</v>
+        <v>-32.3</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106" s="3" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>195</v>
+        <v>162</v>
       </c>
       <c r="C106" s="3">
-        <v>0</v>
+        <v>34.5</v>
       </c>
       <c r="D106" s="3">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="E106" s="4">
-        <v>0</v>
+        <v>-47.8</v>
       </c>
       <c r="F106" s="4">
-        <v>0</v>
+        <v>-43</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -9865,10 +9796,10 @@
     </row>
     <row r="110" spans="1:6">
       <c r="A110" s="3" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="C110" s="3">
         <v>12.4</v>
@@ -9885,10 +9816,10 @@
     </row>
     <row r="111" spans="1:6">
       <c r="A111" s="3" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="C111" s="3">
         <v>20.33</v>
@@ -9905,62 +9836,62 @@
     </row>
     <row r="112" spans="1:6">
       <c r="A112" s="3" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>193</v>
+        <v>174</v>
       </c>
       <c r="C112" s="3">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="D112" s="3">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="E112" s="4">
-        <v>0</v>
+        <v>-3.8</v>
       </c>
       <c r="F112" s="4">
-        <v>0</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113" s="3" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>196</v>
+        <v>164</v>
       </c>
       <c r="C113" s="3">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="D113" s="3">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="E113" s="4">
-        <v>0</v>
+        <v>-33.8</v>
       </c>
       <c r="F113" s="4">
-        <v>0</v>
+        <v>-27</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114" s="3" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>197</v>
+        <v>179</v>
       </c>
       <c r="C114" s="3">
-        <v>0</v>
+        <v>3.14</v>
       </c>
       <c r="D114" s="3">
-        <v>34</v>
+        <v>2</v>
       </c>
       <c r="E114" s="4">
-        <v>0</v>
+        <v>-36.3</v>
       </c>
       <c r="F114" s="4">
-        <v>0</v>
+        <v>-36.3</v>
       </c>
     </row>
   </sheetData>
@@ -9978,7 +9909,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>198</v>
+        <v>180</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -9986,7 +9917,7 @@
         <v>45794</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -10016,10 +9947,10 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="3" t="s">
-        <v>200</v>
+        <v>182</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>201</v>
+        <v>183</v>
       </c>
       <c r="C6" s="3">
         <v>2.25</v>
@@ -10036,10 +9967,10 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="3" t="s">
-        <v>200</v>
+        <v>182</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>202</v>
+        <v>184</v>
       </c>
       <c r="C7" s="3">
         <v>2.03</v>
@@ -10056,10 +9987,10 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="3" t="s">
-        <v>200</v>
+        <v>182</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>203</v>
+        <v>185</v>
       </c>
       <c r="C8" s="3">
         <v>1.16</v>
@@ -10076,10 +10007,10 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="3" t="s">
-        <v>200</v>
+        <v>182</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>204</v>
+        <v>186</v>
       </c>
       <c r="C9" s="3">
         <v>1.46</v>
@@ -10096,10 +10027,10 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="3" t="s">
-        <v>200</v>
+        <v>182</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>205</v>
+        <v>187</v>
       </c>
       <c r="C10" s="3">
         <v>3.55</v>
@@ -10141,10 +10072,10 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="3" t="s">
-        <v>206</v>
+        <v>188</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>207</v>
+        <v>189</v>
       </c>
       <c r="C14" s="3">
         <v>1</v>
@@ -10161,10 +10092,10 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="3" t="s">
-        <v>206</v>
+        <v>188</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>208</v>
+        <v>190</v>
       </c>
       <c r="C15" s="3">
         <v>2.63</v>
@@ -10181,10 +10112,10 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="3" t="s">
-        <v>206</v>
+        <v>188</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>209</v>
+        <v>191</v>
       </c>
       <c r="C16" s="3">
         <v>1.23</v>
@@ -10201,10 +10132,10 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="3" t="s">
-        <v>206</v>
+        <v>188</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>210</v>
+        <v>192</v>
       </c>
       <c r="C17" s="3">
         <v>1.6</v>
@@ -10221,10 +10152,10 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="3" t="s">
-        <v>206</v>
+        <v>188</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>211</v>
+        <v>193</v>
       </c>
       <c r="C18" s="3">
         <v>1.39</v>
@@ -10266,102 +10197,102 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="3" t="s">
-        <v>200</v>
+        <v>182</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>212</v>
+        <v>183</v>
       </c>
       <c r="C22" s="3">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D22" s="3">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E22" s="4">
-        <v>0</v>
+        <v>-11.1</v>
       </c>
       <c r="F22" s="4">
-        <v>0</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="3" t="s">
-        <v>200</v>
+        <v>182</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="C23" s="3">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D23" s="3">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E23" s="4">
-        <v>-11.1</v>
+        <v>-15.4</v>
       </c>
       <c r="F23" s="4">
-        <v>-10</v>
+        <v>-13.9</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="3" t="s">
-        <v>200</v>
+        <v>182</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>205</v>
+        <v>184</v>
       </c>
       <c r="C24" s="3">
-        <v>13</v>
+        <v>7.89</v>
       </c>
       <c r="D24" s="3">
-        <v>11</v>
+        <v>6.5</v>
       </c>
       <c r="E24" s="4">
-        <v>-15.4</v>
+        <v>-17.6</v>
       </c>
       <c r="F24" s="4">
-        <v>-13.9</v>
+        <v>-15.8</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="3" t="s">
-        <v>200</v>
+        <v>182</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>202</v>
+        <v>185</v>
       </c>
       <c r="C25" s="3">
-        <v>7.89</v>
+        <v>1.72</v>
       </c>
       <c r="D25" s="3">
-        <v>6.5</v>
+        <v>1.32</v>
       </c>
       <c r="E25" s="4">
-        <v>-17.6</v>
+        <v>-23.3</v>
       </c>
       <c r="F25" s="4">
-        <v>-15.8</v>
+        <v>-21</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="3" t="s">
-        <v>200</v>
+        <v>182</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>203</v>
+        <v>186</v>
       </c>
       <c r="C26" s="3">
-        <v>1.72</v>
+        <v>3.32</v>
       </c>
       <c r="D26" s="3">
-        <v>1.32</v>
+        <v>1.95</v>
       </c>
       <c r="E26" s="4">
-        <v>-23.3</v>
+        <v>-41.3</v>
       </c>
       <c r="F26" s="4">
-        <v>-21</v>
+        <v>-37.2</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -10391,10 +10322,10 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="3" t="s">
-        <v>206</v>
+        <v>188</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>211</v>
+        <v>193</v>
       </c>
       <c r="C30" s="3">
         <v>1.61</v>
@@ -10411,10 +10342,10 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="3" t="s">
-        <v>206</v>
+        <v>188</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>208</v>
+        <v>190</v>
       </c>
       <c r="C31" s="3">
         <v>10</v>
@@ -10431,10 +10362,10 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="3" t="s">
-        <v>206</v>
+        <v>188</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>213</v>
+        <v>194</v>
       </c>
       <c r="C32" s="3">
         <v>9.83</v>
@@ -10451,10 +10382,10 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="3" t="s">
-        <v>206</v>
+        <v>188</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>209</v>
+        <v>191</v>
       </c>
       <c r="C33" s="3">
         <v>1.84</v>
@@ -10471,22 +10402,22 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="3" t="s">
-        <v>206</v>
+        <v>188</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="C34" s="3">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="D34" s="3">
-        <v>5</v>
+        <v>1.95</v>
       </c>
       <c r="E34" s="4">
-        <v>0</v>
+        <v>-13.3</v>
       </c>
       <c r="F34" s="4">
-        <v>0</v>
+        <v>-13.3</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -10516,102 +10447,102 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="3" t="s">
-        <v>200</v>
+        <v>182</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>214</v>
+        <v>185</v>
       </c>
       <c r="C38" s="3">
-        <v>0</v>
+        <v>2.96</v>
       </c>
       <c r="D38" s="3">
-        <v>13</v>
+        <v>2.05</v>
       </c>
       <c r="E38" s="4">
-        <v>0</v>
+        <v>-30.7</v>
       </c>
       <c r="F38" s="4">
-        <v>0</v>
+        <v>-27.6</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="3" t="s">
-        <v>200</v>
+        <v>182</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>215</v>
+        <v>186</v>
       </c>
       <c r="C39" s="3">
-        <v>0</v>
+        <v>8.109999999999999</v>
       </c>
       <c r="D39" s="3">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="E39" s="4">
-        <v>0</v>
+        <v>-50.7</v>
       </c>
       <c r="F39" s="4">
-        <v>0</v>
+        <v>-45.6</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="3" t="s">
-        <v>200</v>
+        <v>182</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>212</v>
+        <v>187</v>
       </c>
       <c r="C40" s="3">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="D40" s="3">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="E40" s="4">
-        <v>0</v>
+        <v>-66.7</v>
       </c>
       <c r="F40" s="4">
-        <v>0</v>
+        <v>-53.4</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="3" t="s">
-        <v>200</v>
+        <v>182</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>216</v>
+        <v>184</v>
       </c>
       <c r="C41" s="3">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="D41" s="3">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E41" s="4">
-        <v>0</v>
+        <v>-67.59999999999999</v>
       </c>
       <c r="F41" s="4">
-        <v>0</v>
+        <v>-67.59999999999999</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="3" t="s">
-        <v>200</v>
+        <v>182</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="C42" s="3">
-        <v>0</v>
+        <v>11.2</v>
       </c>
       <c r="D42" s="3">
-        <v>26</v>
+        <v>3.5</v>
       </c>
       <c r="E42" s="4">
-        <v>0</v>
+        <v>-68.8</v>
       </c>
       <c r="F42" s="4">
-        <v>0</v>
+        <v>-75.7</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -10641,10 +10572,10 @@
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="3" t="s">
-        <v>206</v>
+        <v>188</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>209</v>
+        <v>191</v>
       </c>
       <c r="C46" s="3">
         <v>3.28</v>
@@ -10661,10 +10592,10 @@
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="3" t="s">
-        <v>206</v>
+        <v>188</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>211</v>
+        <v>193</v>
       </c>
       <c r="C47" s="3">
         <v>3.12</v>
@@ -10681,67 +10612,67 @@
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="3" t="s">
-        <v>206</v>
+        <v>188</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="C48" s="3">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="D48" s="3">
-        <v>7.5</v>
+        <v>17</v>
       </c>
       <c r="E48" s="4">
-        <v>0</v>
+        <v>-29.2</v>
       </c>
       <c r="F48" s="4">
-        <v>0</v>
+        <v>-23.4</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="3" t="s">
-        <v>206</v>
+        <v>188</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="C49" s="3">
-        <v>0</v>
+        <v>18.75</v>
       </c>
       <c r="D49" s="3">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E49" s="4">
-        <v>0</v>
+        <v>-30.7</v>
       </c>
       <c r="F49" s="4">
-        <v>0</v>
+        <v>-27.6</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="3" t="s">
-        <v>206</v>
+        <v>188</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>217</v>
+        <v>195</v>
       </c>
       <c r="C50" s="3">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D50" s="3">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="E50" s="4">
-        <v>0</v>
+        <v>-55.6</v>
       </c>
       <c r="F50" s="4">
-        <v>0</v>
+        <v>-50</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -10766,10 +10697,10 @@
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="3" t="s">
-        <v>200</v>
+        <v>182</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>218</v>
+        <v>199</v>
       </c>
       <c r="C54" s="3">
         <v>1.36</v>
@@ -10786,10 +10717,10 @@
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="B55" s="3" t="s">
         <v>200</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>214</v>
       </c>
       <c r="C55" s="3">
         <v>1.21</v>
@@ -10806,10 +10737,10 @@
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="3" t="s">
-        <v>200</v>
+        <v>182</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>202</v>
+        <v>184</v>
       </c>
       <c r="C56" s="3">
         <v>1.29</v>
@@ -10826,10 +10757,10 @@
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="3" t="s">
-        <v>200</v>
+        <v>182</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>219</v>
+        <v>201</v>
       </c>
       <c r="C57" s="3">
         <v>1.37</v>
@@ -10846,10 +10777,10 @@
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="3" t="s">
-        <v>200</v>
+        <v>182</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>201</v>
+        <v>183</v>
       </c>
       <c r="C58" s="3">
         <v>1.5</v>
@@ -10866,7 +10797,7 @@
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -10891,10 +10822,10 @@
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="3" t="s">
-        <v>206</v>
+        <v>188</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>220</v>
+        <v>202</v>
       </c>
       <c r="C62" s="3">
         <v>1</v>
@@ -10911,10 +10842,10 @@
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="3" t="s">
-        <v>206</v>
+        <v>188</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>221</v>
+        <v>203</v>
       </c>
       <c r="C63" s="3">
         <v>1.03</v>
@@ -10931,10 +10862,10 @@
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="3" t="s">
-        <v>206</v>
+        <v>188</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>222</v>
+        <v>204</v>
       </c>
       <c r="C64" s="3">
         <v>1.57</v>
@@ -10951,47 +10882,47 @@
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="3" t="s">
-        <v>206</v>
+        <v>188</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C65" s="3">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="D65" s="3">
-        <v>6</v>
+        <v>1.02</v>
       </c>
       <c r="E65" s="4">
-        <v>0</v>
+        <v>-4.7</v>
       </c>
       <c r="F65" s="4">
-        <v>0</v>
+        <v>-4.7</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B66" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="B66" s="3" t="s">
-        <v>210</v>
-      </c>
       <c r="C66" s="3">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="D66" s="3">
-        <v>5</v>
+        <v>1.06</v>
       </c>
       <c r="E66" s="4">
-        <v>0</v>
+        <v>-7.8</v>
       </c>
       <c r="F66" s="4">
-        <v>0</v>
+        <v>-7.8</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -11016,107 +10947,107 @@
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="3" t="s">
-        <v>200</v>
+        <v>182</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>223</v>
+        <v>199</v>
       </c>
       <c r="C70" s="3">
-        <v>0</v>
+        <v>2.79</v>
       </c>
       <c r="D70" s="3">
-        <v>7</v>
+        <v>2.7</v>
       </c>
       <c r="E70" s="4">
-        <v>0</v>
+        <v>-3.2</v>
       </c>
       <c r="F70" s="4">
-        <v>0</v>
+        <v>-2.9</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="3" t="s">
-        <v>200</v>
+        <v>182</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>224</v>
+        <v>186</v>
       </c>
       <c r="C71" s="3">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="D71" s="3">
-        <v>9</v>
+        <v>1.1</v>
       </c>
       <c r="E71" s="4">
-        <v>0</v>
+        <v>-8.300000000000001</v>
       </c>
       <c r="F71" s="4">
-        <v>0</v>
+        <v>-8.300000000000001</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="3" t="s">
-        <v>200</v>
+        <v>182</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>225</v>
+        <v>207</v>
       </c>
       <c r="C72" s="3">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="D72" s="3">
-        <v>9</v>
+        <v>1.04</v>
       </c>
       <c r="E72" s="4">
-        <v>0</v>
+        <v>-8.800000000000001</v>
       </c>
       <c r="F72" s="4">
-        <v>0</v>
+        <v>-8.800000000000001</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="3" t="s">
-        <v>200</v>
+        <v>182</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="C73" s="3">
-        <v>2.79</v>
+        <v>1.13</v>
       </c>
       <c r="D73" s="3">
-        <v>2.7</v>
+        <v>1.02</v>
       </c>
       <c r="E73" s="4">
-        <v>-3.2</v>
+        <v>-9.699999999999999</v>
       </c>
       <c r="F73" s="4">
-        <v>-2.9</v>
+        <v>-9.699999999999999</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="B74" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="B74" s="3" t="s">
-        <v>204</v>
-      </c>
       <c r="C74" s="3">
-        <v>1.2</v>
+        <v>2.09</v>
       </c>
       <c r="D74" s="3">
-        <v>1.1</v>
+        <v>1.75</v>
       </c>
       <c r="E74" s="4">
-        <v>-8.300000000000001</v>
+        <v>-16.3</v>
       </c>
       <c r="F74" s="4">
-        <v>-8.300000000000001</v>
+        <v>-14.7</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -11141,10 +11072,10 @@
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="3" t="s">
-        <v>206</v>
+        <v>188</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>222</v>
+        <v>204</v>
       </c>
       <c r="C78" s="3">
         <v>3.24</v>
@@ -11161,10 +11092,10 @@
     </row>
     <row r="79" spans="1:6">
       <c r="A79" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B79" s="3" t="s">
         <v>206</v>
-      </c>
-      <c r="B79" s="3" t="s">
-        <v>226</v>
       </c>
       <c r="C79" s="3">
         <v>1.47</v>
@@ -11181,67 +11112,67 @@
     </row>
     <row r="80" spans="1:6">
       <c r="A80" s="3" t="s">
-        <v>206</v>
+        <v>188</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C80" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D80" s="3">
-        <v>9</v>
+        <v>3.8</v>
       </c>
       <c r="E80" s="4">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="F80" s="4">
-        <v>0</v>
+        <v>-4.5</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81" s="3" t="s">
-        <v>206</v>
+        <v>188</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="C81" s="3">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="D81" s="3">
-        <v>9</v>
+        <v>1.45</v>
       </c>
       <c r="E81" s="4">
-        <v>0</v>
+        <v>-5.2</v>
       </c>
       <c r="F81" s="4">
-        <v>0</v>
+        <v>-5.2</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82" s="3" t="s">
-        <v>206</v>
+        <v>188</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>227</v>
+        <v>205</v>
       </c>
       <c r="C82" s="3">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="D82" s="3">
-        <v>9</v>
+        <v>1.38</v>
       </c>
       <c r="E82" s="4">
-        <v>0</v>
+        <v>-12.1</v>
       </c>
       <c r="F82" s="4">
-        <v>0</v>
+        <v>-12.1</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -11266,10 +11197,10 @@
     </row>
     <row r="86" spans="1:6">
       <c r="A86" s="3" t="s">
-        <v>200</v>
+        <v>182</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>219</v>
+        <v>201</v>
       </c>
       <c r="C86" s="3">
         <v>5.5</v>
@@ -11286,87 +11217,87 @@
     </row>
     <row r="87" spans="1:6">
       <c r="A87" s="3" t="s">
-        <v>200</v>
+        <v>182</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>212</v>
+        <v>186</v>
       </c>
       <c r="C87" s="3">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="D87" s="3">
-        <v>10</v>
+        <v>1.68</v>
       </c>
       <c r="E87" s="4">
-        <v>0</v>
+        <v>-1.2</v>
       </c>
       <c r="F87" s="4">
-        <v>0</v>
+        <v>-1.2</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88" s="3" t="s">
-        <v>200</v>
+        <v>182</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>228</v>
+        <v>207</v>
       </c>
       <c r="C88" s="3">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="D88" s="3">
-        <v>26</v>
+        <v>1.48</v>
       </c>
       <c r="E88" s="4">
-        <v>0</v>
+        <v>-6.3</v>
       </c>
       <c r="F88" s="4">
-        <v>0</v>
+        <v>-5.7</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89" s="3" t="s">
-        <v>200</v>
+        <v>182</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>223</v>
+        <v>183</v>
       </c>
       <c r="C89" s="3">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D89" s="3">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="E89" s="4">
-        <v>0</v>
+        <v>-11.1</v>
       </c>
       <c r="F89" s="4">
-        <v>0</v>
+        <v>-8.9</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90" s="3" t="s">
-        <v>200</v>
+        <v>182</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="C90" s="3">
-        <v>0</v>
+        <v>1.79</v>
       </c>
       <c r="D90" s="3">
-        <v>26</v>
+        <v>1.42</v>
       </c>
       <c r="E90" s="4">
-        <v>0</v>
+        <v>-20.7</v>
       </c>
       <c r="F90" s="4">
-        <v>0</v>
+        <v>-18.6</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -11391,10 +11322,10 @@
     </row>
     <row r="94" spans="1:6">
       <c r="A94" s="3" t="s">
-        <v>206</v>
+        <v>188</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>220</v>
+        <v>202</v>
       </c>
       <c r="C94" s="3">
         <v>2</v>
@@ -11411,10 +11342,10 @@
     </row>
     <row r="95" spans="1:6">
       <c r="A95" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B95" s="3" t="s">
         <v>206</v>
-      </c>
-      <c r="B95" s="3" t="s">
-        <v>226</v>
       </c>
       <c r="C95" s="3">
         <v>2.61</v>
@@ -11431,10 +11362,10 @@
     </row>
     <row r="96" spans="1:6">
       <c r="A96" s="3" t="s">
-        <v>206</v>
+        <v>188</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>229</v>
+        <v>197</v>
       </c>
       <c r="C96" s="3">
         <v>1.29</v>
@@ -11451,10 +11382,10 @@
     </row>
     <row r="97" spans="1:6">
       <c r="A97" s="3" t="s">
-        <v>206</v>
+        <v>188</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="C97" s="3">
         <v>16</v>
@@ -11471,27 +11402,27 @@
     </row>
     <row r="98" spans="1:6">
       <c r="A98" s="3" t="s">
-        <v>206</v>
+        <v>188</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>231</v>
+        <v>203</v>
       </c>
       <c r="C98" s="3">
-        <v>0</v>
+        <v>3.13</v>
       </c>
       <c r="D98" s="3">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="E98" s="4">
-        <v>0</v>
+        <v>-4.2</v>
       </c>
       <c r="F98" s="4">
-        <v>0</v>
+        <v>-4.2</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -11516,10 +11447,10 @@
     </row>
     <row r="102" spans="1:6">
       <c r="A102" s="3" t="s">
-        <v>200</v>
+        <v>182</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>201</v>
+        <v>183</v>
       </c>
       <c r="C102" s="3">
         <v>9</v>
@@ -11536,87 +11467,87 @@
     </row>
     <row r="103" spans="1:6">
       <c r="A103" s="3" t="s">
-        <v>200</v>
+        <v>182</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="C103" s="3">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="D103" s="3">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="E103" s="4">
-        <v>0</v>
+        <v>-6.1</v>
       </c>
       <c r="F103" s="4">
-        <v>0</v>
+        <v>-5.5</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104" s="3" t="s">
-        <v>200</v>
+        <v>182</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>202</v>
+        <v>186</v>
       </c>
       <c r="C104" s="3">
-        <v>0</v>
+        <v>3.65</v>
       </c>
       <c r="D104" s="3">
-        <v>21</v>
+        <v>3.2</v>
       </c>
       <c r="E104" s="4">
-        <v>0</v>
+        <v>-12.3</v>
       </c>
       <c r="F104" s="4">
-        <v>0</v>
+        <v>-9.800000000000001</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105" s="3" t="s">
-        <v>200</v>
+        <v>182</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>232</v>
+        <v>199</v>
       </c>
       <c r="C105" s="3">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="D105" s="3">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="E105" s="4">
-        <v>0</v>
+        <v>-22.6</v>
       </c>
       <c r="F105" s="4">
-        <v>0</v>
+        <v>-18.1</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106" s="3" t="s">
-        <v>200</v>
+        <v>182</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="C106" s="3">
-        <v>0</v>
+        <v>3.43</v>
       </c>
       <c r="D106" s="3">
-        <v>51</v>
+        <v>2.6</v>
       </c>
       <c r="E106" s="4">
-        <v>0</v>
+        <v>-24.2</v>
       </c>
       <c r="F106" s="4">
-        <v>0</v>
+        <v>-24.2</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -11641,102 +11572,102 @@
     </row>
     <row r="110" spans="1:6">
       <c r="A110" s="3" t="s">
-        <v>206</v>
+        <v>188</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>217</v>
+        <v>197</v>
       </c>
       <c r="C110" s="3">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="D110" s="3">
-        <v>7</v>
+        <v>2.05</v>
       </c>
       <c r="E110" s="4">
-        <v>0</v>
+        <v>-3.3</v>
       </c>
       <c r="F110" s="4">
-        <v>0</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111" s="3" t="s">
-        <v>206</v>
+        <v>188</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>220</v>
+        <v>203</v>
       </c>
       <c r="C111" s="3">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D111" s="3">
         <v>8</v>
       </c>
       <c r="E111" s="4">
-        <v>0</v>
+        <v>-11.1</v>
       </c>
       <c r="F111" s="4">
-        <v>0</v>
+        <v>-8.9</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B112" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="B112" s="3" t="s">
-        <v>233</v>
-      </c>
       <c r="C112" s="3">
-        <v>0</v>
+        <v>15.67</v>
       </c>
       <c r="D112" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E112" s="4">
-        <v>0</v>
+        <v>-36.2</v>
       </c>
       <c r="F112" s="4">
-        <v>0</v>
+        <v>-29</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113" s="3" t="s">
-        <v>206</v>
+        <v>188</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C113" s="3">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D113" s="3">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E113" s="4">
-        <v>0</v>
+        <v>-41.7</v>
       </c>
       <c r="F113" s="4">
-        <v>0</v>
+        <v>-37.5</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114" s="3" t="s">
-        <v>206</v>
+        <v>188</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>230</v>
+        <v>198</v>
       </c>
       <c r="C114" s="3">
-        <v>0</v>
+        <v>6.25</v>
       </c>
       <c r="D114" s="3">
-        <v>51</v>
+        <v>3.4</v>
       </c>
       <c r="E114" s="4">
-        <v>0</v>
+        <v>-45.6</v>
       </c>
       <c r="F114" s="4">
-        <v>0</v>
+        <v>-36.5</v>
       </c>
     </row>
   </sheetData>
@@ -11754,7 +11685,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>234</v>
+        <v>211</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -11762,7 +11693,7 @@
         <v>45795</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -11917,7 +11848,7 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -11942,7 +11873,7 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -11967,7 +11898,7 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -11992,7 +11923,7 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -12017,7 +11948,7 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -12042,7 +11973,7 @@
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -12067,7 +11998,7 @@
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -12092,7 +12023,7 @@
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -12130,7 +12061,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>235</v>
+        <v>212</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -12138,7 +12069,7 @@
         <v>45795</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>236</v>
+        <v>213</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -12293,7 +12224,7 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -12318,7 +12249,7 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -12343,7 +12274,7 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -12368,7 +12299,7 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -12393,7 +12324,7 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -12418,7 +12349,7 @@
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -12443,7 +12374,7 @@
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -12468,7 +12399,7 @@
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -12506,7 +12437,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>237</v>
+        <v>214</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -12514,7 +12445,7 @@
         <v>45795</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>238</v>
+        <v>215</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -12669,7 +12600,7 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -12694,7 +12625,7 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -12719,7 +12650,7 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -12744,7 +12675,7 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -12769,7 +12700,7 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -12794,7 +12725,7 @@
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -12819,7 +12750,7 @@
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -12844,7 +12775,7 @@
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="44" spans="1:6">

--- a/Export_simple.xlsx
+++ b/Export_simple.xlsx
@@ -640,10 +640,10 @@
     <t>Callum Wilkie</t>
   </si>
   <si>
+    <t>Christian Petracca</t>
+  </si>
+  <si>
     <t>Clayton Oliver</t>
-  </si>
-  <si>
-    <t>Christian Petracca</t>
   </si>
   <si>
     <t>Jack Sinclair</t>
@@ -2152,13 +2152,13 @@
         <v>1.37</v>
       </c>
       <c r="D70" s="3">
-        <v>1.55</v>
+        <v>1.66</v>
       </c>
       <c r="E70" s="4">
-        <v>13.1</v>
+        <v>21.2</v>
       </c>
       <c r="F70" s="4">
-        <v>14.4</v>
+        <v>23.3</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2456,19 +2456,19 @@
         <v>9</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="C89" s="3">
-        <v>2.21</v>
+        <v>5.5</v>
       </c>
       <c r="D89" s="3">
-        <v>1.45</v>
+        <v>3.7</v>
       </c>
       <c r="E89" s="4">
-        <v>-34.4</v>
+        <v>-32.7</v>
       </c>
       <c r="F89" s="4">
-        <v>-44.7</v>
+        <v>-26.2</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2476,19 +2476,19 @@
         <v>9</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="C90" s="3">
-        <v>7.73</v>
+        <v>2.21</v>
       </c>
       <c r="D90" s="3">
-        <v>5</v>
+        <v>1.45</v>
       </c>
       <c r="E90" s="4">
-        <v>-35.3</v>
+        <v>-34.4</v>
       </c>
       <c r="F90" s="4">
-        <v>-35.3</v>
+        <v>-44.7</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -3323,13 +3323,13 @@
         <v>1.78</v>
       </c>
       <c r="D31" s="3">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="E31" s="4">
-        <v>18</v>
+        <v>23.6</v>
       </c>
       <c r="F31" s="4">
-        <v>16.2</v>
+        <v>21.2</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -3553,13 +3553,13 @@
         <v>3.76</v>
       </c>
       <c r="D46" s="3">
-        <v>4.5</v>
+        <v>5.2</v>
       </c>
       <c r="E46" s="4">
-        <v>19.7</v>
+        <v>38.3</v>
       </c>
       <c r="F46" s="4">
-        <v>17.7</v>
+        <v>34.5</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -3672,19 +3672,19 @@
         <v>50</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="C54" s="3">
-        <v>1.17</v>
+        <v>1.06</v>
       </c>
       <c r="D54" s="3">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="E54" s="4">
-        <v>11.1</v>
+        <v>13.2</v>
       </c>
       <c r="F54" s="4">
-        <v>12.2</v>
+        <v>13.2</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -3692,19 +3692,19 @@
         <v>50</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="C55" s="3">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="D55" s="3">
-        <v>1.17</v>
+        <v>1.32</v>
       </c>
       <c r="E55" s="4">
-        <v>10.4</v>
+        <v>12.8</v>
       </c>
       <c r="F55" s="4">
-        <v>10.4</v>
+        <v>14.1</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -3928,13 +3928,13 @@
         <v>1.49</v>
       </c>
       <c r="D70" s="3">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="E70" s="4">
-        <v>37.6</v>
+        <v>51</v>
       </c>
       <c r="F70" s="4">
-        <v>33.8</v>
+        <v>45.9</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -4178,13 +4178,13 @@
         <v>2.71</v>
       </c>
       <c r="D86" s="3">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="E86" s="4">
-        <v>103</v>
+        <v>158.3</v>
       </c>
       <c r="F86" s="4">
-        <v>103</v>
+        <v>158.3</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -5724,13 +5724,13 @@
         <v>1.46</v>
       </c>
       <c r="D71" s="3">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="E71" s="4">
-        <v>9.6</v>
+        <v>16.4</v>
       </c>
       <c r="F71" s="4">
-        <v>9.6</v>
+        <v>16.4</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -6008,19 +6008,19 @@
         <v>83</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C89" s="3">
-        <v>3.43</v>
+        <v>1.37</v>
       </c>
       <c r="D89" s="3">
-        <v>3.3</v>
+        <v>1.44</v>
       </c>
       <c r="E89" s="4">
-        <v>-3.8</v>
+        <v>5.1</v>
       </c>
       <c r="F89" s="4">
-        <v>-3.4</v>
+        <v>4.6</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -6028,19 +6028,19 @@
         <v>83</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="C90" s="3">
-        <v>9.67</v>
+        <v>3.43</v>
       </c>
       <c r="D90" s="3">
-        <v>9</v>
+        <v>3.3</v>
       </c>
       <c r="E90" s="4">
-        <v>-6.9</v>
+        <v>-3.8</v>
       </c>
       <c r="F90" s="4">
-        <v>-5.5</v>
+        <v>-3.4</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -6139,13 +6139,13 @@
         <v>1.24</v>
       </c>
       <c r="D97" s="3">
-        <v>1.28</v>
+        <v>1.31</v>
       </c>
       <c r="E97" s="4">
-        <v>3.2</v>
+        <v>5.6</v>
       </c>
       <c r="F97" s="4">
-        <v>3.2</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -8585,19 +8585,19 @@
         <v>153</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C30" s="3">
-        <v>1.88</v>
+        <v>1.45</v>
       </c>
       <c r="D30" s="3">
-        <v>2.5</v>
+        <v>1.99</v>
       </c>
       <c r="E30" s="4">
-        <v>33</v>
+        <v>37.2</v>
       </c>
       <c r="F30" s="4">
-        <v>29.7</v>
+        <v>33.5</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -8605,19 +8605,19 @@
         <v>153</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C31" s="3">
-        <v>1.45</v>
+        <v>1.88</v>
       </c>
       <c r="D31" s="3">
-        <v>1.8</v>
+        <v>2.55</v>
       </c>
       <c r="E31" s="4">
-        <v>24.1</v>
+        <v>35.6</v>
       </c>
       <c r="F31" s="4">
-        <v>21.7</v>
+        <v>32</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -8835,19 +8835,19 @@
         <v>153</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="C46" s="3">
-        <v>17</v>
+        <v>2.72</v>
       </c>
       <c r="D46" s="3">
-        <v>26</v>
+        <v>4.3</v>
       </c>
       <c r="E46" s="4">
-        <v>52.9</v>
+        <v>58.1</v>
       </c>
       <c r="F46" s="4">
-        <v>42.3</v>
+        <v>52.3</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -8855,19 +8855,19 @@
         <v>153</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="C47" s="3">
-        <v>4.57</v>
+        <v>17</v>
       </c>
       <c r="D47" s="3">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="E47" s="4">
-        <v>31.3</v>
+        <v>52.9</v>
       </c>
       <c r="F47" s="4">
-        <v>25</v>
+        <v>42.3</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -8875,19 +8875,19 @@
         <v>153</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C48" s="3">
-        <v>2.72</v>
+        <v>4.57</v>
       </c>
       <c r="D48" s="3">
-        <v>3.5</v>
+        <v>6.75</v>
       </c>
       <c r="E48" s="4">
-        <v>28.7</v>
+        <v>47.7</v>
       </c>
       <c r="F48" s="4">
-        <v>25.8</v>
+        <v>38.2</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -10867,13 +10867,13 @@
         <v>1.25</v>
       </c>
       <c r="D62" s="3">
-        <v>1.4</v>
+        <v>1.46</v>
       </c>
       <c r="E62" s="4">
-        <v>12</v>
+        <v>16.8</v>
       </c>
       <c r="F62" s="4">
-        <v>12</v>
+        <v>16.8</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -10881,19 +10881,19 @@
         <v>187</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="C63" s="3">
-        <v>1.29</v>
+        <v>1.04</v>
       </c>
       <c r="D63" s="3">
-        <v>1.24</v>
+        <v>1.08</v>
       </c>
       <c r="E63" s="4">
-        <v>-3.9</v>
+        <v>3.8</v>
       </c>
       <c r="F63" s="4">
-        <v>-4.3</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -10901,19 +10901,19 @@
         <v>187</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="C64" s="3">
-        <v>1.32</v>
+        <v>1.29</v>
       </c>
       <c r="D64" s="3">
         <v>1.24</v>
       </c>
       <c r="E64" s="4">
-        <v>-6.1</v>
+        <v>-3.9</v>
       </c>
       <c r="F64" s="4">
-        <v>-5.5</v>
+        <v>-4.3</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -10921,19 +10921,19 @@
         <v>187</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="C65" s="3">
-        <v>1.23</v>
+        <v>1.32</v>
       </c>
       <c r="D65" s="3">
-        <v>1.08</v>
+        <v>1.24</v>
       </c>
       <c r="E65" s="4">
-        <v>-12.2</v>
+        <v>-6.1</v>
       </c>
       <c r="F65" s="4">
-        <v>-13.4</v>
+        <v>-5.5</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -10941,19 +10941,19 @@
         <v>187</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="C66" s="3">
-        <v>2.2</v>
+        <v>1.23</v>
       </c>
       <c r="D66" s="3">
-        <v>1.9</v>
+        <v>1.08</v>
       </c>
       <c r="E66" s="4">
-        <v>-13.6</v>
+        <v>-12.2</v>
       </c>
       <c r="F66" s="4">
-        <v>-13.6</v>
+        <v>-13.4</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -10986,19 +10986,19 @@
         <v>49</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="C70" s="3">
-        <v>4.88</v>
+        <v>1.03</v>
       </c>
       <c r="D70" s="3">
-        <v>5.5</v>
+        <v>1.19</v>
       </c>
       <c r="E70" s="4">
-        <v>12.7</v>
+        <v>15.5</v>
       </c>
       <c r="F70" s="4">
-        <v>11.4</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -11006,19 +11006,19 @@
         <v>49</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="C71" s="3">
-        <v>1.67</v>
+        <v>4.88</v>
       </c>
       <c r="D71" s="3">
-        <v>1.65</v>
+        <v>5.5</v>
       </c>
       <c r="E71" s="4">
-        <v>-1.2</v>
+        <v>12.7</v>
       </c>
       <c r="F71" s="4">
-        <v>-1.2</v>
+        <v>11.4</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -11026,19 +11026,19 @@
         <v>49</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="C72" s="3">
-        <v>2.5</v>
+        <v>1.17</v>
       </c>
       <c r="D72" s="3">
-        <v>2.4</v>
+        <v>1.18</v>
       </c>
       <c r="E72" s="4">
-        <v>-4</v>
+        <v>0.9</v>
       </c>
       <c r="F72" s="4">
-        <v>-4</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -11046,19 +11046,19 @@
         <v>49</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="C73" s="3">
-        <v>1.17</v>
+        <v>1.67</v>
       </c>
       <c r="D73" s="3">
-        <v>1.11</v>
+        <v>1.65</v>
       </c>
       <c r="E73" s="4">
-        <v>-5.1</v>
+        <v>-1.2</v>
       </c>
       <c r="F73" s="4">
-        <v>-5.1</v>
+        <v>-1.2</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -11066,19 +11066,19 @@
         <v>49</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C74" s="3">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="D74" s="3">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="E74" s="4">
-        <v>-7.3</v>
+        <v>-4</v>
       </c>
       <c r="F74" s="4">
-        <v>-6.6</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -11131,19 +11131,19 @@
         <v>187</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C79" s="3">
-        <v>2.26</v>
+        <v>1.22</v>
       </c>
       <c r="D79" s="3">
-        <v>2.4</v>
+        <v>1.54</v>
       </c>
       <c r="E79" s="4">
-        <v>6.2</v>
+        <v>26.2</v>
       </c>
       <c r="F79" s="4">
-        <v>5.6</v>
+        <v>23.6</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -11151,19 +11151,19 @@
         <v>187</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C80" s="3">
-        <v>1.22</v>
+        <v>2.26</v>
       </c>
       <c r="D80" s="3">
-        <v>1.2</v>
+        <v>2.4</v>
       </c>
       <c r="E80" s="4">
-        <v>-1.6</v>
+        <v>6.2</v>
       </c>
       <c r="F80" s="4">
-        <v>-1.4</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -11171,19 +11171,19 @@
         <v>187</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>195</v>
+        <v>208</v>
       </c>
       <c r="C81" s="3">
-        <v>1.95</v>
+        <v>1.05</v>
       </c>
       <c r="D81" s="3">
-        <v>1.7</v>
+        <v>1.07</v>
       </c>
       <c r="E81" s="4">
-        <v>-12.8</v>
+        <v>1.9</v>
       </c>
       <c r="F81" s="4">
-        <v>-12.8</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -11191,19 +11191,19 @@
         <v>187</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="C82" s="3">
-        <v>2.76</v>
+        <v>1.95</v>
       </c>
       <c r="D82" s="3">
-        <v>2.3</v>
+        <v>1.7</v>
       </c>
       <c r="E82" s="4">
-        <v>-16.7</v>
+        <v>-12.8</v>
       </c>
       <c r="F82" s="4">
-        <v>-16.7</v>
+        <v>-12.8</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -11236,19 +11236,19 @@
         <v>49</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C86" s="3">
         <v>1.38</v>
       </c>
       <c r="D86" s="3">
-        <v>1.6</v>
+        <v>1.98</v>
       </c>
       <c r="E86" s="4">
-        <v>15.9</v>
+        <v>43.5</v>
       </c>
       <c r="F86" s="4">
-        <v>15.9</v>
+        <v>43.5</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -11256,19 +11256,19 @@
         <v>49</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C87" s="3">
         <v>1.52</v>
       </c>
       <c r="D87" s="3">
-        <v>1.4</v>
+        <v>1.86</v>
       </c>
       <c r="E87" s="4">
-        <v>-7.9</v>
+        <v>22.4</v>
       </c>
       <c r="F87" s="4">
-        <v>-8.699999999999999</v>
+        <v>24.6</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -11361,19 +11361,19 @@
         <v>187</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C94" s="3">
-        <v>5.64</v>
+        <v>2.03</v>
       </c>
       <c r="D94" s="3">
-        <v>6.5</v>
+        <v>3.15</v>
       </c>
       <c r="E94" s="4">
-        <v>15.2</v>
+        <v>55.2</v>
       </c>
       <c r="F94" s="4">
-        <v>12.2</v>
+        <v>55.2</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -11381,19 +11381,19 @@
         <v>187</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="C95" s="3">
-        <v>1.32</v>
+        <v>5.64</v>
       </c>
       <c r="D95" s="3">
-        <v>1.45</v>
+        <v>6.5</v>
       </c>
       <c r="E95" s="4">
-        <v>9.800000000000001</v>
+        <v>15.2</v>
       </c>
       <c r="F95" s="4">
-        <v>8.800000000000001</v>
+        <v>12.2</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -11401,19 +11401,19 @@
         <v>187</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="C96" s="3">
-        <v>2.03</v>
+        <v>1.32</v>
       </c>
       <c r="D96" s="3">
-        <v>1.95</v>
+        <v>1.45</v>
       </c>
       <c r="E96" s="4">
-        <v>-3.9</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="F96" s="4">
-        <v>-3.9</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -11486,19 +11486,19 @@
         <v>49</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C102" s="3">
         <v>2.23</v>
       </c>
       <c r="D102" s="3">
-        <v>3.1</v>
+        <v>4.8</v>
       </c>
       <c r="E102" s="4">
-        <v>39</v>
+        <v>115.2</v>
       </c>
       <c r="F102" s="4">
-        <v>35.1</v>
+        <v>103.7</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -11506,19 +11506,19 @@
         <v>49</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C103" s="3">
         <v>3.48</v>
       </c>
       <c r="D103" s="3">
-        <v>2.4</v>
+        <v>4.2</v>
       </c>
       <c r="E103" s="4">
-        <v>-31</v>
+        <v>20.7</v>
       </c>
       <c r="F103" s="4">
-        <v>-27.9</v>
+        <v>18.6</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -12143,13 +12143,13 @@
         <v>1.82</v>
       </c>
       <c r="D30" s="3">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="E30" s="4">
-        <v>7.1</v>
+        <v>9.9</v>
       </c>
       <c r="F30" s="4">
-        <v>6.4</v>
+        <v>8.9</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -12643,13 +12643,13 @@
         <v>2.28</v>
       </c>
       <c r="D62" s="3">
-        <v>2.8</v>
+        <v>2.85</v>
       </c>
       <c r="E62" s="4">
-        <v>22.8</v>
+        <v>25</v>
       </c>
       <c r="F62" s="4">
-        <v>22.8</v>
+        <v>25</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -12657,19 +12657,19 @@
         <v>218</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="C63" s="3">
-        <v>1.46</v>
+        <v>1.12</v>
       </c>
       <c r="D63" s="3">
-        <v>1.65</v>
+        <v>1.28</v>
       </c>
       <c r="E63" s="4">
-        <v>13</v>
+        <v>14.3</v>
       </c>
       <c r="F63" s="4">
-        <v>11.7</v>
+        <v>14.3</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -12677,19 +12677,19 @@
         <v>218</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="C64" s="3">
-        <v>1.12</v>
+        <v>1.46</v>
       </c>
       <c r="D64" s="3">
-        <v>1.22</v>
+        <v>1.65</v>
       </c>
       <c r="E64" s="4">
-        <v>8.9</v>
+        <v>13</v>
       </c>
       <c r="F64" s="4">
-        <v>8.9</v>
+        <v>11.7</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -12893,13 +12893,13 @@
         <v>1.52</v>
       </c>
       <c r="D78" s="3">
-        <v>2.3</v>
+        <v>2.65</v>
       </c>
       <c r="E78" s="4">
-        <v>51.3</v>
+        <v>74.3</v>
       </c>
       <c r="F78" s="4">
-        <v>46.2</v>
+        <v>66.90000000000001</v>
       </c>
     </row>
     <row r="79" spans="1:6">

--- a/Export_simple.xlsx
+++ b/Export_simple.xlsx
@@ -187,15 +187,15 @@
     <t>Rory Lobb</t>
   </si>
   <si>
+    <t>Tim English</t>
+  </si>
+  <si>
     <t>Sam Davidson</t>
   </si>
   <si>
     <t>Bailey Williams</t>
   </si>
   <si>
-    <t>Tim English</t>
-  </si>
-  <si>
     <t>Aaron Naughton</t>
   </si>
   <si>
@@ -313,42 +313,42 @@
     <t>Wil Powell</t>
   </si>
   <si>
+    <t>Lachie Weller</t>
+  </si>
+  <si>
     <t>Connor Budarick</t>
   </si>
   <si>
-    <t>Lachie Weller</t>
-  </si>
-  <si>
     <t>Brayden Fiorini</t>
   </si>
   <si>
     <t>Tom Sparrow</t>
   </si>
   <si>
+    <t>Jack Viney</t>
+  </si>
+  <si>
     <t>Steven May</t>
   </si>
   <si>
+    <t>Daniel Rioli</t>
+  </si>
+  <si>
+    <t>Sam Flanders</t>
+  </si>
+  <si>
+    <t>Christian Petracca</t>
+  </si>
+  <si>
+    <t>Clayton Oliver</t>
+  </si>
+  <si>
+    <t>Touk Miller</t>
+  </si>
+  <si>
     <t>Christian Salem</t>
   </si>
   <si>
-    <t>Daniel Rioli</t>
-  </si>
-  <si>
-    <t>Sam Flanders</t>
-  </si>
-  <si>
-    <t>Jack Viney</t>
-  </si>
-  <si>
-    <t>Christian Petracca</t>
-  </si>
-  <si>
-    <t>Clayton Oliver</t>
-  </si>
-  <si>
-    <t>Touk Miller</t>
-  </si>
-  <si>
     <t>Hawthorn VS North Melbourne</t>
   </si>
   <si>
@@ -376,12 +376,12 @@
     <t>North Melbourne</t>
   </si>
   <si>
+    <t>Jacob Konstanty</t>
+  </si>
+  <si>
     <t>Jack Darling</t>
   </si>
   <si>
-    <t>Jacob Konstanty</t>
-  </si>
-  <si>
     <t>Luke Davies-Uniacke</t>
   </si>
   <si>
@@ -610,12 +610,12 @@
     <t>Nick Vlastuin</t>
   </si>
   <si>
+    <t>Isaac Cumming</t>
+  </si>
+  <si>
     <t>Ben Keays</t>
   </si>
   <si>
-    <t>Isaac Cumming</t>
-  </si>
-  <si>
     <t>Josh Worrell</t>
   </si>
   <si>
@@ -718,16 +718,16 @@
     <t>Liam Stocker</t>
   </si>
   <si>
+    <t>Jack Steele</t>
+  </si>
+  <si>
+    <t>Jeremy Sharp</t>
+  </si>
+  <si>
+    <t>Luke Ryan</t>
+  </si>
+  <si>
     <t>Hunter Clark</t>
-  </si>
-  <si>
-    <t>Jeremy Sharp</t>
-  </si>
-  <si>
-    <t>Luke Ryan</t>
-  </si>
-  <si>
-    <t>Jack Steele</t>
   </si>
   <si>
     <t>Caleb Serong</t>
@@ -2538,13 +2538,13 @@
         <v>1.5</v>
       </c>
       <c r="D95" s="3">
-        <v>1.85</v>
+        <v>1.89</v>
       </c>
       <c r="E95" s="4">
-        <v>23.3</v>
+        <v>26</v>
       </c>
       <c r="F95" s="4">
-        <v>23.3</v>
+        <v>26</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2558,13 +2558,13 @@
         <v>1.63</v>
       </c>
       <c r="D96" s="3">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="E96" s="4">
-        <v>13.5</v>
+        <v>19.6</v>
       </c>
       <c r="F96" s="4">
-        <v>12.2</v>
+        <v>17.6</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2808,13 +2808,13 @@
         <v>4.38</v>
       </c>
       <c r="D112" s="3">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="E112" s="4">
-        <v>-8.699999999999999</v>
+        <v>-1.8</v>
       </c>
       <c r="F112" s="4">
-        <v>-7</v>
+        <v>-1.4</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3061,16 +3061,16 @@
         <v>55</v>
       </c>
       <c r="C15" s="3">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="D15" s="3">
-        <v>2.3</v>
+        <v>2.85</v>
       </c>
       <c r="E15" s="4">
-        <v>31.4</v>
+        <v>42.5</v>
       </c>
       <c r="F15" s="4">
-        <v>31.4</v>
+        <v>42.5</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -3081,16 +3081,16 @@
         <v>56</v>
       </c>
       <c r="C16" s="3">
-        <v>3.46</v>
+        <v>1.75</v>
       </c>
       <c r="D16" s="3">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="E16" s="4">
-        <v>15.6</v>
+        <v>31.4</v>
       </c>
       <c r="F16" s="4">
-        <v>15.6</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -3101,16 +3101,16 @@
         <v>57</v>
       </c>
       <c r="C17" s="3">
-        <v>2</v>
+        <v>3.46</v>
       </c>
       <c r="D17" s="3">
-        <v>2.3</v>
+        <v>4</v>
       </c>
       <c r="E17" s="4">
-        <v>15</v>
+        <v>15.6</v>
       </c>
       <c r="F17" s="4">
-        <v>15</v>
+        <v>15.6</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -3308,7 +3308,7 @@
         <v>53</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C31" s="3">
         <v>13.83</v>
@@ -3348,7 +3348,7 @@
         <v>53</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C33" s="3">
         <v>7.6</v>
@@ -3564,13 +3564,13 @@
         <v>2.93</v>
       </c>
       <c r="D47" s="3">
-        <v>3.6</v>
+        <v>4.7</v>
       </c>
       <c r="E47" s="4">
-        <v>22.9</v>
+        <v>60.4</v>
       </c>
       <c r="F47" s="4">
-        <v>22.9</v>
+        <v>60.4</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -3788,7 +3788,7 @@
         <v>53</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C62" s="3">
         <v>1.29</v>
@@ -3868,7 +3868,7 @@
         <v>53</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C66" s="3">
         <v>1.56</v>
@@ -4078,7 +4078,7 @@
         <v>53</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C80" s="3">
         <v>2.71</v>
@@ -4288,7 +4288,7 @@
         <v>53</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C94" s="3">
         <v>7</v>
@@ -4538,7 +4538,7 @@
         <v>53</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C110" s="3">
         <v>14</v>
@@ -4840,13 +4840,13 @@
         <v>2.62</v>
       </c>
       <c r="D15" s="3">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="E15" s="4">
-        <v>14.5</v>
+        <v>20.2</v>
       </c>
       <c r="F15" s="4">
-        <v>14.5</v>
+        <v>20.2</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -5482,16 +5482,16 @@
         <v>97</v>
       </c>
       <c r="C56" s="3">
-        <v>1.86</v>
+        <v>1.42</v>
       </c>
       <c r="D56" s="3">
-        <v>1.85</v>
+        <v>1.42</v>
       </c>
       <c r="E56" s="4">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="F56" s="4">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -5502,16 +5502,16 @@
         <v>98</v>
       </c>
       <c r="C57" s="3">
-        <v>1.42</v>
+        <v>1.86</v>
       </c>
       <c r="D57" s="3">
-        <v>1.3</v>
+        <v>1.85</v>
       </c>
       <c r="E57" s="4">
-        <v>-8.5</v>
+        <v>-0.5</v>
       </c>
       <c r="F57" s="4">
-        <v>-8.5</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -5584,19 +5584,19 @@
         <v>83</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="C63" s="3">
-        <v>1.17</v>
+        <v>1.04</v>
       </c>
       <c r="D63" s="3">
-        <v>1.11</v>
+        <v>1.15</v>
       </c>
       <c r="E63" s="4">
-        <v>-5.1</v>
+        <v>10.6</v>
       </c>
       <c r="F63" s="4">
-        <v>-5.1</v>
+        <v>11.7</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -5604,19 +5604,19 @@
         <v>83</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="C64" s="3">
-        <v>1.34</v>
+        <v>1.17</v>
       </c>
       <c r="D64" s="3">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="E64" s="4">
-        <v>-6.7</v>
+        <v>-5.1</v>
       </c>
       <c r="F64" s="4">
-        <v>-6.7</v>
+        <v>-5.1</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -5624,19 +5624,19 @@
         <v>83</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="C65" s="3">
-        <v>1.23</v>
+        <v>1.34</v>
       </c>
       <c r="D65" s="3">
-        <v>1.1</v>
+        <v>1.25</v>
       </c>
       <c r="E65" s="4">
-        <v>-10.6</v>
+        <v>-6.7</v>
       </c>
       <c r="F65" s="4">
-        <v>-10.6</v>
+        <v>-6.7</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -5644,19 +5644,19 @@
         <v>83</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="C66" s="3">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="D66" s="3">
         <v>1.1</v>
       </c>
       <c r="E66" s="4">
-        <v>-12</v>
+        <v>-10.6</v>
       </c>
       <c r="F66" s="4">
-        <v>-10.8</v>
+        <v>-10.6</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -5689,19 +5689,19 @@
         <v>77</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C70" s="3">
         <v>2</v>
       </c>
       <c r="D70" s="3">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="E70" s="4">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="F70" s="4">
-        <v>30</v>
+        <v>55</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -5834,19 +5834,19 @@
         <v>83</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C79" s="3">
         <v>1.34</v>
       </c>
       <c r="D79" s="3">
-        <v>1.42</v>
+        <v>1.91</v>
       </c>
       <c r="E79" s="4">
-        <v>6</v>
+        <v>42.5</v>
       </c>
       <c r="F79" s="4">
-        <v>5.4</v>
+        <v>38.2</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -5854,7 +5854,7 @@
         <v>83</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C80" s="3">
         <v>1.04</v>
@@ -5894,19 +5894,19 @@
         <v>83</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C82" s="3">
-        <v>1.82</v>
+        <v>1.18</v>
       </c>
       <c r="D82" s="3">
-        <v>1.75</v>
+        <v>1.16</v>
       </c>
       <c r="E82" s="4">
-        <v>-3.8</v>
+        <v>-1.7</v>
       </c>
       <c r="F82" s="4">
-        <v>-4.6</v>
+        <v>-1.5</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -5959,7 +5959,7 @@
         <v>77</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C87" s="3">
         <v>6.8</v>
@@ -6019,7 +6019,7 @@
         <v>77</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C90" s="3">
         <v>26</v>
@@ -6064,19 +6064,19 @@
         <v>83</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C94" s="3">
         <v>2.29</v>
       </c>
       <c r="D94" s="3">
-        <v>2.7</v>
+        <v>4.7</v>
       </c>
       <c r="E94" s="4">
-        <v>17.9</v>
+        <v>105.2</v>
       </c>
       <c r="F94" s="4">
-        <v>16.1</v>
+        <v>94.7</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -6084,19 +6084,19 @@
         <v>83</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C95" s="3">
         <v>1.38</v>
       </c>
       <c r="D95" s="3">
-        <v>1.52</v>
+        <v>1.88</v>
       </c>
       <c r="E95" s="4">
-        <v>10.1</v>
+        <v>36.2</v>
       </c>
       <c r="F95" s="4">
-        <v>9.1</v>
+        <v>32.6</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -6104,19 +6104,19 @@
         <v>83</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C96" s="3">
         <v>1.55</v>
       </c>
       <c r="D96" s="3">
-        <v>1.58</v>
+        <v>1.65</v>
       </c>
       <c r="E96" s="4">
-        <v>1.9</v>
+        <v>6.5</v>
       </c>
       <c r="F96" s="4">
-        <v>2.1</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -6144,7 +6144,7 @@
         <v>83</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C98" s="3">
         <v>9.369999999999999</v>
@@ -6189,7 +6189,7 @@
         <v>77</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C102" s="3">
         <v>17</v>
@@ -6229,7 +6229,7 @@
         <v>77</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C104" s="3">
         <v>3.14</v>
@@ -6314,19 +6314,19 @@
         <v>83</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C110" s="3">
-        <v>5.2</v>
+        <v>2.25</v>
       </c>
       <c r="D110" s="3">
-        <v>7.5</v>
+        <v>4.4</v>
       </c>
       <c r="E110" s="4">
-        <v>44.2</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="F110" s="4">
-        <v>35.4</v>
+        <v>86</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -6334,19 +6334,19 @@
         <v>83</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="C111" s="3">
-        <v>12</v>
+        <v>5.2</v>
       </c>
       <c r="D111" s="3">
-        <v>15</v>
+        <v>7.5</v>
       </c>
       <c r="E111" s="4">
-        <v>25</v>
+        <v>44.2</v>
       </c>
       <c r="F111" s="4">
-        <v>20</v>
+        <v>35.4</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -6354,19 +6354,19 @@
         <v>83</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="C112" s="3">
-        <v>2.25</v>
+        <v>12</v>
       </c>
       <c r="D112" s="3">
-        <v>2.8</v>
+        <v>15</v>
       </c>
       <c r="E112" s="4">
-        <v>24.4</v>
+        <v>25</v>
       </c>
       <c r="F112" s="4">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -6374,7 +6374,7 @@
         <v>83</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="C113" s="3">
         <v>15</v>
@@ -6394,7 +6394,7 @@
         <v>83</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C114" s="3">
         <v>3.62</v>
@@ -6593,16 +6593,16 @@
         <v>118</v>
       </c>
       <c r="C14" s="3">
-        <v>1.31</v>
+        <v>1.75</v>
       </c>
       <c r="D14" s="3">
-        <v>1.72</v>
+        <v>2.35</v>
       </c>
       <c r="E14" s="4">
-        <v>31.3</v>
+        <v>34.3</v>
       </c>
       <c r="F14" s="4">
-        <v>28.2</v>
+        <v>34.3</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -6613,16 +6613,16 @@
         <v>119</v>
       </c>
       <c r="C15" s="3">
-        <v>1.75</v>
+        <v>1.31</v>
       </c>
       <c r="D15" s="3">
-        <v>2.1</v>
+        <v>1.72</v>
       </c>
       <c r="E15" s="4">
-        <v>20</v>
+        <v>31.3</v>
       </c>
       <c r="F15" s="4">
-        <v>20</v>
+        <v>28.2</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -6840,19 +6840,19 @@
         <v>117</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C30" s="3">
         <v>2.71</v>
       </c>
       <c r="D30" s="3">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="E30" s="4">
-        <v>55</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="F30" s="4">
-        <v>49.5</v>
+        <v>59.5</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -6866,13 +6866,13 @@
         <v>1.7</v>
       </c>
       <c r="D31" s="3">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="E31" s="4">
-        <v>14.7</v>
+        <v>20.6</v>
       </c>
       <c r="F31" s="4">
-        <v>13.2</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -7096,13 +7096,13 @@
         <v>2.67</v>
       </c>
       <c r="D46" s="3">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="E46" s="4">
-        <v>49.8</v>
+        <v>68.5</v>
       </c>
       <c r="F46" s="4">
-        <v>44.8</v>
+        <v>61.6</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -7150,7 +7150,7 @@
         <v>117</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C49" s="3">
         <v>15.2</v>
@@ -7886,13 +7886,13 @@
         <v>1.41</v>
       </c>
       <c r="D96" s="3">
-        <v>1.52</v>
+        <v>1.71</v>
       </c>
       <c r="E96" s="4">
-        <v>7.8</v>
+        <v>21.3</v>
       </c>
       <c r="F96" s="4">
-        <v>7.8</v>
+        <v>21.3</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -8997,13 +8997,13 @@
         <v>1.2</v>
       </c>
       <c r="D54" s="3">
-        <v>1.52</v>
+        <v>1.7</v>
       </c>
       <c r="E54" s="4">
-        <v>26.7</v>
+        <v>41.7</v>
       </c>
       <c r="F54" s="4">
-        <v>24</v>
+        <v>37.5</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -9037,13 +9037,13 @@
         <v>1.07</v>
       </c>
       <c r="D56" s="3">
-        <v>1.15</v>
+        <v>1.22</v>
       </c>
       <c r="E56" s="4">
-        <v>7.5</v>
+        <v>14</v>
       </c>
       <c r="F56" s="4">
-        <v>7.5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -9241,19 +9241,19 @@
         <v>144</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C70" s="3">
-        <v>2.7</v>
+        <v>1.52</v>
       </c>
       <c r="D70" s="3">
-        <v>3.6</v>
+        <v>2.2</v>
       </c>
       <c r="E70" s="4">
-        <v>33.3</v>
+        <v>44.7</v>
       </c>
       <c r="F70" s="4">
-        <v>26.6</v>
+        <v>40.2</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -9261,19 +9261,19 @@
         <v>144</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C71" s="3">
-        <v>1.66</v>
+        <v>2.7</v>
       </c>
       <c r="D71" s="3">
-        <v>2.15</v>
+        <v>3.7</v>
       </c>
       <c r="E71" s="4">
-        <v>29.5</v>
+        <v>37</v>
       </c>
       <c r="F71" s="4">
-        <v>23.6</v>
+        <v>29.6</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -9281,19 +9281,19 @@
         <v>144</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C72" s="3">
-        <v>1.52</v>
+        <v>1.66</v>
       </c>
       <c r="D72" s="3">
-        <v>1.95</v>
+        <v>2.2</v>
       </c>
       <c r="E72" s="4">
-        <v>28.3</v>
+        <v>32.5</v>
       </c>
       <c r="F72" s="4">
-        <v>25.5</v>
+        <v>26</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -9497,13 +9497,13 @@
         <v>2.82</v>
       </c>
       <c r="D86" s="3">
-        <v>4.8</v>
+        <v>5.75</v>
       </c>
       <c r="E86" s="4">
-        <v>70.2</v>
+        <v>103.9</v>
       </c>
       <c r="F86" s="4">
-        <v>56.2</v>
+        <v>83.09999999999999</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -9517,13 +9517,13 @@
         <v>3.83</v>
       </c>
       <c r="D87" s="3">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="E87" s="4">
-        <v>43.6</v>
+        <v>69.7</v>
       </c>
       <c r="F87" s="4">
-        <v>34.9</v>
+        <v>55.8</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -10398,13 +10398,13 @@
         <v>1.51</v>
       </c>
       <c r="D30" s="3">
-        <v>1.8</v>
+        <v>1.86</v>
       </c>
       <c r="E30" s="4">
-        <v>19.2</v>
+        <v>23.2</v>
       </c>
       <c r="F30" s="4">
-        <v>19.2</v>
+        <v>23.2</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -10418,13 +10418,13 @@
         <v>1.97</v>
       </c>
       <c r="D31" s="3">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="E31" s="4">
-        <v>16.8</v>
+        <v>21.8</v>
       </c>
       <c r="F31" s="4">
-        <v>13.4</v>
+        <v>17.4</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -10668,13 +10668,13 @@
         <v>2.84</v>
       </c>
       <c r="D47" s="3">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="E47" s="4">
-        <v>23.2</v>
+        <v>32</v>
       </c>
       <c r="F47" s="4">
-        <v>20.9</v>
+        <v>28.8</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -10688,13 +10688,13 @@
         <v>4.79</v>
       </c>
       <c r="D48" s="3">
-        <v>5</v>
+        <v>5.8</v>
       </c>
       <c r="E48" s="4">
-        <v>4.4</v>
+        <v>21.1</v>
       </c>
       <c r="F48" s="4">
-        <v>3.5</v>
+        <v>16.9</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -10773,13 +10773,13 @@
         <v>1.53</v>
       </c>
       <c r="D54" s="3">
-        <v>1.72</v>
+        <v>1.92</v>
       </c>
       <c r="E54" s="4">
-        <v>12.4</v>
+        <v>25.5</v>
       </c>
       <c r="F54" s="4">
-        <v>11.2</v>
+        <v>22.9</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -10895,16 +10895,16 @@
         <v>196</v>
       </c>
       <c r="C62" s="3">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="D62" s="3">
-        <v>1.3</v>
+        <v>1.46</v>
       </c>
       <c r="E62" s="4">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="F62" s="4">
-        <v>0</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -10915,16 +10915,16 @@
         <v>197</v>
       </c>
       <c r="C63" s="3">
-        <v>1.45</v>
+        <v>1.3</v>
       </c>
       <c r="D63" s="3">
-        <v>1.42</v>
+        <v>1.3</v>
       </c>
       <c r="E63" s="4">
-        <v>-2.1</v>
+        <v>0</v>
       </c>
       <c r="F63" s="4">
-        <v>-2.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -11017,19 +11017,19 @@
         <v>176</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="C70" s="3">
-        <v>4.24</v>
+        <v>1.64</v>
       </c>
       <c r="D70" s="3">
-        <v>4.8</v>
+        <v>1.87</v>
       </c>
       <c r="E70" s="4">
-        <v>13.2</v>
+        <v>14</v>
       </c>
       <c r="F70" s="4">
-        <v>10.6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -11037,19 +11037,19 @@
         <v>176</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="C71" s="3">
-        <v>1.22</v>
+        <v>4.24</v>
       </c>
       <c r="D71" s="3">
-        <v>1.26</v>
+        <v>4.8</v>
       </c>
       <c r="E71" s="4">
-        <v>3.3</v>
+        <v>13.2</v>
       </c>
       <c r="F71" s="4">
-        <v>3.3</v>
+        <v>10.6</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -11057,19 +11057,19 @@
         <v>176</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="C72" s="3">
-        <v>1.64</v>
+        <v>1.22</v>
       </c>
       <c r="D72" s="3">
-        <v>1.68</v>
+        <v>1.26</v>
       </c>
       <c r="E72" s="4">
-        <v>2.4</v>
+        <v>3.3</v>
       </c>
       <c r="F72" s="4">
-        <v>2.4</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -11142,7 +11142,7 @@
         <v>1</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C78" s="3">
         <v>2.54</v>
@@ -11162,7 +11162,7 @@
         <v>1</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C79" s="3">
         <v>2.16</v>
@@ -11392,7 +11392,7 @@
         <v>1</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C94" s="3">
         <v>3.9</v>
@@ -11412,7 +11412,7 @@
         <v>1</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C95" s="3">
         <v>6.78</v>
@@ -11622,7 +11622,7 @@
         <v>1</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C109" s="3">
         <v>11.71</v>
@@ -11642,7 +11642,7 @@
         <v>1</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C110" s="3">
         <v>30.5</v>
@@ -12654,13 +12654,13 @@
         <v>1.24</v>
       </c>
       <c r="D62" s="3">
-        <v>1.52</v>
+        <v>1.66</v>
       </c>
       <c r="E62" s="4">
-        <v>22.6</v>
+        <v>33.9</v>
       </c>
       <c r="F62" s="4">
-        <v>22.6</v>
+        <v>33.9</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -12674,13 +12674,13 @@
         <v>2.2</v>
       </c>
       <c r="D63" s="3">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="E63" s="4">
-        <v>18.2</v>
+        <v>27.3</v>
       </c>
       <c r="F63" s="4">
-        <v>16.4</v>
+        <v>24.6</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -12708,19 +12708,19 @@
         <v>212</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>213</v>
+        <v>232</v>
       </c>
       <c r="C65" s="3">
-        <v>2.33</v>
+        <v>1.04</v>
       </c>
       <c r="D65" s="3">
-        <v>2.3</v>
+        <v>1.07</v>
       </c>
       <c r="E65" s="4">
-        <v>-1.3</v>
+        <v>2.9</v>
       </c>
       <c r="F65" s="4">
-        <v>-1.2</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -12728,19 +12728,19 @@
         <v>212</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>232</v>
+        <v>213</v>
       </c>
       <c r="C66" s="3">
-        <v>1.37</v>
+        <v>2.33</v>
       </c>
       <c r="D66" s="3">
-        <v>1.28</v>
+        <v>2.3</v>
       </c>
       <c r="E66" s="4">
-        <v>-6.6</v>
+        <v>-1.3</v>
       </c>
       <c r="F66" s="4">
-        <v>-6.6</v>
+        <v>-1.2</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -12918,19 +12918,19 @@
         <v>212</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C79" s="3">
-        <v>7.71</v>
+        <v>1.23</v>
       </c>
       <c r="D79" s="3">
-        <v>9</v>
+        <v>1.53</v>
       </c>
       <c r="E79" s="4">
-        <v>16.7</v>
+        <v>24.4</v>
       </c>
       <c r="F79" s="4">
-        <v>13.4</v>
+        <v>22</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -12938,19 +12938,19 @@
         <v>212</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C80" s="3">
-        <v>1.23</v>
+        <v>7.71</v>
       </c>
       <c r="D80" s="3">
-        <v>1.32</v>
+        <v>9</v>
       </c>
       <c r="E80" s="4">
-        <v>7.3</v>
+        <v>16.7</v>
       </c>
       <c r="F80" s="4">
-        <v>6.6</v>
+        <v>13.4</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -12978,7 +12978,7 @@
         <v>212</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="C82" s="3">
         <v>2.59</v>
@@ -13148,19 +13148,19 @@
         <v>212</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="C94" s="3">
-        <v>12.17</v>
+        <v>2.11</v>
       </c>
       <c r="D94" s="3">
-        <v>14</v>
+        <v>3.1</v>
       </c>
       <c r="E94" s="4">
-        <v>15</v>
+        <v>46.9</v>
       </c>
       <c r="F94" s="4">
-        <v>12</v>
+        <v>37.5</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -13168,19 +13168,19 @@
         <v>212</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>216</v>
+        <v>229</v>
       </c>
       <c r="C95" s="3">
-        <v>1.32</v>
+        <v>12.17</v>
       </c>
       <c r="D95" s="3">
-        <v>1.5</v>
+        <v>14</v>
       </c>
       <c r="E95" s="4">
-        <v>13.6</v>
+        <v>15</v>
       </c>
       <c r="F95" s="4">
-        <v>12.2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -13188,19 +13188,19 @@
         <v>212</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>235</v>
+        <v>216</v>
       </c>
       <c r="C96" s="3">
-        <v>2.11</v>
+        <v>1.32</v>
       </c>
       <c r="D96" s="3">
-        <v>2.3</v>
+        <v>1.5</v>
       </c>
       <c r="E96" s="4">
-        <v>9</v>
+        <v>13.6</v>
       </c>
       <c r="F96" s="4">
-        <v>7.2</v>
+        <v>12.2</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -13458,7 +13458,7 @@
         <v>212</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C113" s="3">
         <v>6.17</v>

--- a/Export_simple.xlsx
+++ b/Export_simple.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2158" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2158" uniqueCount="299">
   <si>
     <t>North Melbourne VS Western Bulldogs</t>
   </si>
@@ -57,12 +57,12 @@
     <t>Jacob Konstanty</t>
   </si>
   <si>
+    <t>Luke Davies-Uniacke</t>
+  </si>
+  <si>
     <t>Tristan Xerri</t>
   </si>
   <si>
-    <t>Luke Davies-Uniacke</t>
-  </si>
-  <si>
     <t>Tom Powell</t>
   </si>
   <si>
@@ -81,12 +81,12 @@
     <t>Sam Davidson</t>
   </si>
   <si>
+    <t>Tim English</t>
+  </si>
+  <si>
     <t>Bailey Williams</t>
   </si>
   <si>
-    <t>Tim English</t>
-  </si>
-  <si>
     <t>2+ Goalscorer</t>
   </si>
   <si>
@@ -234,12 +234,12 @@
     <t>Nick Haynes</t>
   </si>
   <si>
+    <t>Harry Perryman</t>
+  </si>
+  <si>
     <t>Darcy Moore</t>
   </si>
   <si>
-    <t>Harry Perryman</t>
-  </si>
-  <si>
     <t>Will Hoskin-Elliott</t>
   </si>
   <si>
@@ -531,7 +531,7 @@
     <t>Tom Atkins</t>
   </si>
   <si>
-    <t>Mark Blicavs</t>
+    <t>Nathan Broad</t>
   </si>
   <si>
     <t>Toby Nankervis</t>
@@ -540,9 +540,6 @@
     <t>Luke Trainor</t>
   </si>
   <si>
-    <t>Nathan Broad</t>
-  </si>
-  <si>
     <t>Nick Vlastuin</t>
   </si>
   <si>
@@ -585,12 +582,12 @@
     <t>Port Adelaide</t>
   </si>
   <si>
+    <t>Zak Butters</t>
+  </si>
+  <si>
     <t>Connor Rozee</t>
   </si>
   <si>
-    <t>Zak Butters</t>
-  </si>
-  <si>
     <t>Sam Powell-Pepper</t>
   </si>
   <si>
@@ -627,10 +624,13 @@
     <t>Darcy Byrne-Jones</t>
   </si>
   <si>
+    <t>Travis Boak</t>
+  </si>
+  <si>
     <t>Jason Horne-Francis</t>
   </si>
   <si>
-    <t>Travis Boak</t>
+    <t>Levi Ashcroft</t>
   </si>
   <si>
     <t>Josh Dunkley</t>
@@ -639,9 +639,6 @@
     <t>Lachie Neale</t>
   </si>
   <si>
-    <t>Levi Ashcroft</t>
-  </si>
-  <si>
     <t>Logan Evans</t>
   </si>
   <si>
@@ -801,12 +798,12 @@
     <t>Murphy Reid</t>
   </si>
   <si>
+    <t>James Rowbottom</t>
+  </si>
+  <si>
     <t>James Jordon</t>
   </si>
   <si>
-    <t>James Rowbottom</t>
-  </si>
-  <si>
     <t>Jake Lloyd</t>
   </si>
   <si>
@@ -861,15 +858,15 @@
     <t>Ed Langdon</t>
   </si>
   <si>
+    <t>Jack Viney</t>
+  </si>
+  <si>
     <t>Max Gawn</t>
   </si>
   <si>
     <t>Bayley Fritsch</t>
   </si>
   <si>
-    <t>Jack Viney</t>
-  </si>
-  <si>
     <t>Kysaiah Pickett</t>
   </si>
   <si>
@@ -894,13 +891,13 @@
     <t>Kade Chandler</t>
   </si>
   <si>
+    <t>Isaac Cumming</t>
+  </si>
+  <si>
+    <t>Ben Keays</t>
+  </si>
+  <si>
     <t>Brodie Smith</t>
-  </si>
-  <si>
-    <t>Ben Keays</t>
-  </si>
-  <si>
-    <t>Isaac Cumming</t>
   </si>
   <si>
     <t>Tom Sparrow</t>
@@ -1328,13 +1325,13 @@
         <v>1.67</v>
       </c>
       <c r="D6" s="3">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="E6" s="4">
-        <v>19.8</v>
+        <v>37.7</v>
       </c>
       <c r="F6" s="4">
-        <v>17.8</v>
+        <v>33.9</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1345,16 +1342,16 @@
         <v>11</v>
       </c>
       <c r="C7" s="3">
-        <v>3.28</v>
+        <v>2.7</v>
       </c>
       <c r="D7" s="3">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="E7" s="4">
-        <v>15.9</v>
+        <v>25.9</v>
       </c>
       <c r="F7" s="4">
-        <v>14.3</v>
+        <v>20.7</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1365,16 +1362,16 @@
         <v>12</v>
       </c>
       <c r="C8" s="3">
-        <v>2.7</v>
+        <v>3.28</v>
       </c>
       <c r="D8" s="3">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="E8" s="4">
-        <v>11.1</v>
+        <v>15.9</v>
       </c>
       <c r="F8" s="4">
-        <v>8.9</v>
+        <v>14.3</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1510,16 +1507,16 @@
         <v>19</v>
       </c>
       <c r="C17" s="3">
-        <v>3.5</v>
+        <v>2.03</v>
       </c>
       <c r="D17" s="3">
-        <v>4</v>
+        <v>2.4</v>
       </c>
       <c r="E17" s="4">
-        <v>14.3</v>
+        <v>18.2</v>
       </c>
       <c r="F17" s="4">
-        <v>14.3</v>
+        <v>16.4</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1530,16 +1527,16 @@
         <v>20</v>
       </c>
       <c r="C18" s="3">
-        <v>2.03</v>
+        <v>3.5</v>
       </c>
       <c r="D18" s="3">
-        <v>2.2</v>
+        <v>4</v>
       </c>
       <c r="E18" s="4">
-        <v>8.4</v>
+        <v>14.3</v>
       </c>
       <c r="F18" s="4">
-        <v>7.6</v>
+        <v>14.3</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1652,7 +1649,7 @@
         <v>9</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C26" s="3">
         <v>14.6</v>
@@ -1717,7 +1714,7 @@
         <v>15</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C31" s="3">
         <v>14</v>
@@ -1737,7 +1734,7 @@
         <v>15</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C32" s="3">
         <v>7.7</v>
@@ -1822,19 +1819,19 @@
         <v>9</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C38" s="3">
-        <v>2.61</v>
+        <v>4.5</v>
       </c>
       <c r="D38" s="3">
-        <v>2.8</v>
+        <v>4.9</v>
       </c>
       <c r="E38" s="4">
-        <v>7.3</v>
+        <v>8.9</v>
       </c>
       <c r="F38" s="4">
-        <v>8</v>
+        <v>8.9</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1842,19 +1839,19 @@
         <v>9</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C39" s="3">
-        <v>4.5</v>
+        <v>2.61</v>
       </c>
       <c r="D39" s="3">
-        <v>4.8</v>
+        <v>2.8</v>
       </c>
       <c r="E39" s="4">
-        <v>6.7</v>
+        <v>7.3</v>
       </c>
       <c r="F39" s="4">
-        <v>6.7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -2092,7 +2089,7 @@
         <v>9</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C55" s="3">
         <v>1.79</v>
@@ -2197,7 +2194,7 @@
         <v>15</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C62" s="3">
         <v>1.28</v>
@@ -2453,13 +2450,13 @@
         <v>2.77</v>
       </c>
       <c r="D78" s="3">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="E78" s="4">
-        <v>11.9</v>
+        <v>44.4</v>
       </c>
       <c r="F78" s="4">
-        <v>11.9</v>
+        <v>44.4</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2527,7 +2524,7 @@
         <v>15</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C82" s="3">
         <v>2.75</v>
@@ -2612,7 +2609,7 @@
         <v>9</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C88" s="3">
         <v>1.4</v>
@@ -2848,13 +2845,13 @@
         <v>1.97</v>
       </c>
       <c r="D103" s="3">
-        <v>2.6</v>
+        <v>2.92</v>
       </c>
       <c r="E103" s="4">
-        <v>32</v>
+        <v>48.2</v>
       </c>
       <c r="F103" s="4">
-        <v>32</v>
+        <v>48.2</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -2882,7 +2879,7 @@
         <v>9</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C105" s="3">
         <v>59</v>
@@ -2902,7 +2899,7 @@
         <v>9</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C106" s="3">
         <v>3.32</v>
@@ -3374,13 +3371,13 @@
         <v>1.32</v>
       </c>
       <c r="D23" s="3">
-        <v>1.58</v>
+        <v>1.63</v>
       </c>
       <c r="E23" s="4">
-        <v>19.7</v>
+        <v>23.5</v>
       </c>
       <c r="F23" s="4">
-        <v>23.6</v>
+        <v>28.2</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -3604,13 +3601,13 @@
         <v>1.98</v>
       </c>
       <c r="D38" s="3">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="E38" s="4">
-        <v>41.4</v>
+        <v>51.5</v>
       </c>
       <c r="F38" s="4">
-        <v>45.5</v>
+        <v>56.7</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -3976,16 +3973,16 @@
         <v>70</v>
       </c>
       <c r="C62" s="3">
-        <v>2.52</v>
+        <v>1.21</v>
       </c>
       <c r="D62" s="3">
-        <v>3.5</v>
+        <v>1.9</v>
       </c>
       <c r="E62" s="4">
-        <v>38.9</v>
+        <v>57</v>
       </c>
       <c r="F62" s="4">
-        <v>38.9</v>
+        <v>45.6</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -3996,16 +3993,16 @@
         <v>71</v>
       </c>
       <c r="C63" s="3">
-        <v>1.21</v>
+        <v>2.52</v>
       </c>
       <c r="D63" s="3">
-        <v>1.58</v>
+        <v>3.5</v>
       </c>
       <c r="E63" s="4">
-        <v>30.6</v>
+        <v>38.9</v>
       </c>
       <c r="F63" s="4">
-        <v>24.5</v>
+        <v>38.9</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -4104,13 +4101,13 @@
         <v>1.56</v>
       </c>
       <c r="D70" s="3">
-        <v>2.3</v>
+        <v>2.61</v>
       </c>
       <c r="E70" s="4">
-        <v>47.4</v>
+        <v>67.3</v>
       </c>
       <c r="F70" s="4">
-        <v>47.4</v>
+        <v>67.3</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -4223,7 +4220,7 @@
         <v>54</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C78" s="3">
         <v>2.74</v>
@@ -4263,19 +4260,19 @@
         <v>54</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C80" s="3">
-        <v>8.300000000000001</v>
+        <v>1.65</v>
       </c>
       <c r="D80" s="3">
-        <v>9</v>
+        <v>2.2</v>
       </c>
       <c r="E80" s="4">
-        <v>8.4</v>
+        <v>33.3</v>
       </c>
       <c r="F80" s="4">
-        <v>6.7</v>
+        <v>30</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -4283,19 +4280,19 @@
         <v>54</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C81" s="3">
-        <v>1.65</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="D81" s="3">
-        <v>1.72</v>
+        <v>9</v>
       </c>
       <c r="E81" s="4">
-        <v>4.2</v>
+        <v>8.4</v>
       </c>
       <c r="F81" s="4">
-        <v>3.8</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -4493,7 +4490,7 @@
         <v>54</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C95" s="3">
         <v>14.8</v>
@@ -4783,7 +4780,7 @@
         <v>54</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C113" s="3">
         <v>74</v>
@@ -5525,13 +5522,13 @@
         <v>4.71</v>
       </c>
       <c r="D47" s="3">
-        <v>5</v>
+        <v>5.4</v>
       </c>
       <c r="E47" s="4">
-        <v>6.2</v>
+        <v>14.6</v>
       </c>
       <c r="F47" s="4">
-        <v>5</v>
+        <v>11.7</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -5900,13 +5897,13 @@
         <v>1</v>
       </c>
       <c r="D71" s="3">
-        <v>1.07</v>
+        <v>1.11</v>
       </c>
       <c r="E71" s="4">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F71" s="4">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -6005,13 +6002,13 @@
         <v>1.15</v>
       </c>
       <c r="D78" s="3">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="E78" s="4">
-        <v>15.7</v>
+        <v>27</v>
       </c>
       <c r="F78" s="4">
-        <v>15.7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -6150,13 +6147,13 @@
         <v>1</v>
       </c>
       <c r="D87" s="3">
-        <v>1.45</v>
+        <v>1.61</v>
       </c>
       <c r="E87" s="4">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="F87" s="4">
-        <v>45</v>
+        <v>61</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -6255,13 +6252,13 @@
         <v>1.69</v>
       </c>
       <c r="D94" s="3">
-        <v>2.4</v>
+        <v>2.98</v>
       </c>
       <c r="E94" s="4">
-        <v>42</v>
+        <v>76.3</v>
       </c>
       <c r="F94" s="4">
-        <v>33.6</v>
+        <v>61</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -6400,13 +6397,13 @@
         <v>2</v>
       </c>
       <c r="D103" s="3">
-        <v>2.6</v>
+        <v>3.32</v>
       </c>
       <c r="E103" s="4">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="F103" s="4">
-        <v>27</v>
+        <v>59.4</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -7426,13 +7423,13 @@
         <v>1.5</v>
       </c>
       <c r="D55" s="3">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="E55" s="4">
-        <v>46.7</v>
+        <v>51.3</v>
       </c>
       <c r="F55" s="4">
-        <v>42</v>
+        <v>46.2</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -7525,19 +7522,19 @@
         <v>117</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="C62" s="3">
-        <v>1.93</v>
+        <v>1.62</v>
       </c>
       <c r="D62" s="3">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="E62" s="4">
-        <v>19.2</v>
+        <v>35.8</v>
       </c>
       <c r="F62" s="4">
-        <v>17.3</v>
+        <v>35.8</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -7545,19 +7542,19 @@
         <v>117</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="C63" s="3">
-        <v>1.62</v>
+        <v>1.93</v>
       </c>
       <c r="D63" s="3">
-        <v>1.75</v>
+        <v>2.3</v>
       </c>
       <c r="E63" s="4">
-        <v>8</v>
+        <v>19.2</v>
       </c>
       <c r="F63" s="4">
-        <v>8</v>
+        <v>17.3</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -7571,13 +7568,13 @@
         <v>1.32</v>
       </c>
       <c r="D64" s="3">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="E64" s="4">
-        <v>0.8</v>
+        <v>9.1</v>
       </c>
       <c r="F64" s="4">
-        <v>0.8</v>
+        <v>9.1</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -7591,13 +7588,13 @@
         <v>1.09</v>
       </c>
       <c r="D65" s="3">
-        <v>1.09</v>
+        <v>1.17</v>
       </c>
       <c r="E65" s="4">
-        <v>0</v>
+        <v>7.3</v>
       </c>
       <c r="F65" s="4">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -7801,13 +7798,13 @@
         <v>1.51</v>
       </c>
       <c r="D79" s="3">
-        <v>1.72</v>
+        <v>2.19</v>
       </c>
       <c r="E79" s="4">
-        <v>13.9</v>
+        <v>45</v>
       </c>
       <c r="F79" s="4">
-        <v>11.1</v>
+        <v>36</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -7861,13 +7858,13 @@
         <v>3.44</v>
       </c>
       <c r="D82" s="3">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="E82" s="4">
-        <v>-18.6</v>
+        <v>-7</v>
       </c>
       <c r="F82" s="4">
-        <v>-16.7</v>
+        <v>-6.3</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -8432,13 +8429,13 @@
         <v>1.55</v>
       </c>
       <c r="D6" s="3">
-        <v>1.75</v>
+        <v>2.03</v>
       </c>
       <c r="E6" s="4">
-        <v>12.9</v>
+        <v>31</v>
       </c>
       <c r="F6" s="4">
-        <v>14.2</v>
+        <v>34.1</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -8682,13 +8679,13 @@
         <v>3.44</v>
       </c>
       <c r="D22" s="3">
-        <v>4.5</v>
+        <v>6.75</v>
       </c>
       <c r="E22" s="4">
-        <v>30.8</v>
+        <v>96.2</v>
       </c>
       <c r="F22" s="4">
-        <v>24.6</v>
+        <v>77</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -8827,13 +8824,13 @@
         <v>7</v>
       </c>
       <c r="D31" s="3">
-        <v>6.5</v>
+        <v>7.25</v>
       </c>
       <c r="E31" s="4">
-        <v>-7.1</v>
+        <v>3.6</v>
       </c>
       <c r="F31" s="4">
-        <v>-5.7</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -9182,13 +9179,13 @@
         <v>1.2</v>
       </c>
       <c r="D54" s="3">
-        <v>1.58</v>
+        <v>1.63</v>
       </c>
       <c r="E54" s="4">
-        <v>31.7</v>
+        <v>35.8</v>
       </c>
       <c r="F54" s="4">
-        <v>25.4</v>
+        <v>28.6</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -9236,19 +9233,19 @@
         <v>147</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="C57" s="3">
-        <v>1.18</v>
+        <v>2.32</v>
       </c>
       <c r="D57" s="3">
-        <v>1.14</v>
+        <v>2.26</v>
       </c>
       <c r="E57" s="4">
-        <v>-3.4</v>
+        <v>-2.6</v>
       </c>
       <c r="F57" s="4">
-        <v>-3.4</v>
+        <v>-2.1</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -9256,19 +9253,19 @@
         <v>147</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C58" s="3">
-        <v>1.65</v>
+        <v>1.18</v>
       </c>
       <c r="D58" s="3">
-        <v>1.58</v>
+        <v>1.14</v>
       </c>
       <c r="E58" s="4">
-        <v>-4.2</v>
+        <v>-3.4</v>
       </c>
       <c r="F58" s="4">
-        <v>-3.8</v>
+        <v>-3.4</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -9301,19 +9298,19 @@
         <v>153</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C62" s="3">
-        <v>1.52</v>
+        <v>1.72</v>
       </c>
       <c r="D62" s="3">
-        <v>1.65</v>
+        <v>1.89</v>
       </c>
       <c r="E62" s="4">
-        <v>8.6</v>
+        <v>9.9</v>
       </c>
       <c r="F62" s="4">
-        <v>7.7</v>
+        <v>9.9</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -9321,19 +9318,19 @@
         <v>153</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C63" s="3">
-        <v>1.67</v>
+        <v>1.52</v>
       </c>
       <c r="D63" s="3">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="E63" s="4">
-        <v>4.8</v>
+        <v>8.6</v>
       </c>
       <c r="F63" s="4">
-        <v>4.3</v>
+        <v>7.7</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -9341,19 +9338,19 @@
         <v>153</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C64" s="3">
-        <v>1.72</v>
+        <v>1.67</v>
       </c>
       <c r="D64" s="3">
         <v>1.75</v>
       </c>
       <c r="E64" s="4">
-        <v>1.7</v>
+        <v>4.8</v>
       </c>
       <c r="F64" s="4">
-        <v>1.7</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -9361,7 +9358,7 @@
         <v>153</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C65" s="3">
         <v>1.14</v>
@@ -9466,7 +9463,7 @@
         <v>147</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C72" s="3">
         <v>1.39</v>
@@ -9554,16 +9551,16 @@
         <v>172</v>
       </c>
       <c r="C78" s="3">
-        <v>4.39</v>
+        <v>1.67</v>
       </c>
       <c r="D78" s="3">
-        <v>5</v>
+        <v>1.97</v>
       </c>
       <c r="E78" s="4">
-        <v>13.9</v>
+        <v>18</v>
       </c>
       <c r="F78" s="4">
-        <v>11.1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -9571,19 +9568,19 @@
         <v>153</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C79" s="3">
-        <v>1.67</v>
+        <v>4.39</v>
       </c>
       <c r="D79" s="3">
-        <v>1.85</v>
+        <v>5</v>
       </c>
       <c r="E79" s="4">
-        <v>10.8</v>
+        <v>13.9</v>
       </c>
       <c r="F79" s="4">
-        <v>10.8</v>
+        <v>11.1</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -9716,7 +9713,7 @@
         <v>147</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C88" s="3">
         <v>9.4</v>
@@ -9756,7 +9753,7 @@
         <v>147</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C90" s="3">
         <v>3.26</v>
@@ -9821,7 +9818,7 @@
         <v>153</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C95" s="3">
         <v>26.33</v>
@@ -9881,7 +9878,7 @@
         <v>153</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C98" s="3">
         <v>2.63</v>
@@ -9986,7 +9983,7 @@
         <v>147</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C105" s="3">
         <v>2.72</v>
@@ -10006,7 +10003,7 @@
         <v>147</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C106" s="3">
         <v>15</v>
@@ -10091,7 +10088,7 @@
         <v>153</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C112" s="3">
         <v>12.5</v>
@@ -10111,7 +10108,7 @@
         <v>153</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C113" s="3">
         <v>75</v>
@@ -10141,7 +10138,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -10149,7 +10146,7 @@
         <v>45843</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -10179,10 +10176,10 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>180</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>181</v>
       </c>
       <c r="C6" s="3">
         <v>1.2</v>
@@ -10199,10 +10196,10 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C7" s="3">
         <v>1.62</v>
@@ -10219,10 +10216,10 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C8" s="3">
         <v>1.32</v>
@@ -10239,10 +10236,10 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C9" s="3">
         <v>1.42</v>
@@ -10259,10 +10256,10 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C10" s="3">
         <v>2.27</v>
@@ -10304,50 +10301,50 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>187</v>
-      </c>
       <c r="C14" s="3">
-        <v>1.93</v>
+        <v>2.59</v>
       </c>
       <c r="D14" s="3">
-        <v>2.3</v>
+        <v>3.4</v>
       </c>
       <c r="E14" s="4">
-        <v>19.2</v>
+        <v>31.3</v>
       </c>
       <c r="F14" s="4">
-        <v>19.2</v>
+        <v>28.2</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C15" s="3">
-        <v>2.59</v>
+        <v>1.93</v>
       </c>
       <c r="D15" s="3">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="E15" s="4">
-        <v>15.8</v>
+        <v>19.2</v>
       </c>
       <c r="F15" s="4">
-        <v>14.2</v>
+        <v>19.2</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C16" s="3">
         <v>1.41</v>
@@ -10364,10 +10361,10 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C17" s="3">
         <v>4.06</v>
@@ -10384,10 +10381,10 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C18" s="3">
         <v>1.37</v>
@@ -10429,10 +10426,10 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>180</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>181</v>
       </c>
       <c r="C22" s="3">
         <v>1.72</v>
@@ -10449,10 +10446,10 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C23" s="3">
         <v>12</v>
@@ -10469,10 +10466,10 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C24" s="3">
         <v>4.2</v>
@@ -10489,10 +10486,10 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C25" s="3">
         <v>7</v>
@@ -10509,10 +10506,10 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C26" s="3">
         <v>3.04</v>
@@ -10554,7 +10551,7 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>187</v>
@@ -10563,21 +10560,21 @@
         <v>6.07</v>
       </c>
       <c r="D30" s="3">
-        <v>7.5</v>
+        <v>8.75</v>
       </c>
       <c r="E30" s="4">
-        <v>23.6</v>
+        <v>44.2</v>
       </c>
       <c r="F30" s="4">
-        <v>18.9</v>
+        <v>35.4</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C31" s="3">
         <v>2.2</v>
@@ -10594,30 +10591,30 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C32" s="3">
         <v>2.95</v>
       </c>
       <c r="D32" s="3">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="E32" s="4">
-        <v>1.7</v>
+        <v>5.1</v>
       </c>
       <c r="F32" s="4">
-        <v>1.5</v>
+        <v>4.6</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C33" s="3">
         <v>1.81</v>
@@ -10634,10 +10631,10 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C34" s="3">
         <v>18.25</v>
@@ -10679,30 +10676,30 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B38" s="3" t="s">
         <v>180</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>181</v>
       </c>
       <c r="C38" s="3">
         <v>3.64</v>
       </c>
       <c r="D38" s="3">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="E38" s="4">
-        <v>31.9</v>
+        <v>37.4</v>
       </c>
       <c r="F38" s="4">
-        <v>25.5</v>
+        <v>29.9</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C39" s="3">
         <v>10.5</v>
@@ -10719,10 +10716,10 @@
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C40" s="3">
         <v>22.75</v>
@@ -10739,10 +10736,10 @@
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C41" s="3">
         <v>7.08</v>
@@ -10759,10 +10756,10 @@
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C42" s="3">
         <v>5.86</v>
@@ -10804,30 +10801,30 @@
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C46" s="3">
         <v>3.88</v>
       </c>
       <c r="D46" s="3">
-        <v>5.5</v>
+        <v>5.8</v>
       </c>
       <c r="E46" s="4">
-        <v>41.8</v>
+        <v>49.5</v>
       </c>
       <c r="F46" s="4">
-        <v>37.6</v>
+        <v>44.6</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C47" s="3">
         <v>2.95</v>
@@ -10844,7 +10841,7 @@
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>187</v>
@@ -10864,10 +10861,10 @@
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C49" s="3">
         <v>13</v>
@@ -10884,10 +10881,10 @@
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C50" s="3">
         <v>61</v>
@@ -10929,10 +10926,10 @@
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C54" s="3">
         <v>1.29</v>
@@ -10949,10 +10946,10 @@
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C55" s="3">
         <v>2.21</v>
@@ -10969,10 +10966,10 @@
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C56" s="3">
         <v>3.36</v>
@@ -10989,10 +10986,10 @@
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C57" s="3">
         <v>1.47</v>
@@ -11009,10 +11006,10 @@
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C58" s="3">
         <v>2.52</v>
@@ -11054,10 +11051,10 @@
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C62" s="3">
         <v>1.19</v>
@@ -11074,10 +11071,10 @@
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C63" s="3">
         <v>2.27</v>
@@ -11094,50 +11091,50 @@
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C64" s="3">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="D64" s="3">
-        <v>1.07</v>
+        <v>1.13</v>
       </c>
       <c r="E64" s="4">
-        <v>-15.1</v>
+        <v>-11.7</v>
       </c>
       <c r="F64" s="4">
-        <v>-15.1</v>
+        <v>-11.7</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C65" s="3">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="D65" s="3">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="E65" s="4">
-        <v>-15.6</v>
+        <v>-15.1</v>
       </c>
       <c r="F65" s="4">
-        <v>-15.6</v>
+        <v>-15.1</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C66" s="3">
         <v>1.35</v>
@@ -11179,70 +11176,70 @@
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C70" s="3">
-        <v>1.14</v>
+        <v>1.5</v>
       </c>
       <c r="D70" s="3">
-        <v>1.22</v>
+        <v>2.16</v>
       </c>
       <c r="E70" s="4">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="F70" s="4">
-        <v>7</v>
+        <v>39.6</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C71" s="3">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="D71" s="3">
-        <v>1.12</v>
+        <v>1.34</v>
       </c>
       <c r="E71" s="4">
-        <v>0.9</v>
+        <v>17.5</v>
       </c>
       <c r="F71" s="4">
-        <v>0.9</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C72" s="3">
-        <v>1.5</v>
+        <v>1.11</v>
       </c>
       <c r="D72" s="3">
-        <v>1.5</v>
+        <v>1.16</v>
       </c>
       <c r="E72" s="4">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="F72" s="4">
-        <v>0</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C73" s="3">
         <v>2.84</v>
@@ -11259,10 +11256,10 @@
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C74" s="3">
         <v>1.17</v>
@@ -11304,10 +11301,10 @@
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C78" s="3">
         <v>5.25</v>
@@ -11324,30 +11321,30 @@
     </row>
     <row r="79" spans="1:6">
       <c r="A79" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C79" s="3">
         <v>1.74</v>
       </c>
       <c r="D79" s="3">
-        <v>1.68</v>
+        <v>1.88</v>
       </c>
       <c r="E79" s="4">
-        <v>-3.4</v>
+        <v>8</v>
       </c>
       <c r="F79" s="4">
-        <v>-3.4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C80" s="3">
         <v>2.84</v>
@@ -11364,10 +11361,10 @@
     </row>
     <row r="81" spans="1:6">
       <c r="A81" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C81" s="3">
         <v>3</v>
@@ -11384,7 +11381,7 @@
     </row>
     <row r="82" spans="1:6">
       <c r="A82" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B82" s="3" t="s">
         <v>187</v>
@@ -11429,50 +11426,50 @@
     </row>
     <row r="86" spans="1:6">
       <c r="A86" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C86" s="3">
-        <v>1.39</v>
+        <v>1.78</v>
       </c>
       <c r="D86" s="3">
-        <v>1.65</v>
+        <v>2.63</v>
       </c>
       <c r="E86" s="4">
-        <v>18.7</v>
+        <v>47.8</v>
       </c>
       <c r="F86" s="4">
-        <v>18.7</v>
+        <v>38.2</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C87" s="3">
-        <v>1.78</v>
+        <v>1.39</v>
       </c>
       <c r="D87" s="3">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="E87" s="4">
-        <v>9.6</v>
+        <v>33.1</v>
       </c>
       <c r="F87" s="4">
-        <v>7.7</v>
+        <v>33.1</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C88" s="3">
         <v>10.14</v>
@@ -11489,10 +11486,10 @@
     </row>
     <row r="89" spans="1:6">
       <c r="A89" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C89" s="3">
         <v>2.02</v>
@@ -11509,10 +11506,10 @@
     </row>
     <row r="90" spans="1:6">
       <c r="A90" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C90" s="3">
         <v>2.09</v>
@@ -11554,10 +11551,10 @@
     </row>
     <row r="94" spans="1:6">
       <c r="A94" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C94" s="3">
         <v>12</v>
@@ -11574,10 +11571,10 @@
     </row>
     <row r="95" spans="1:6">
       <c r="A95" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C95" s="3">
         <v>3.48</v>
@@ -11594,10 +11591,10 @@
     </row>
     <row r="96" spans="1:6">
       <c r="A96" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C96" s="3">
         <v>9.779999999999999</v>
@@ -11614,7 +11611,7 @@
     </row>
     <row r="97" spans="1:6">
       <c r="A97" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B97" s="3" t="s">
         <v>187</v>
@@ -11634,10 +11631,10 @@
     </row>
     <row r="98" spans="1:6">
       <c r="A98" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B98" s="3" t="s">
         <v>186</v>
-      </c>
-      <c r="B98" s="3" t="s">
-        <v>188</v>
       </c>
       <c r="C98" s="3">
         <v>1.54</v>
@@ -11679,7 +11676,7 @@
     </row>
     <row r="102" spans="1:6">
       <c r="A102" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B102" s="3" t="s">
         <v>204</v>
@@ -11688,21 +11685,21 @@
         <v>2.24</v>
       </c>
       <c r="D102" s="3">
-        <v>3.2</v>
+        <v>4.25</v>
       </c>
       <c r="E102" s="4">
-        <v>42.9</v>
+        <v>89.7</v>
       </c>
       <c r="F102" s="4">
-        <v>38.6</v>
+        <v>80.7</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C103" s="3">
         <v>71</v>
@@ -11719,7 +11716,7 @@
     </row>
     <row r="104" spans="1:6">
       <c r="A104" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B104" s="3" t="s">
         <v>203</v>
@@ -11739,10 +11736,10 @@
     </row>
     <row r="105" spans="1:6">
       <c r="A105" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C105" s="3">
         <v>4.18</v>
@@ -11759,10 +11756,10 @@
     </row>
     <row r="106" spans="1:6">
       <c r="A106" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C106" s="3">
         <v>7.64</v>
@@ -11804,10 +11801,10 @@
     </row>
     <row r="110" spans="1:6">
       <c r="A110" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C110" s="3">
         <v>10.43</v>
@@ -11824,10 +11821,10 @@
     </row>
     <row r="111" spans="1:6">
       <c r="A111" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B111" s="3" t="s">
         <v>186</v>
-      </c>
-      <c r="B111" s="3" t="s">
-        <v>188</v>
       </c>
       <c r="C111" s="3">
         <v>2.96</v>
@@ -11844,10 +11841,10 @@
     </row>
     <row r="112" spans="1:6">
       <c r="A112" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C112" s="3">
         <v>84</v>
@@ -11864,10 +11861,10 @@
     </row>
     <row r="113" spans="1:6">
       <c r="A113" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C113" s="3">
         <v>36.5</v>
@@ -11884,10 +11881,10 @@
     </row>
     <row r="114" spans="1:6">
       <c r="A114" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C114" s="3">
         <v>88</v>
@@ -11917,7 +11914,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -11955,10 +11952,10 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>209</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>210</v>
       </c>
       <c r="C6" s="3">
         <v>1.85</v>
@@ -11975,10 +11972,10 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C7" s="3">
         <v>1.5</v>
@@ -11995,10 +11992,10 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C8" s="3">
         <v>1.5</v>
@@ -12015,10 +12012,10 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C9" s="3">
         <v>1.19</v>
@@ -12035,10 +12032,10 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C10" s="3">
         <v>3.95</v>
@@ -12080,10 +12077,10 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>215</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>216</v>
       </c>
       <c r="C14" s="3">
         <v>2.2</v>
@@ -12100,10 +12097,10 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C15" s="3">
         <v>3.9</v>
@@ -12120,10 +12117,10 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C16" s="3">
         <v>1.19</v>
@@ -12140,10 +12137,10 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C17" s="3">
         <v>1.49</v>
@@ -12160,10 +12157,10 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C18" s="3">
         <v>2.47</v>
@@ -12205,10 +12202,10 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>209</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>210</v>
       </c>
       <c r="C22" s="3">
         <v>4.8</v>
@@ -12225,10 +12222,10 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C23" s="3">
         <v>1.92</v>
@@ -12245,10 +12242,10 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C24" s="3">
         <v>5</v>
@@ -12265,10 +12262,10 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C25" s="3">
         <v>2.86</v>
@@ -12285,10 +12282,10 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C26" s="3">
         <v>3.05</v>
@@ -12330,10 +12327,10 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C30" s="3">
         <v>9.17</v>
@@ -12350,10 +12347,10 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C31" s="3">
         <v>11</v>
@@ -12370,10 +12367,10 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C32" s="3">
         <v>1.79</v>
@@ -12390,10 +12387,10 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C33" s="3">
         <v>2.24</v>
@@ -12410,10 +12407,10 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C34" s="3">
         <v>2.29</v>
@@ -12455,10 +12452,10 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C38" s="3">
         <v>9</v>
@@ -12475,10 +12472,10 @@
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C39" s="3">
         <v>4.17</v>
@@ -12495,10 +12492,10 @@
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C40" s="3">
         <v>9</v>
@@ -12515,10 +12512,10 @@
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C41" s="3">
         <v>41.5</v>
@@ -12535,10 +12532,10 @@
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="B42" s="3" t="s">
         <v>209</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>210</v>
       </c>
       <c r="C42" s="3">
         <v>48</v>
@@ -12580,30 +12577,30 @@
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C46" s="3">
         <v>3.56</v>
       </c>
       <c r="D46" s="3">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="E46" s="4">
-        <v>6.7</v>
+        <v>12.4</v>
       </c>
       <c r="F46" s="4">
-        <v>6.7</v>
+        <v>12.4</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C47" s="3">
         <v>8</v>
@@ -12620,10 +12617,10 @@
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C48" s="3">
         <v>3.58</v>
@@ -12640,10 +12637,10 @@
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C49" s="3">
         <v>3</v>
@@ -12660,10 +12657,10 @@
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C50" s="3">
         <v>28.33</v>
@@ -12705,10 +12702,10 @@
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C54" s="3">
         <v>3.95</v>
@@ -12725,10 +12722,10 @@
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C55" s="3">
         <v>1.23</v>
@@ -12745,10 +12742,10 @@
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C56" s="3">
         <v>1.76</v>
@@ -12765,10 +12762,10 @@
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C57" s="3">
         <v>1.27</v>
@@ -12785,10 +12782,10 @@
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C58" s="3">
         <v>2.39</v>
@@ -12830,10 +12827,10 @@
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C62" s="3">
         <v>2.83</v>
@@ -12850,30 +12847,30 @@
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C63" s="3">
         <v>1.61</v>
       </c>
       <c r="D63" s="3">
-        <v>1.7</v>
+        <v>1.86</v>
       </c>
       <c r="E63" s="4">
-        <v>5.6</v>
+        <v>15.5</v>
       </c>
       <c r="F63" s="4">
-        <v>5.6</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C64" s="3">
         <v>1.16</v>
@@ -12890,10 +12887,10 @@
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C65" s="3">
         <v>1.3</v>
@@ -12910,10 +12907,10 @@
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C66" s="3">
         <v>1.27</v>
@@ -12955,10 +12952,10 @@
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C70" s="3">
         <v>2.55</v>
@@ -12975,70 +12972,70 @@
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="C71" s="3">
-        <v>3.7</v>
+        <v>1.23</v>
       </c>
       <c r="D71" s="3">
-        <v>4.2</v>
+        <v>1.52</v>
       </c>
       <c r="E71" s="4">
-        <v>13.5</v>
+        <v>23.6</v>
       </c>
       <c r="F71" s="4">
-        <v>10.8</v>
+        <v>21.2</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>214</v>
+        <v>231</v>
       </c>
       <c r="C72" s="3">
-        <v>1.06</v>
+        <v>3.7</v>
       </c>
       <c r="D72" s="3">
-        <v>1.16</v>
+        <v>4.2</v>
       </c>
       <c r="E72" s="4">
-        <v>9.4</v>
+        <v>13.5</v>
       </c>
       <c r="F72" s="4">
-        <v>9.4</v>
+        <v>10.8</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>239</v>
+        <v>213</v>
       </c>
       <c r="C73" s="3">
-        <v>1.23</v>
+        <v>1.06</v>
       </c>
       <c r="D73" s="3">
-        <v>1.32</v>
+        <v>1.16</v>
       </c>
       <c r="E73" s="4">
-        <v>7.3</v>
+        <v>9.4</v>
       </c>
       <c r="F73" s="4">
-        <v>6.6</v>
+        <v>9.4</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C74" s="3">
         <v>1.22</v>
@@ -13080,10 +13077,10 @@
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C78" s="3">
         <v>1.32</v>
@@ -13100,10 +13097,10 @@
     </row>
     <row r="79" spans="1:6">
       <c r="A79" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C79" s="3">
         <v>9.289999999999999</v>
@@ -13120,10 +13117,10 @@
     </row>
     <row r="80" spans="1:6">
       <c r="A80" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C80" s="3">
         <v>4.65</v>
@@ -13140,10 +13137,10 @@
     </row>
     <row r="81" spans="1:6">
       <c r="A81" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C81" s="3">
         <v>2.54</v>
@@ -13160,10 +13157,10 @@
     </row>
     <row r="82" spans="1:6">
       <c r="A82" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C82" s="3">
         <v>2.3</v>
@@ -13205,10 +13202,10 @@
     </row>
     <row r="86" spans="1:6">
       <c r="A86" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C86" s="3">
         <v>12.33</v>
@@ -13225,70 +13222,70 @@
     </row>
     <row r="87" spans="1:6">
       <c r="A87" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="C87" s="3">
-        <v>12.33</v>
+        <v>2.14</v>
       </c>
       <c r="D87" s="3">
-        <v>18</v>
+        <v>3.45</v>
       </c>
       <c r="E87" s="4">
-        <v>46</v>
+        <v>61.2</v>
       </c>
       <c r="F87" s="4">
-        <v>36.8</v>
+        <v>55.1</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>214</v>
+        <v>231</v>
       </c>
       <c r="C88" s="3">
-        <v>1.34</v>
+        <v>12.33</v>
       </c>
       <c r="D88" s="3">
-        <v>1.75</v>
+        <v>18</v>
       </c>
       <c r="E88" s="4">
-        <v>30.6</v>
+        <v>46</v>
       </c>
       <c r="F88" s="4">
-        <v>27.5</v>
+        <v>36.8</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>239</v>
+        <v>213</v>
       </c>
       <c r="C89" s="3">
-        <v>2.14</v>
+        <v>1.34</v>
       </c>
       <c r="D89" s="3">
-        <v>2.3</v>
+        <v>1.75</v>
       </c>
       <c r="E89" s="4">
-        <v>7.5</v>
+        <v>30.6</v>
       </c>
       <c r="F89" s="4">
-        <v>6.8</v>
+        <v>27.5</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C90" s="3">
         <v>27.5</v>
@@ -13330,10 +13327,10 @@
     </row>
     <row r="94" spans="1:6">
       <c r="A94" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C94" s="3">
         <v>5</v>
@@ -13350,10 +13347,10 @@
     </row>
     <row r="95" spans="1:6">
       <c r="A95" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C95" s="3">
         <v>4.44</v>
@@ -13370,10 +13367,10 @@
     </row>
     <row r="96" spans="1:6">
       <c r="A96" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C96" s="3">
         <v>19.75</v>
@@ -13390,10 +13387,10 @@
     </row>
     <row r="97" spans="1:6">
       <c r="A97" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C97" s="3">
         <v>4.58</v>
@@ -13410,10 +13407,10 @@
     </row>
     <row r="98" spans="1:6">
       <c r="A98" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C98" s="3">
         <v>2.15</v>
@@ -13455,10 +13452,10 @@
     </row>
     <row r="102" spans="1:6">
       <c r="A102" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C102" s="3">
         <v>12.33</v>
@@ -13475,10 +13472,10 @@
     </row>
     <row r="103" spans="1:6">
       <c r="A103" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C103" s="3">
         <v>2.68</v>
@@ -13495,10 +13492,10 @@
     </row>
     <row r="104" spans="1:6">
       <c r="A104" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C104" s="3">
         <v>6.25</v>
@@ -13515,10 +13512,10 @@
     </row>
     <row r="105" spans="1:6">
       <c r="A105" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C105" s="3">
         <v>3.35</v>
@@ -13535,10 +13532,10 @@
     </row>
     <row r="106" spans="1:6">
       <c r="A106" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C106" s="3">
         <v>20.75</v>
@@ -13580,10 +13577,10 @@
     </row>
     <row r="110" spans="1:6">
       <c r="A110" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C110" s="3">
         <v>13.75</v>
@@ -13600,10 +13597,10 @@
     </row>
     <row r="111" spans="1:6">
       <c r="A111" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C111" s="3">
         <v>16</v>
@@ -13620,10 +13617,10 @@
     </row>
     <row r="112" spans="1:6">
       <c r="A112" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C112" s="3">
         <v>42.5</v>
@@ -13640,10 +13637,10 @@
     </row>
     <row r="113" spans="1:6">
       <c r="A113" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C113" s="3">
         <v>45</v>
@@ -13660,10 +13657,10 @@
     </row>
     <row r="114" spans="1:6">
       <c r="A114" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C114" s="3">
         <v>65</v>
@@ -13693,7 +13690,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -13701,7 +13698,7 @@
         <v>45844</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -13731,10 +13728,10 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>243</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>244</v>
       </c>
       <c r="C6" s="3">
         <v>2.94</v>
@@ -13751,10 +13748,10 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C7" s="3">
         <v>3.11</v>
@@ -13771,10 +13768,10 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C8" s="3">
         <v>1.88</v>
@@ -13791,10 +13788,10 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C9" s="3">
         <v>1.15</v>
@@ -13811,10 +13808,10 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C10" s="3">
         <v>1.29</v>
@@ -13856,10 +13853,10 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>249</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>250</v>
       </c>
       <c r="C14" s="3">
         <v>2.09</v>
@@ -13876,10 +13873,10 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C15" s="3">
         <v>1.43</v>
@@ -13896,30 +13893,30 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C16" s="3">
         <v>2.58</v>
       </c>
       <c r="D16" s="3">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="E16" s="4">
-        <v>16.3</v>
+        <v>26</v>
       </c>
       <c r="F16" s="4">
-        <v>14.7</v>
+        <v>23.4</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C17" s="3">
         <v>1.29</v>
@@ -13936,10 +13933,10 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C18" s="3">
         <v>1.24</v>
@@ -13981,10 +13978,10 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>243</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>244</v>
       </c>
       <c r="C22" s="3">
         <v>8.33</v>
@@ -14001,10 +13998,10 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C23" s="3">
         <v>5.92</v>
@@ -14021,50 +14018,50 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="C24" s="3">
-        <v>2.07</v>
+        <v>2.19</v>
       </c>
       <c r="D24" s="3">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="E24" s="4">
-        <v>11.1</v>
+        <v>14.2</v>
       </c>
       <c r="F24" s="4">
-        <v>11.1</v>
+        <v>12.8</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="C25" s="3">
-        <v>2.19</v>
+        <v>2.07</v>
       </c>
       <c r="D25" s="3">
         <v>2.3</v>
       </c>
       <c r="E25" s="4">
-        <v>5</v>
+        <v>11.1</v>
       </c>
       <c r="F25" s="4">
-        <v>4.5</v>
+        <v>11.1</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C26" s="3">
         <v>2.7</v>
@@ -14106,10 +14103,10 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="B30" s="3" t="s">
         <v>249</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>250</v>
       </c>
       <c r="C30" s="3">
         <v>5.07</v>
@@ -14126,30 +14123,30 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C31" s="3">
         <v>2.05</v>
       </c>
       <c r="D31" s="3">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="E31" s="4">
-        <v>31.7</v>
+        <v>36.6</v>
       </c>
       <c r="F31" s="4">
-        <v>28.5</v>
+        <v>32.9</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C32" s="3">
         <v>2.3</v>
@@ -14166,10 +14163,10 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C33" s="3">
         <v>2.38</v>
@@ -14186,10 +14183,10 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C34" s="3">
         <v>5</v>
@@ -14231,10 +14228,10 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C38" s="3">
         <v>5.12</v>
@@ -14251,10 +14248,10 @@
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C39" s="3">
         <v>6.36</v>
@@ -14271,10 +14268,10 @@
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C40" s="3">
         <v>6.18</v>
@@ -14291,10 +14288,10 @@
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C41" s="3">
         <v>5.89</v>
@@ -14311,10 +14308,10 @@
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="B42" s="3" t="s">
         <v>243</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>244</v>
       </c>
       <c r="C42" s="3">
         <v>50</v>
@@ -14356,10 +14353,10 @@
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C46" s="3">
         <v>4.13</v>
@@ -14376,10 +14373,10 @@
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="B47" s="3" t="s">
         <v>249</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>250</v>
       </c>
       <c r="C47" s="3">
         <v>17.75</v>
@@ -14396,10 +14393,10 @@
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C48" s="3">
         <v>4.56</v>
@@ -14416,10 +14413,10 @@
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C49" s="3">
         <v>7.5</v>
@@ -14436,10 +14433,10 @@
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C50" s="3">
         <v>8.44</v>
@@ -14481,50 +14478,50 @@
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C54" s="3">
-        <v>1.56</v>
+        <v>1.26</v>
       </c>
       <c r="D54" s="3">
-        <v>1.72</v>
+        <v>1.43</v>
       </c>
       <c r="E54" s="4">
-        <v>10.3</v>
+        <v>13.5</v>
       </c>
       <c r="F54" s="4">
-        <v>9.300000000000001</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C55" s="3">
-        <v>1.26</v>
+        <v>1.56</v>
       </c>
       <c r="D55" s="3">
-        <v>1.32</v>
+        <v>1.72</v>
       </c>
       <c r="E55" s="4">
-        <v>4.8</v>
+        <v>10.3</v>
       </c>
       <c r="F55" s="4">
-        <v>4.8</v>
+        <v>9.300000000000001</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C56" s="3">
         <v>1.09</v>
@@ -14541,10 +14538,10 @@
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C57" s="3">
         <v>1.79</v>
@@ -14561,10 +14558,10 @@
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C58" s="3">
         <v>5.31</v>
@@ -14606,10 +14603,10 @@
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C62" s="3">
         <v>2.31</v>
@@ -14626,10 +14623,10 @@
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C63" s="3">
         <v>1.57</v>
@@ -14646,10 +14643,10 @@
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C64" s="3">
         <v>2.67</v>
@@ -14666,10 +14663,10 @@
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C65" s="3">
         <v>1.24</v>
@@ -14686,10 +14683,10 @@
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C66" s="3">
         <v>1.67</v>
@@ -14731,90 +14728,90 @@
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="C70" s="3">
-        <v>4.26</v>
+        <v>1.25</v>
       </c>
       <c r="D70" s="3">
-        <v>4.8</v>
+        <v>1.61</v>
       </c>
       <c r="E70" s="4">
-        <v>12.7</v>
+        <v>28.8</v>
       </c>
       <c r="F70" s="4">
-        <v>10.2</v>
+        <v>34.6</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C71" s="3">
-        <v>1.53</v>
+        <v>2.72</v>
       </c>
       <c r="D71" s="3">
-        <v>1.65</v>
+        <v>3.16</v>
       </c>
       <c r="E71" s="4">
-        <v>7.8</v>
+        <v>16.2</v>
       </c>
       <c r="F71" s="4">
-        <v>7</v>
+        <v>16.2</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="C72" s="3">
-        <v>1.25</v>
+        <v>4.26</v>
       </c>
       <c r="D72" s="3">
-        <v>1.26</v>
+        <v>4.8</v>
       </c>
       <c r="E72" s="4">
-        <v>0.8</v>
+        <v>12.7</v>
       </c>
       <c r="F72" s="4">
-        <v>1</v>
+        <v>10.2</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B73" s="3" t="s">
         <v>260</v>
       </c>
       <c r="C73" s="3">
-        <v>2.72</v>
+        <v>1.53</v>
       </c>
       <c r="D73" s="3">
-        <v>2.7</v>
+        <v>1.65</v>
       </c>
       <c r="E73" s="4">
-        <v>-0.7</v>
+        <v>7.8</v>
       </c>
       <c r="F73" s="4">
-        <v>-0.7</v>
+        <v>7</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C74" s="3">
         <v>1.4</v>
@@ -14856,10 +14853,10 @@
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C78" s="3">
         <v>6.09</v>
@@ -14876,10 +14873,10 @@
     </row>
     <row r="79" spans="1:6">
       <c r="A79" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C79" s="3">
         <v>3.67</v>
@@ -14896,10 +14893,10 @@
     </row>
     <row r="80" spans="1:6">
       <c r="A80" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C80" s="3">
         <v>3.57</v>
@@ -14916,10 +14913,10 @@
     </row>
     <row r="81" spans="1:6">
       <c r="A81" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C81" s="3">
         <v>1.52</v>
@@ -14936,10 +14933,10 @@
     </row>
     <row r="82" spans="1:6">
       <c r="A82" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C82" s="3">
         <v>2.48</v>
@@ -14981,90 +14978,90 @@
     </row>
     <row r="86" spans="1:6">
       <c r="A86" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="C86" s="3">
-        <v>20.25</v>
+        <v>2.43</v>
       </c>
       <c r="D86" s="3">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="E86" s="4">
-        <v>3.7</v>
+        <v>64.59999999999999</v>
       </c>
       <c r="F86" s="4">
-        <v>3</v>
+        <v>51.7</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C87" s="3">
-        <v>3.63</v>
+        <v>20.25</v>
       </c>
       <c r="D87" s="3">
-        <v>3.5</v>
+        <v>21</v>
       </c>
       <c r="E87" s="4">
-        <v>-3.6</v>
+        <v>3.7</v>
       </c>
       <c r="F87" s="4">
-        <v>-3.2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>245</v>
+        <v>260</v>
       </c>
       <c r="C88" s="3">
-        <v>2.55</v>
+        <v>3.63</v>
       </c>
       <c r="D88" s="3">
-        <v>2.3</v>
+        <v>3.5</v>
       </c>
       <c r="E88" s="4">
-        <v>-9.800000000000001</v>
+        <v>-3.6</v>
       </c>
       <c r="F88" s="4">
-        <v>-9.800000000000001</v>
+        <v>-3.2</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>267</v>
+        <v>244</v>
       </c>
       <c r="C89" s="3">
-        <v>2.43</v>
+        <v>2.55</v>
       </c>
       <c r="D89" s="3">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="E89" s="4">
-        <v>-13.6</v>
+        <v>-9.800000000000001</v>
       </c>
       <c r="F89" s="4">
-        <v>-10.9</v>
+        <v>-9.800000000000001</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C90" s="3">
         <v>2.08</v>
@@ -15106,10 +15103,10 @@
     </row>
     <row r="94" spans="1:6">
       <c r="A94" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C94" s="3">
         <v>22.33</v>
@@ -15126,30 +15123,30 @@
     </row>
     <row r="95" spans="1:6">
       <c r="A95" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C95" s="3">
         <v>1.24</v>
       </c>
       <c r="D95" s="3">
-        <v>1.25</v>
+        <v>1.37</v>
       </c>
       <c r="E95" s="4">
-        <v>0.8</v>
+        <v>10.5</v>
       </c>
       <c r="F95" s="4">
-        <v>0.7</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C96" s="3">
         <v>1.2</v>
@@ -15166,10 +15163,10 @@
     </row>
     <row r="97" spans="1:6">
       <c r="A97" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C97" s="3">
         <v>16.67</v>
@@ -15186,10 +15183,10 @@
     </row>
     <row r="98" spans="1:6">
       <c r="A98" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C98" s="3">
         <v>3.15</v>
@@ -15231,10 +15228,10 @@
     </row>
     <row r="102" spans="1:6">
       <c r="A102" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C102" s="3">
         <v>17.4</v>
@@ -15251,10 +15248,10 @@
     </row>
     <row r="103" spans="1:6">
       <c r="A103" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C103" s="3">
         <v>4.53</v>
@@ -15271,10 +15268,10 @@
     </row>
     <row r="104" spans="1:6">
       <c r="A104" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C104" s="3">
         <v>14.83</v>
@@ -15291,10 +15288,10 @@
     </row>
     <row r="105" spans="1:6">
       <c r="A105" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C105" s="3">
         <v>9.44</v>
@@ -15311,10 +15308,10 @@
     </row>
     <row r="106" spans="1:6">
       <c r="A106" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C106" s="3">
         <v>87</v>
@@ -15356,10 +15353,10 @@
     </row>
     <row r="110" spans="1:6">
       <c r="A110" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C110" s="3">
         <v>33.5</v>
@@ -15376,10 +15373,10 @@
     </row>
     <row r="111" spans="1:6">
       <c r="A111" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C111" s="3">
         <v>5.67</v>
@@ -15396,50 +15393,50 @@
     </row>
     <row r="112" spans="1:6">
       <c r="A112" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>254</v>
+        <v>268</v>
       </c>
       <c r="C112" s="3">
-        <v>20.5</v>
+        <v>2.41</v>
       </c>
       <c r="D112" s="3">
-        <v>21</v>
+        <v>2.52</v>
       </c>
       <c r="E112" s="4">
-        <v>2.4</v>
+        <v>4.6</v>
       </c>
       <c r="F112" s="4">
-        <v>1.9</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>269</v>
+        <v>253</v>
       </c>
       <c r="C113" s="3">
-        <v>2.41</v>
+        <v>20.5</v>
       </c>
       <c r="D113" s="3">
-        <v>1.95</v>
+        <v>21</v>
       </c>
       <c r="E113" s="4">
-        <v>-19.1</v>
+        <v>2.4</v>
       </c>
       <c r="F113" s="4">
-        <v>-17.2</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C114" s="3">
         <v>2.18</v>
@@ -15469,7 +15466,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -15477,7 +15474,7 @@
         <v>45844</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -15507,10 +15504,10 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>272</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>273</v>
       </c>
       <c r="C6" s="3">
         <v>1.19</v>
@@ -15527,10 +15524,10 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C7" s="3">
         <v>1.09</v>
@@ -15547,10 +15544,10 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C8" s="3">
         <v>2.1</v>
@@ -15567,10 +15564,10 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C9" s="3">
         <v>1.31</v>
@@ -15587,10 +15584,10 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C10" s="3">
         <v>3</v>
@@ -15635,7 +15632,7 @@
         <v>47</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C14" s="3">
         <v>2.66</v>
@@ -15655,19 +15652,19 @@
         <v>47</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C15" s="3">
-        <v>2.67</v>
+        <v>3.16</v>
       </c>
       <c r="D15" s="3">
-        <v>3.2</v>
+        <v>3.9</v>
       </c>
       <c r="E15" s="4">
-        <v>19.9</v>
+        <v>23.4</v>
       </c>
       <c r="F15" s="4">
-        <v>19.9</v>
+        <v>23.4</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -15675,19 +15672,19 @@
         <v>47</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C16" s="3">
-        <v>1.16</v>
+        <v>2.67</v>
       </c>
       <c r="D16" s="3">
-        <v>1.22</v>
+        <v>3.2</v>
       </c>
       <c r="E16" s="4">
-        <v>5.2</v>
+        <v>19.9</v>
       </c>
       <c r="F16" s="4">
-        <v>5.2</v>
+        <v>19.9</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -15695,19 +15692,19 @@
         <v>47</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C17" s="3">
-        <v>3.16</v>
+        <v>1.16</v>
       </c>
       <c r="D17" s="3">
-        <v>3.3</v>
+        <v>1.22</v>
       </c>
       <c r="E17" s="4">
-        <v>4.4</v>
+        <v>5.2</v>
       </c>
       <c r="F17" s="4">
-        <v>4.4</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -15715,7 +15712,7 @@
         <v>47</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C18" s="3">
         <v>1.18</v>
@@ -15757,10 +15754,10 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>272</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>273</v>
       </c>
       <c r="C22" s="3">
         <v>2</v>
@@ -15777,10 +15774,10 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C23" s="3">
         <v>1.5</v>
@@ -15797,10 +15794,10 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C24" s="3">
         <v>7.33</v>
@@ -15817,10 +15814,10 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C25" s="3">
         <v>1.7</v>
@@ -15837,10 +15834,10 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C26" s="3">
         <v>10.8</v>
@@ -15885,7 +15882,7 @@
         <v>47</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C30" s="3">
         <v>7</v>
@@ -15925,19 +15922,19 @@
         <v>47</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C32" s="3">
         <v>1.8</v>
       </c>
       <c r="D32" s="3">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="E32" s="4">
-        <v>8.300000000000001</v>
+        <v>11.1</v>
       </c>
       <c r="F32" s="4">
-        <v>8.300000000000001</v>
+        <v>11.1</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -15965,7 +15962,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C34" s="3">
         <v>8</v>
@@ -16007,10 +16004,10 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C38" s="3">
         <v>18</v>
@@ -16027,10 +16024,10 @@
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C39" s="3">
         <v>2.88</v>
@@ -16047,10 +16044,10 @@
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="B40" s="3" t="s">
         <v>272</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>273</v>
       </c>
       <c r="C40" s="3">
         <v>4.86</v>
@@ -16067,10 +16064,10 @@
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C41" s="3">
         <v>3.26</v>
@@ -16087,10 +16084,10 @@
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C42" s="3">
         <v>5.67</v>
@@ -16135,7 +16132,7 @@
         <v>47</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C46" s="3">
         <v>14</v>
@@ -16155,7 +16152,7 @@
         <v>47</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C47" s="3">
         <v>7.25</v>
@@ -16195,7 +16192,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C49" s="3">
         <v>9.289999999999999</v>
@@ -16215,19 +16212,19 @@
         <v>47</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C50" s="3">
         <v>4.39</v>
       </c>
       <c r="D50" s="3">
-        <v>4</v>
+        <v>4.25</v>
       </c>
       <c r="E50" s="4">
-        <v>-8.9</v>
+        <v>-3.2</v>
       </c>
       <c r="F50" s="4">
-        <v>-9.800000000000001</v>
+        <v>-3.5</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -16257,70 +16254,70 @@
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C54" s="3">
-        <v>1.15</v>
+        <v>1.48</v>
       </c>
       <c r="D54" s="3">
-        <v>1.18</v>
+        <v>1.87</v>
       </c>
       <c r="E54" s="4">
-        <v>2.6</v>
+        <v>26.4</v>
       </c>
       <c r="F54" s="4">
-        <v>2.6</v>
+        <v>23.8</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C55" s="3">
         <v>1.3</v>
       </c>
       <c r="D55" s="3">
-        <v>1.3</v>
+        <v>1.44</v>
       </c>
       <c r="E55" s="4">
-        <v>0</v>
+        <v>10.8</v>
       </c>
       <c r="F55" s="4">
-        <v>0</v>
+        <v>10.8</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C56" s="3">
-        <v>1.48</v>
+        <v>1.15</v>
       </c>
       <c r="D56" s="3">
-        <v>1.48</v>
+        <v>1.18</v>
       </c>
       <c r="E56" s="4">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="F56" s="4">
-        <v>0</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C57" s="3">
         <v>1.54</v>
@@ -16337,10 +16334,10 @@
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C58" s="3">
         <v>3.13</v>
@@ -16385,7 +16382,7 @@
         <v>47</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C62" s="3">
         <v>1.78</v>
@@ -16405,7 +16402,7 @@
         <v>47</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C63" s="3">
         <v>1.18</v>
@@ -16425,19 +16422,19 @@
         <v>47</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C64" s="3">
         <v>1.36</v>
       </c>
       <c r="D64" s="3">
-        <v>1.3</v>
+        <v>1.38</v>
       </c>
       <c r="E64" s="4">
-        <v>-4.4</v>
+        <v>1.5</v>
       </c>
       <c r="F64" s="4">
-        <v>-4</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -16445,7 +16442,7 @@
         <v>47</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C65" s="3">
         <v>1.27</v>
@@ -16507,50 +16504,50 @@
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C70" s="3">
         <v>2.58</v>
       </c>
       <c r="D70" s="3">
-        <v>3.5</v>
+        <v>5.2</v>
       </c>
       <c r="E70" s="4">
-        <v>35.7</v>
+        <v>101.6</v>
       </c>
       <c r="F70" s="4">
-        <v>28.6</v>
+        <v>81.3</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C71" s="3">
         <v>2.18</v>
       </c>
       <c r="D71" s="3">
-        <v>2.6</v>
+        <v>3.26</v>
       </c>
       <c r="E71" s="4">
-        <v>19.3</v>
+        <v>49.5</v>
       </c>
       <c r="F71" s="4">
-        <v>15.4</v>
+        <v>39.6</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C72" s="3">
         <v>1.04</v>
@@ -16567,10 +16564,10 @@
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C73" s="3">
         <v>2.03</v>
@@ -16587,10 +16584,10 @@
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C74" s="3">
         <v>1.17</v>
@@ -16635,7 +16632,7 @@
         <v>47</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C78" s="3">
         <v>5.12</v>
@@ -16655,19 +16652,19 @@
         <v>47</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>278</v>
+        <v>293</v>
       </c>
       <c r="C79" s="3">
-        <v>1.81</v>
+        <v>2.53</v>
       </c>
       <c r="D79" s="3">
-        <v>2.25</v>
+        <v>3.32</v>
       </c>
       <c r="E79" s="4">
-        <v>24.3</v>
+        <v>31.2</v>
       </c>
       <c r="F79" s="4">
-        <v>26.7</v>
+        <v>28.1</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -16675,19 +16672,19 @@
         <v>47</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="C80" s="3">
-        <v>1.34</v>
+        <v>1.81</v>
       </c>
       <c r="D80" s="3">
-        <v>1.48</v>
+        <v>2.25</v>
       </c>
       <c r="E80" s="4">
-        <v>10.4</v>
+        <v>24.3</v>
       </c>
       <c r="F80" s="4">
-        <v>9.4</v>
+        <v>26.7</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -16695,19 +16692,19 @@
         <v>47</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>297</v>
+        <v>278</v>
       </c>
       <c r="C81" s="3">
-        <v>1.04</v>
+        <v>1.34</v>
       </c>
       <c r="D81" s="3">
-        <v>1.09</v>
+        <v>1.65</v>
       </c>
       <c r="E81" s="4">
-        <v>4.8</v>
+        <v>23.1</v>
       </c>
       <c r="F81" s="4">
-        <v>4.8</v>
+        <v>20.8</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -16715,19 +16712,19 @@
         <v>47</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="C82" s="3">
-        <v>2.53</v>
+        <v>1.04</v>
       </c>
       <c r="D82" s="3">
-        <v>2.6</v>
+        <v>1.13</v>
       </c>
       <c r="E82" s="4">
-        <v>2.8</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="F82" s="4">
-        <v>2.5</v>
+        <v>8.699999999999999</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -16757,10 +16754,10 @@
     </row>
     <row r="86" spans="1:6">
       <c r="A86" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C86" s="3">
         <v>3.95</v>
@@ -16777,10 +16774,10 @@
     </row>
     <row r="87" spans="1:6">
       <c r="A87" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C87" s="3">
         <v>6.89</v>
@@ -16797,30 +16794,30 @@
     </row>
     <row r="88" spans="1:6">
       <c r="A88" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C88" s="3">
         <v>1.34</v>
       </c>
       <c r="D88" s="3">
-        <v>1.62</v>
+        <v>1.87</v>
       </c>
       <c r="E88" s="4">
-        <v>20.9</v>
+        <v>39.6</v>
       </c>
       <c r="F88" s="4">
-        <v>20.9</v>
+        <v>39.6</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C89" s="3">
         <v>1.82</v>
@@ -16837,10 +16834,10 @@
     </row>
     <row r="90" spans="1:6">
       <c r="A90" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C90" s="3">
         <v>6.3</v>
@@ -16885,19 +16882,19 @@
         <v>47</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C94" s="3">
         <v>2.32</v>
       </c>
       <c r="D94" s="3">
-        <v>2.9</v>
+        <v>4.25</v>
       </c>
       <c r="E94" s="4">
-        <v>25</v>
+        <v>83.2</v>
       </c>
       <c r="F94" s="4">
-        <v>25</v>
+        <v>83.2</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -16905,19 +16902,19 @@
         <v>47</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C95" s="3">
         <v>1.4</v>
       </c>
       <c r="D95" s="3">
-        <v>1.65</v>
+        <v>1.93</v>
       </c>
       <c r="E95" s="4">
-        <v>17.9</v>
+        <v>37.9</v>
       </c>
       <c r="F95" s="4">
-        <v>17.9</v>
+        <v>37.9</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -16925,7 +16922,7 @@
         <v>47</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C96" s="3">
         <v>5.31</v>
@@ -16945,19 +16942,19 @@
         <v>47</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C97" s="3">
         <v>1.54</v>
       </c>
       <c r="D97" s="3">
-        <v>1.55</v>
+        <v>1.68</v>
       </c>
       <c r="E97" s="4">
-        <v>0.6</v>
+        <v>9.1</v>
       </c>
       <c r="F97" s="4">
-        <v>0.6</v>
+        <v>9.1</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -16965,7 +16962,7 @@
         <v>47</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C98" s="3">
         <v>9.5</v>
@@ -17007,10 +17004,10 @@
     </row>
     <row r="102" spans="1:6">
       <c r="A102" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C102" s="3">
         <v>11.86</v>
@@ -17027,50 +17024,50 @@
     </row>
     <row r="103" spans="1:6">
       <c r="A103" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="C103" s="3">
-        <v>31</v>
+        <v>2.39</v>
       </c>
       <c r="D103" s="3">
-        <v>51</v>
+        <v>4.5</v>
       </c>
       <c r="E103" s="4">
-        <v>64.5</v>
+        <v>88.3</v>
       </c>
       <c r="F103" s="4">
-        <v>51.6</v>
+        <v>70.59999999999999</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="C104" s="3">
-        <v>2.39</v>
+        <v>31</v>
       </c>
       <c r="D104" s="3">
-        <v>3.2</v>
+        <v>51</v>
       </c>
       <c r="E104" s="4">
-        <v>33.9</v>
+        <v>64.5</v>
       </c>
       <c r="F104" s="4">
-        <v>27.1</v>
+        <v>51.6</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C105" s="3">
         <v>21</v>
@@ -17087,10 +17084,10 @@
     </row>
     <row r="106" spans="1:6">
       <c r="A106" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C106" s="3">
         <v>4.82</v>
@@ -17135,7 +17132,7 @@
         <v>47</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C110" s="3">
         <v>12.14</v>
@@ -17155,19 +17152,19 @@
         <v>47</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>281</v>
+        <v>297</v>
       </c>
       <c r="C111" s="3">
-        <v>5.27</v>
+        <v>2.28</v>
       </c>
       <c r="D111" s="3">
-        <v>8</v>
+        <v>4.6</v>
       </c>
       <c r="E111" s="4">
-        <v>51.8</v>
+        <v>101.8</v>
       </c>
       <c r="F111" s="4">
-        <v>41.4</v>
+        <v>101.8</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -17175,19 +17172,19 @@
         <v>47</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>298</v>
+        <v>278</v>
       </c>
       <c r="C112" s="3">
-        <v>2.28</v>
+        <v>5.27</v>
       </c>
       <c r="D112" s="3">
-        <v>3.2</v>
+        <v>8</v>
       </c>
       <c r="E112" s="4">
-        <v>40.4</v>
+        <v>51.8</v>
       </c>
       <c r="F112" s="4">
-        <v>40.4</v>
+        <v>41.4</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -17195,19 +17192,19 @@
         <v>47</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C113" s="3">
-        <v>15.25</v>
+        <v>3.5</v>
       </c>
       <c r="D113" s="3">
-        <v>13</v>
+        <v>3.7</v>
       </c>
       <c r="E113" s="4">
-        <v>-14.8</v>
+        <v>5.7</v>
       </c>
       <c r="F113" s="4">
-        <v>-13.3</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -17215,19 +17212,19 @@
         <v>47</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C114" s="3">
-        <v>3.5</v>
+        <v>15.25</v>
       </c>
       <c r="D114" s="3">
-        <v>2.9</v>
+        <v>13</v>
       </c>
       <c r="E114" s="4">
-        <v>-17.1</v>
+        <v>-14.8</v>
       </c>
       <c r="F114" s="4">
-        <v>-15.4</v>
+        <v>-13.3</v>
       </c>
     </row>
   </sheetData>

--- a/Export_simple.xlsx
+++ b/Export_simple.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Hawthorn VS Carlton" sheetId="1" r:id="rId1"/>
     <sheet name="Essendon VS Western Bulldogs" sheetId="2" r:id="rId2"/>
     <sheet name="Greater Western Sydney VS Sydne" sheetId="3" r:id="rId3"/>
-    <sheet name="Gold Coast VS Brisbane" sheetId="4" r:id="rId4"/>
+    <sheet name="Gold Coast VS Brisbane Lions" sheetId="4" r:id="rId4"/>
     <sheet name="Fremantle VS West Coast" sheetId="5" r:id="rId5"/>
     <sheet name="North Melbourne VS Geelong" sheetId="6" r:id="rId6"/>
     <sheet name="Adelaide VS Port Adelaide" sheetId="7" r:id="rId7"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2088" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2018" uniqueCount="277">
   <si>
     <t>Hawthorn VS Carlton</t>
   </si>
@@ -267,6 +267,9 @@
     <t>Archie Roberts</t>
   </si>
   <si>
+    <t>Matthew Kennedy</t>
+  </si>
+  <si>
     <t>Bailey Dale</t>
   </si>
   <si>
@@ -333,12 +336,12 @@
     <t>Jesse Hogan</t>
   </si>
   <si>
+    <t>Jake Lloyd</t>
+  </si>
+  <si>
     <t>James Jordon</t>
   </si>
   <si>
-    <t>Jake Lloyd</t>
-  </si>
-  <si>
     <t>Hayden McLean</t>
   </si>
   <si>
@@ -348,6 +351,9 @@
     <t>Braeden Campbell</t>
   </si>
   <si>
+    <t>Connor Idun</t>
+  </si>
+  <si>
     <t>Lachie Whitfield</t>
   </si>
   <si>
@@ -357,54 +363,12 @@
     <t>Matt Roberts</t>
   </si>
   <si>
-    <t>Gold Coast VS Brisbane</t>
+    <t>Gold Coast VS Brisbane Lions</t>
   </si>
   <si>
     <t>Gold Coast</t>
   </si>
   <si>
-    <t>Joel Jeffrey</t>
-  </si>
-  <si>
-    <t>Noah Anderson</t>
-  </si>
-  <si>
-    <t>Ben Ainsworth</t>
-  </si>
-  <si>
-    <t>Ethan Read</t>
-  </si>
-  <si>
-    <t>Ben King</t>
-  </si>
-  <si>
-    <t>Jed Walter</t>
-  </si>
-  <si>
-    <t>Sam Clohesy</t>
-  </si>
-  <si>
-    <t>Mac Andrew</t>
-  </si>
-  <si>
-    <t>Ben Long</t>
-  </si>
-  <si>
-    <t>Wil Powell</t>
-  </si>
-  <si>
-    <t>Lachie Weller</t>
-  </si>
-  <si>
-    <t>Bodhi Uwland</t>
-  </si>
-  <si>
-    <t>Sam Flanders</t>
-  </si>
-  <si>
-    <t>Matt Rowell</t>
-  </si>
-  <si>
     <t>Fremantle VS West Coast</t>
   </si>
   <si>
@@ -516,12 +480,12 @@
     <t>Luke Davies-Uniacke</t>
   </si>
   <si>
+    <t>Jacob Konstanty</t>
+  </si>
+  <si>
     <t>Jack Darling</t>
   </si>
   <si>
-    <t>Jacob Konstanty</t>
-  </si>
-  <si>
     <t>George Wardlaw</t>
   </si>
   <si>
@@ -798,6 +762,9 @@
     <t>Scott Pendlebury</t>
   </si>
   <si>
+    <t>Sam Banks</t>
+  </si>
+  <si>
     <t>Nick Daicos</t>
   </si>
   <si>
@@ -858,10 +825,10 @@
     <t>Liam Henry</t>
   </si>
   <si>
+    <t>Rowan Marshall</t>
+  </si>
+  <si>
     <t>Callum Wilkie</t>
-  </si>
-  <si>
-    <t>Rowan Marshall</t>
   </si>
   <si>
     <t>Max Gawn</t>
@@ -2292,13 +2259,13 @@
         <v>1.3</v>
       </c>
       <c r="D70" s="3">
-        <v>1.87</v>
+        <v>2.21</v>
       </c>
       <c r="E70" s="4">
-        <v>43.8</v>
+        <v>70</v>
       </c>
       <c r="F70" s="4">
-        <v>39.4</v>
+        <v>63</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2437,13 +2404,13 @@
         <v>1.24</v>
       </c>
       <c r="D79" s="3">
-        <v>1.36</v>
+        <v>1.42</v>
       </c>
       <c r="E79" s="4">
-        <v>9.699999999999999</v>
+        <v>14.5</v>
       </c>
       <c r="F79" s="4">
-        <v>9.699999999999999</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2667,13 +2634,13 @@
         <v>1.61</v>
       </c>
       <c r="D94" s="3">
-        <v>2.5</v>
+        <v>2.89</v>
       </c>
       <c r="E94" s="4">
-        <v>55.3</v>
+        <v>79.5</v>
       </c>
       <c r="F94" s="4">
-        <v>49.8</v>
+        <v>71.5</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2727,13 +2694,13 @@
         <v>1.61</v>
       </c>
       <c r="D97" s="3">
-        <v>1.55</v>
+        <v>1.87</v>
       </c>
       <c r="E97" s="4">
-        <v>-3.7</v>
+        <v>16.1</v>
       </c>
       <c r="F97" s="4">
-        <v>-3.3</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -4017,19 +3984,19 @@
         <v>56</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C66" s="3">
-        <v>1.31</v>
+        <v>1.89</v>
       </c>
       <c r="D66" s="3">
-        <v>1.13</v>
+        <v>1.71</v>
       </c>
       <c r="E66" s="4">
-        <v>-13.7</v>
+        <v>-9.5</v>
       </c>
       <c r="F66" s="4">
-        <v>-12.3</v>
+        <v>-9.5</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -4338,13 +4305,13 @@
         <v>1.91</v>
       </c>
       <c r="D87" s="3">
-        <v>1.95</v>
+        <v>2.13</v>
       </c>
       <c r="E87" s="4">
-        <v>2.1</v>
+        <v>11.5</v>
       </c>
       <c r="F87" s="4">
-        <v>2.1</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -4358,13 +4325,13 @@
         <v>1.31</v>
       </c>
       <c r="D88" s="3">
-        <v>1.24</v>
+        <v>1.3</v>
       </c>
       <c r="E88" s="4">
-        <v>-5.3</v>
+        <v>-0.8</v>
       </c>
       <c r="F88" s="4">
-        <v>-5.3</v>
+        <v>-0.8</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -4497,19 +4464,19 @@
         <v>56</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="C97" s="3">
-        <v>1.78</v>
+        <v>3.26</v>
       </c>
       <c r="D97" s="3">
-        <v>1.5</v>
+        <v>2.75</v>
       </c>
       <c r="E97" s="4">
-        <v>-15.7</v>
+        <v>-15.6</v>
       </c>
       <c r="F97" s="4">
-        <v>-14.1</v>
+        <v>-15.6</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -4517,19 +4484,19 @@
         <v>56</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="C98" s="3">
-        <v>1.6</v>
+        <v>1.78</v>
       </c>
       <c r="D98" s="3">
-        <v>1.28</v>
+        <v>1.5</v>
       </c>
       <c r="E98" s="4">
-        <v>-20</v>
+        <v>-15.7</v>
       </c>
       <c r="F98" s="4">
-        <v>-20</v>
+        <v>-14.1</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -4582,19 +4549,19 @@
         <v>50</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="C103" s="3">
-        <v>9</v>
+        <v>2.19</v>
       </c>
       <c r="D103" s="3">
-        <v>8</v>
+        <v>2.21</v>
       </c>
       <c r="E103" s="4">
-        <v>-11.1</v>
+        <v>0.9</v>
       </c>
       <c r="F103" s="4">
-        <v>-11.1</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -4602,19 +4569,19 @@
         <v>50</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="C104" s="3">
-        <v>2.19</v>
+        <v>9</v>
       </c>
       <c r="D104" s="3">
-        <v>1.9</v>
+        <v>8</v>
       </c>
       <c r="E104" s="4">
-        <v>-13.2</v>
+        <v>-11.1</v>
       </c>
       <c r="F104" s="4">
-        <v>-13.2</v>
+        <v>-11.1</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -4767,19 +4734,19 @@
         <v>56</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C114" s="3">
         <v>3.26</v>
       </c>
       <c r="D114" s="3">
-        <v>2.05</v>
+        <v>2.23</v>
       </c>
       <c r="E114" s="4">
-        <v>-37.1</v>
+        <v>-31.6</v>
       </c>
       <c r="F114" s="4">
-        <v>-33.4</v>
+        <v>-28.4</v>
       </c>
     </row>
   </sheetData>
@@ -4797,7 +4764,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -4805,7 +4772,7 @@
         <v>45863</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -4835,10 +4802,10 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C6" s="3">
         <v>2.35</v>
@@ -4855,10 +4822,10 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C7" s="3">
         <v>1.48</v>
@@ -4875,10 +4842,10 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C8" s="3">
         <v>1.13</v>
@@ -4895,10 +4862,10 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C9" s="3">
         <v>3.75</v>
@@ -4915,10 +4882,10 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C10" s="3">
         <v>1.22</v>
@@ -4960,10 +4927,10 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C14" s="3">
         <v>3.12</v>
@@ -4980,10 +4947,10 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C15" s="3">
         <v>1.82</v>
@@ -5000,10 +4967,10 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C16" s="3">
         <v>3.28</v>
@@ -5020,10 +4987,10 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C17" s="3">
         <v>1.3</v>
@@ -5040,10 +5007,10 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C18" s="3">
         <v>1.29</v>
@@ -5085,10 +5052,10 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C22" s="3">
         <v>6.64</v>
@@ -5105,10 +5072,10 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C23" s="3">
         <v>1.43</v>
@@ -5125,10 +5092,10 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C24" s="3">
         <v>11.25</v>
@@ -5145,10 +5112,10 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C25" s="3">
         <v>7.5</v>
@@ -5165,10 +5132,10 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C26" s="3">
         <v>5.91</v>
@@ -5210,10 +5177,10 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C30" s="3">
         <v>8.83</v>
@@ -5230,10 +5197,10 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C31" s="3">
         <v>6.15</v>
@@ -5250,10 +5217,10 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C32" s="3">
         <v>2.5</v>
@@ -5270,10 +5237,10 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C33" s="3">
         <v>2.09</v>
@@ -5290,10 +5257,10 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C34" s="3">
         <v>3.26</v>
@@ -5335,10 +5302,10 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C38" s="3">
         <v>2.58</v>
@@ -5355,10 +5322,10 @@
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C39" s="3">
         <v>16.25</v>
@@ -5375,10 +5342,10 @@
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C40" s="3">
         <v>4.4</v>
@@ -5395,10 +5362,10 @@
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C41" s="3">
         <v>4.93</v>
@@ -5415,10 +5382,10 @@
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C42" s="3">
         <v>30</v>
@@ -5460,10 +5427,10 @@
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C46" s="3">
         <v>5</v>
@@ -5480,10 +5447,10 @@
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C47" s="3">
         <v>6.13</v>
@@ -5500,10 +5467,10 @@
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C48" s="3">
         <v>53</v>
@@ -5520,10 +5487,10 @@
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C49" s="3">
         <v>17.6</v>
@@ -5540,10 +5507,10 @@
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C50" s="3">
         <v>75</v>
@@ -5585,10 +5552,10 @@
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C54" s="3">
         <v>2.27</v>
@@ -5605,10 +5572,10 @@
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C55" s="3">
         <v>3.29</v>
@@ -5625,10 +5592,10 @@
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C56" s="3">
         <v>1.51</v>
@@ -5645,10 +5612,10 @@
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C57" s="3">
         <v>1.1</v>
@@ -5665,22 +5632,22 @@
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C58" s="3">
-        <v>1.27</v>
+        <v>1.94</v>
       </c>
       <c r="D58" s="3">
-        <v>1.24</v>
+        <v>1.92</v>
       </c>
       <c r="E58" s="4">
-        <v>-2.4</v>
+        <v>-1</v>
       </c>
       <c r="F58" s="4">
-        <v>-2.4</v>
+        <v>-0.9</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -5710,50 +5677,50 @@
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C62" s="3">
-        <v>1.62</v>
+        <v>1.1</v>
       </c>
       <c r="D62" s="3">
-        <v>1.95</v>
+        <v>1.38</v>
       </c>
       <c r="E62" s="4">
-        <v>20.4</v>
+        <v>25.5</v>
       </c>
       <c r="F62" s="4">
-        <v>16.3</v>
+        <v>25.5</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C63" s="3">
-        <v>1.1</v>
+        <v>1.62</v>
       </c>
       <c r="D63" s="3">
-        <v>1.2</v>
+        <v>1.95</v>
       </c>
       <c r="E63" s="4">
-        <v>9.1</v>
+        <v>20.4</v>
       </c>
       <c r="F63" s="4">
-        <v>9.1</v>
+        <v>16.3</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C64" s="3">
         <v>5.54</v>
@@ -5770,10 +5737,10 @@
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C65" s="3">
         <v>1.27</v>
@@ -5790,10 +5757,10 @@
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C66" s="3">
         <v>3.38</v>
@@ -5835,50 +5802,50 @@
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="C70" s="3">
-        <v>1.3</v>
+        <v>1.16</v>
       </c>
       <c r="D70" s="3">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="E70" s="4">
-        <v>34.6</v>
+        <v>39.7</v>
       </c>
       <c r="F70" s="4">
-        <v>27.7</v>
+        <v>35.7</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="C71" s="3">
-        <v>1.16</v>
+        <v>1.3</v>
       </c>
       <c r="D71" s="3">
-        <v>1.42</v>
+        <v>1.75</v>
       </c>
       <c r="E71" s="4">
-        <v>22.4</v>
+        <v>34.6</v>
       </c>
       <c r="F71" s="4">
-        <v>20.2</v>
+        <v>27.7</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C72" s="3">
         <v>1.91</v>
@@ -5895,10 +5862,10 @@
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C73" s="3">
         <v>9.83</v>
@@ -5915,22 +5882,22 @@
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>87</v>
+        <v>109</v>
       </c>
       <c r="C74" s="3">
-        <v>6.15</v>
+        <v>3.15</v>
       </c>
       <c r="D74" s="3">
-        <v>4.2</v>
+        <v>2.18</v>
       </c>
       <c r="E74" s="4">
-        <v>-31.7</v>
+        <v>-30.8</v>
       </c>
       <c r="F74" s="4">
-        <v>-25.4</v>
+        <v>-30.8</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -5960,7 +5927,7 @@
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B78" s="3" t="s">
         <v>104</v>
@@ -5969,21 +5936,21 @@
         <v>1.55</v>
       </c>
       <c r="D78" s="3">
-        <v>2.2</v>
+        <v>3.45</v>
       </c>
       <c r="E78" s="4">
-        <v>41.9</v>
+        <v>122.6</v>
       </c>
       <c r="F78" s="4">
-        <v>37.7</v>
+        <v>110.3</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C79" s="3">
         <v>4.42</v>
@@ -6000,10 +5967,10 @@
     </row>
     <row r="80" spans="1:6">
       <c r="A80" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C80" s="3">
         <v>2.81</v>
@@ -6020,10 +5987,10 @@
     </row>
     <row r="81" spans="1:6">
       <c r="A81" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C81" s="3">
         <v>1.24</v>
@@ -6040,10 +6007,10 @@
     </row>
     <row r="82" spans="1:6">
       <c r="A82" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C82" s="3">
         <v>1.4</v>
@@ -6085,90 +6052,90 @@
     </row>
     <row r="86" spans="1:6">
       <c r="A86" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="C86" s="3">
-        <v>1.81</v>
+        <v>1.7</v>
       </c>
       <c r="D86" s="3">
-        <v>4</v>
+        <v>3.96</v>
       </c>
       <c r="E86" s="4">
-        <v>121</v>
+        <v>132.9</v>
       </c>
       <c r="F86" s="4">
-        <v>96.8</v>
+        <v>119.6</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="C87" s="3">
-        <v>1.7</v>
+        <v>1.81</v>
       </c>
       <c r="D87" s="3">
-        <v>2.7</v>
+        <v>4</v>
       </c>
       <c r="E87" s="4">
-        <v>58.8</v>
+        <v>121</v>
       </c>
       <c r="F87" s="4">
-        <v>52.9</v>
+        <v>96.8</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C88" s="3">
         <v>1.45</v>
       </c>
       <c r="D88" s="3">
-        <v>1.42</v>
+        <v>1.52</v>
       </c>
       <c r="E88" s="4">
-        <v>-2.1</v>
+        <v>4.8</v>
       </c>
       <c r="F88" s="4">
-        <v>-2.1</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C89" s="3">
         <v>1.23</v>
       </c>
       <c r="D89" s="3">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="E89" s="4">
-        <v>-4.1</v>
+        <v>-2.4</v>
       </c>
       <c r="F89" s="4">
-        <v>-4.1</v>
+        <v>-2.4</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C90" s="3">
         <v>6.92</v>
@@ -6210,7 +6177,7 @@
     </row>
     <row r="94" spans="1:6">
       <c r="A94" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B94" s="3" t="s">
         <v>104</v>
@@ -6230,10 +6197,10 @@
     </row>
     <row r="95" spans="1:6">
       <c r="A95" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C95" s="3">
         <v>21</v>
@@ -6250,30 +6217,30 @@
     </row>
     <row r="96" spans="1:6">
       <c r="A96" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C96" s="3">
         <v>2.46</v>
       </c>
       <c r="D96" s="3">
-        <v>2.3</v>
+        <v>2.61</v>
       </c>
       <c r="E96" s="4">
-        <v>-6.5</v>
+        <v>6.1</v>
       </c>
       <c r="F96" s="4">
-        <v>-5.9</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C97" s="3">
         <v>4.7</v>
@@ -6290,10 +6257,10 @@
     </row>
     <row r="98" spans="1:6">
       <c r="A98" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C98" s="3">
         <v>2.44</v>
@@ -6335,10 +6302,10 @@
     </row>
     <row r="102" spans="1:6">
       <c r="A102" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C102" s="3">
         <v>3.25</v>
@@ -6355,10 +6322,10 @@
     </row>
     <row r="103" spans="1:6">
       <c r="A103" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C103" s="3">
         <v>18</v>
@@ -6375,10 +6342,10 @@
     </row>
     <row r="104" spans="1:6">
       <c r="A104" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C104" s="3">
         <v>4.87</v>
@@ -6395,42 +6362,42 @@
     </row>
     <row r="105" spans="1:6">
       <c r="A105" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C105" s="3">
-        <v>1.73</v>
+        <v>2.62</v>
       </c>
       <c r="D105" s="3">
-        <v>1.75</v>
+        <v>3.03</v>
       </c>
       <c r="E105" s="4">
-        <v>1.2</v>
+        <v>15.6</v>
       </c>
       <c r="F105" s="4">
-        <v>1.1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C106" s="3">
-        <v>2.62</v>
+        <v>1.73</v>
       </c>
       <c r="D106" s="3">
-        <v>2.5</v>
+        <v>1.83</v>
       </c>
       <c r="E106" s="4">
-        <v>-4.6</v>
+        <v>5.8</v>
       </c>
       <c r="F106" s="4">
-        <v>-4.1</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -6460,7 +6427,7 @@
     </row>
     <row r="110" spans="1:6">
       <c r="A110" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B110" s="3" t="s">
         <v>104</v>
@@ -6480,10 +6447,10 @@
     </row>
     <row r="111" spans="1:6">
       <c r="A111" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C111" s="3">
         <v>15.67</v>
@@ -6500,10 +6467,10 @@
     </row>
     <row r="112" spans="1:6">
       <c r="A112" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C112" s="3">
         <v>4.71</v>
@@ -6520,10 +6487,10 @@
     </row>
     <row r="113" spans="1:6">
       <c r="A113" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C113" s="3">
         <v>90</v>
@@ -6540,10 +6507,10 @@
     </row>
     <row r="114" spans="1:6">
       <c r="A114" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C114" s="3">
         <v>9.779999999999999</v>
@@ -6565,7 +6532,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F79"/>
+  <dimension ref="A1:F44"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6573,7 +6540,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -6581,7 +6548,7 @@
         <v>45864</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -6609,409 +6576,234 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="C6" s="3">
-        <v>2.73</v>
-      </c>
-      <c r="D6" s="3">
+    <row r="7" spans="1:6">
+      <c r="A7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="4">
-        <v>46.5</v>
-      </c>
-      <c r="F6" s="4">
-        <v>46.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="C7" s="3">
-        <v>2.33</v>
-      </c>
-      <c r="D7" s="3">
-        <v>2.9</v>
-      </c>
-      <c r="E7" s="4">
-        <v>24.5</v>
-      </c>
-      <c r="F7" s="4">
-        <v>24.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="C8" s="3">
-        <v>1.49</v>
-      </c>
-      <c r="D8" s="3">
-        <v>1.72</v>
-      </c>
-      <c r="E8" s="4">
-        <v>15.4</v>
-      </c>
-      <c r="F8" s="4">
-        <v>13.9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C9" s="3">
-        <v>1.55</v>
-      </c>
-      <c r="D9" s="3">
-        <v>1.65</v>
-      </c>
-      <c r="E9" s="4">
-        <v>6.5</v>
-      </c>
-      <c r="F9" s="4">
-        <v>6.5</v>
+      <c r="C8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="C10" s="3">
-        <v>1.11</v>
-      </c>
-      <c r="D10" s="3">
-        <v>1.08</v>
-      </c>
-      <c r="E10" s="4">
-        <v>-2.7</v>
-      </c>
-      <c r="F10" s="4">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="1" t="s">
-        <v>2</v>
+      <c r="A10" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B14" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F14" s="1" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B17" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E17" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F17" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="C17" s="3">
-        <v>3.45</v>
-      </c>
-      <c r="D17" s="3">
-        <v>4.2</v>
-      </c>
-      <c r="E17" s="4">
-        <v>21.7</v>
-      </c>
-      <c r="F17" s="4">
-        <v>21.7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="C18" s="3">
-        <v>9.33</v>
-      </c>
-      <c r="D18" s="3">
-        <v>11</v>
-      </c>
-      <c r="E18" s="4">
-        <v>17.9</v>
-      </c>
-      <c r="F18" s="4">
-        <v>17.9</v>
-      </c>
-    </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="C19" s="3">
-        <v>1.44</v>
-      </c>
-      <c r="D19" s="3">
-        <v>1.52</v>
-      </c>
-      <c r="E19" s="4">
-        <v>5.6</v>
-      </c>
-      <c r="F19" s="4">
-        <v>5.6</v>
+      <c r="A19" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="C20" s="3">
-        <v>3.75</v>
-      </c>
-      <c r="D20" s="3">
+      <c r="A20" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E20" s="4">
-        <v>-20</v>
-      </c>
-      <c r="F20" s="4">
-        <v>-16</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="C21" s="3">
-        <v>17</v>
-      </c>
-      <c r="D21" s="3">
-        <v>13</v>
-      </c>
-      <c r="E21" s="4">
-        <v>-23.5</v>
-      </c>
-      <c r="F21" s="4">
-        <v>-21.2</v>
+      <c r="B20" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B23" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C23" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D23" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="E23" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="F23" s="1" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B26" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C26" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D26" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="E26" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F27" s="1" t="s">
+      <c r="F26" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="C28" s="3">
-        <v>2.36</v>
-      </c>
-      <c r="D28" s="3">
-        <v>2.6</v>
-      </c>
-      <c r="E28" s="4">
-        <v>10.2</v>
-      </c>
-      <c r="F28" s="4">
-        <v>9.199999999999999</v>
+      <c r="A28" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="C29" s="3">
-        <v>28.5</v>
-      </c>
-      <c r="D29" s="3">
-        <v>26</v>
-      </c>
-      <c r="E29" s="4">
-        <v>-8.800000000000001</v>
-      </c>
-      <c r="F29" s="4">
-        <v>-7.9</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C30" s="3">
-        <v>17</v>
-      </c>
-      <c r="D30" s="3">
-        <v>12</v>
-      </c>
-      <c r="E30" s="4">
-        <v>-29.4</v>
-      </c>
-      <c r="F30" s="4">
-        <v>-26.5</v>
+      <c r="A29" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="C31" s="3">
-        <v>41</v>
-      </c>
-      <c r="D31" s="3">
-        <v>26</v>
-      </c>
-      <c r="E31" s="4">
-        <v>-36.6</v>
-      </c>
-      <c r="F31" s="4">
-        <v>-32.9</v>
+      <c r="A31" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="C32" s="3">
-        <v>8.380000000000001</v>
-      </c>
-      <c r="D32" s="3">
+      <c r="A32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E32" s="4">
-        <v>-40.3</v>
-      </c>
-      <c r="F32" s="4">
-        <v>-36.3</v>
+      <c r="D32" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -7036,7 +6828,7 @@
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -7059,578 +6851,53 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="C39" s="3">
-        <v>1.69</v>
-      </c>
-      <c r="D39" s="3">
-        <v>2.3</v>
-      </c>
-      <c r="E39" s="4">
-        <v>36.1</v>
-      </c>
-      <c r="F39" s="4">
-        <v>28.9</v>
-      </c>
-    </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C40" s="3">
-        <v>1.33</v>
-      </c>
-      <c r="D40" s="3">
-        <v>1.48</v>
-      </c>
-      <c r="E40" s="4">
-        <v>11.3</v>
-      </c>
-      <c r="F40" s="4">
-        <v>10.2</v>
+      <c r="A40" s="1" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="C41" s="3">
-        <v>1.62</v>
-      </c>
-      <c r="D41" s="3">
-        <v>1.8</v>
-      </c>
-      <c r="E41" s="4">
-        <v>11.1</v>
-      </c>
-      <c r="F41" s="4">
-        <v>13.3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="C42" s="3">
-        <v>1.48</v>
-      </c>
-      <c r="D42" s="3">
-        <v>1.52</v>
-      </c>
-      <c r="E42" s="4">
-        <v>2.7</v>
-      </c>
-      <c r="F42" s="4">
-        <v>1.9</v>
+      <c r="A41" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="C43" s="3">
-        <v>1.58</v>
-      </c>
-      <c r="D43" s="3">
-        <v>1.62</v>
-      </c>
-      <c r="E43" s="4">
-        <v>2.5</v>
-      </c>
-      <c r="F43" s="4">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
-      <c r="A45" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
-      <c r="A46" s="1" t="s">
+      <c r="A43" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B44" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C44" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="D44" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E46" s="1" t="s">
+      <c r="E44" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F46" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
-      <c r="A48" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
-      <c r="A49" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
-      <c r="A50" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="C50" s="3">
-        <v>4.75</v>
-      </c>
-      <c r="D50" s="3">
-        <v>8.5</v>
-      </c>
-      <c r="E50" s="4">
-        <v>78.90000000000001</v>
-      </c>
-      <c r="F50" s="4">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
-      <c r="A51" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="C51" s="3">
-        <v>2.18</v>
-      </c>
-      <c r="D51" s="3">
-        <v>3.6</v>
-      </c>
-      <c r="E51" s="4">
-        <v>65.09999999999999</v>
-      </c>
-      <c r="F51" s="4">
-        <v>52.1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
-      <c r="A52" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="C52" s="3">
-        <v>4.86</v>
-      </c>
-      <c r="D52" s="3">
-        <v>5</v>
-      </c>
-      <c r="E52" s="4">
-        <v>2.9</v>
-      </c>
-      <c r="F52" s="4">
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
-      <c r="A53" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C53" s="3">
-        <v>3.42</v>
-      </c>
-      <c r="D53" s="3">
-        <v>3.5</v>
-      </c>
-      <c r="E53" s="4">
-        <v>2.3</v>
-      </c>
-      <c r="F53" s="4">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
-      <c r="A54" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="C54" s="3">
-        <v>1.49</v>
-      </c>
-      <c r="D54" s="3">
-        <v>1.26</v>
-      </c>
-      <c r="E54" s="4">
-        <v>-15.4</v>
-      </c>
-      <c r="F54" s="4">
-        <v>-15.4</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
-      <c r="A56" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
-      <c r="A57" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
-      <c r="A59" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
-      <c r="A60" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
-      <c r="A61" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="C61" s="3">
-        <v>7.4</v>
-      </c>
-      <c r="D61" s="3">
-        <v>14</v>
-      </c>
-      <c r="E61" s="4">
-        <v>89.2</v>
-      </c>
-      <c r="F61" s="4">
-        <v>80.3</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
-      <c r="A62" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="C62" s="3">
-        <v>19</v>
-      </c>
-      <c r="D62" s="3">
-        <v>26</v>
-      </c>
-      <c r="E62" s="4">
-        <v>36.8</v>
-      </c>
-      <c r="F62" s="4">
-        <v>33.1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
-      <c r="A63" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C63" s="3">
-        <v>10.83</v>
-      </c>
-      <c r="D63" s="3">
-        <v>13</v>
-      </c>
-      <c r="E63" s="4">
-        <v>20</v>
-      </c>
-      <c r="F63" s="4">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
-      <c r="A64" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="C64" s="3">
-        <v>1.85</v>
-      </c>
-      <c r="D64" s="3">
-        <v>2.1</v>
-      </c>
-      <c r="E64" s="4">
-        <v>13.5</v>
-      </c>
-      <c r="F64" s="4">
-        <v>13.5</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
-      <c r="A65" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="C65" s="3">
-        <v>1.35</v>
-      </c>
-      <c r="D65" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="E65" s="4">
-        <v>-11.1</v>
-      </c>
-      <c r="F65" s="4">
-        <v>-11.1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
-      <c r="A67" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
-      <c r="A68" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F68" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
-      <c r="A70" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
-      <c r="A71" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F71" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
-      <c r="A72" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="B72" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="C72" s="3">
-        <v>18.5</v>
-      </c>
-      <c r="D72" s="3">
-        <v>51</v>
-      </c>
-      <c r="E72" s="4">
-        <v>175.7</v>
-      </c>
-      <c r="F72" s="4">
-        <v>158.1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
-      <c r="A73" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="B73" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="C73" s="3">
-        <v>3.81</v>
-      </c>
-      <c r="D73" s="3">
-        <v>4.8</v>
-      </c>
-      <c r="E73" s="4">
-        <v>26</v>
-      </c>
-      <c r="F73" s="4">
-        <v>23.4</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
-      <c r="A74" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="B74" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="C74" s="3">
-        <v>2.8</v>
-      </c>
-      <c r="D74" s="3">
-        <v>1.8</v>
-      </c>
-      <c r="E74" s="4">
-        <v>-35.7</v>
-      </c>
-      <c r="F74" s="4">
-        <v>-32.1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
-      <c r="A75" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="B75" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="C75" s="3">
-        <v>41</v>
-      </c>
-      <c r="D75" s="3">
-        <v>15</v>
-      </c>
-      <c r="E75" s="4">
-        <v>-63.4</v>
-      </c>
-      <c r="F75" s="4">
-        <v>-63.4</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
-      <c r="A76" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="B76" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="C76" s="3">
-        <v>7.73</v>
-      </c>
-      <c r="D76" s="3">
-        <v>2.8</v>
-      </c>
-      <c r="E76" s="4">
-        <v>-63.8</v>
-      </c>
-      <c r="F76" s="4">
-        <v>-70.2</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
-      <c r="A78" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
-      <c r="A79" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E79" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F79" s="1" t="s">
+      <c r="F44" s="1" t="s">
         <v>8</v>
       </c>
     </row>
@@ -7649,7 +6916,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -7657,7 +6924,7 @@
         <v>45864</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -7687,10 +6954,10 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="3" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="C6" s="3">
         <v>2.18</v>
@@ -7707,10 +6974,10 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="3" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="C7" s="3">
         <v>2.67</v>
@@ -7727,10 +6994,10 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="3" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="C8" s="3">
         <v>4</v>
@@ -7747,10 +7014,10 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="3" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="C9" s="3">
         <v>2.81</v>
@@ -7767,10 +7034,10 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="3" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="C10" s="3">
         <v>3.43</v>
@@ -7812,10 +7079,10 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="3" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="C14" s="3">
         <v>1</v>
@@ -7832,10 +7099,10 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="3" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="C15" s="3">
         <v>1.37</v>
@@ -7852,10 +7119,10 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="3" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="C16" s="3">
         <v>2.86</v>
@@ -7872,10 +7139,10 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="3" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="C17" s="3">
         <v>1.33</v>
@@ -7892,10 +7159,10 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="3" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="C18" s="3">
         <v>3.62</v>
@@ -7937,10 +7204,10 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="3" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="C22" s="3">
         <v>5.29</v>
@@ -7957,10 +7224,10 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="3" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="C23" s="3">
         <v>8</v>
@@ -7977,10 +7244,10 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="3" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="C24" s="3">
         <v>14.4</v>
@@ -7997,10 +7264,10 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>129</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>141</v>
       </c>
       <c r="C25" s="3">
         <v>2.39</v>
@@ -8017,10 +7284,10 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="3" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="C26" s="3">
         <v>2.07</v>
@@ -8062,10 +7329,10 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="3" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="C30" s="3">
         <v>10</v>
@@ -8082,10 +7349,10 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="3" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="C31" s="3">
         <v>3.33</v>
@@ -8102,10 +7369,10 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="3" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="C32" s="3">
         <v>3.24</v>
@@ -8122,10 +7389,10 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="3" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="C33" s="3">
         <v>6.33</v>
@@ -8142,10 +7409,10 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="3" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="C34" s="3">
         <v>10.25</v>
@@ -8187,10 +7454,10 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="3" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="C38" s="3">
         <v>18.5</v>
@@ -8207,10 +7474,10 @@
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="3" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="C39" s="3">
         <v>4.33</v>
@@ -8227,10 +7494,10 @@
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="3" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="C40" s="3">
         <v>9</v>
@@ -8247,10 +7514,10 @@
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="3" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="C41" s="3">
         <v>4.72</v>
@@ -8267,10 +7534,10 @@
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="3" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="C42" s="3">
         <v>3.69</v>
@@ -8312,10 +7579,10 @@
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="3" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="C46" s="3">
         <v>8.75</v>
@@ -8332,10 +7599,10 @@
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="3" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="C47" s="3">
         <v>8.5</v>
@@ -8352,10 +7619,10 @@
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="3" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="C48" s="3">
         <v>8.5</v>
@@ -8372,10 +7639,10 @@
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="3" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="C49" s="3">
         <v>38</v>
@@ -8392,10 +7659,10 @@
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="3" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="C50" s="3">
         <v>14</v>
@@ -8437,10 +7704,10 @@
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="3" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="C54" s="3">
         <v>2.41</v>
@@ -8457,10 +7724,10 @@
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="3" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="C55" s="3">
         <v>1.77</v>
@@ -8477,30 +7744,30 @@
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="3" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="C56" s="3">
         <v>1.25</v>
       </c>
       <c r="D56" s="3">
-        <v>1.28</v>
+        <v>1.34</v>
       </c>
       <c r="E56" s="4">
-        <v>2.4</v>
+        <v>7.2</v>
       </c>
       <c r="F56" s="4">
-        <v>2.4</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="3" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="C57" s="3">
         <v>2.68</v>
@@ -8517,10 +7784,10 @@
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="3" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="C58" s="3">
         <v>2</v>
@@ -8562,10 +7829,10 @@
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="3" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="C62" s="3">
         <v>1.16</v>
@@ -8582,10 +7849,10 @@
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="3" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="C63" s="3">
         <v>3.58</v>
@@ -8602,10 +7869,10 @@
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="3" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="C64" s="3">
         <v>3.25</v>
@@ -8622,10 +7889,10 @@
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="3" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="C65" s="3">
         <v>2.23</v>
@@ -8642,10 +7909,10 @@
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="3" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="C66" s="3">
         <v>1.71</v>
@@ -8687,10 +7954,10 @@
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="3" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="C70" s="3">
         <v>3.79</v>
@@ -8707,10 +7974,10 @@
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="3" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="C71" s="3">
         <v>6.36</v>
@@ -8727,10 +7994,10 @@
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="3" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="C72" s="3">
         <v>2.58</v>
@@ -8747,10 +8014,10 @@
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="3" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="C73" s="3">
         <v>1.49</v>
@@ -8767,10 +8034,10 @@
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="3" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="C74" s="3">
         <v>2.4</v>
@@ -8812,10 +8079,10 @@
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="3" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="C78" s="3">
         <v>1.45</v>
@@ -8832,10 +8099,10 @@
     </row>
     <row r="79" spans="1:6">
       <c r="A79" s="3" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="C79" s="3">
         <v>1.78</v>
@@ -8852,10 +8119,10 @@
     </row>
     <row r="80" spans="1:6">
       <c r="A80" s="3" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="C80" s="3">
         <v>1.67</v>
@@ -8872,10 +8139,10 @@
     </row>
     <row r="81" spans="1:6">
       <c r="A81" s="3" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="C81" s="3">
         <v>1.56</v>
@@ -8892,10 +8159,10 @@
     </row>
     <row r="82" spans="1:6">
       <c r="A82" s="3" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="C82" s="3">
         <v>3.69</v>
@@ -8937,10 +8204,10 @@
     </row>
     <row r="86" spans="1:6">
       <c r="A86" s="3" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="C86" s="3">
         <v>17.67</v>
@@ -8957,10 +8224,10 @@
     </row>
     <row r="87" spans="1:6">
       <c r="A87" s="3" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="C87" s="3">
         <v>23.33</v>
@@ -8977,10 +8244,10 @@
     </row>
     <row r="88" spans="1:6">
       <c r="A88" s="3" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="C88" s="3">
         <v>1.22</v>
@@ -8997,10 +8264,10 @@
     </row>
     <row r="89" spans="1:6">
       <c r="A89" s="3" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="C89" s="3">
         <v>1.25</v>
@@ -9017,10 +8284,10 @@
     </row>
     <row r="90" spans="1:6">
       <c r="A90" s="3" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="C90" s="3">
         <v>8.5</v>
@@ -9062,10 +8329,10 @@
     </row>
     <row r="94" spans="1:6">
       <c r="A94" s="3" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="C94" s="3">
         <v>2.11</v>
@@ -9082,10 +8349,10 @@
     </row>
     <row r="95" spans="1:6">
       <c r="A95" s="3" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="C95" s="3">
         <v>2.5</v>
@@ -9102,10 +8369,10 @@
     </row>
     <row r="96" spans="1:6">
       <c r="A96" s="3" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="C96" s="3">
         <v>3.12</v>
@@ -9122,10 +8389,10 @@
     </row>
     <row r="97" spans="1:6">
       <c r="A97" s="3" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="C97" s="3">
         <v>9.4</v>
@@ -9142,22 +8409,22 @@
     </row>
     <row r="98" spans="1:6">
       <c r="A98" s="3" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="C98" s="3">
-        <v>6.31</v>
+        <v>5.43</v>
       </c>
       <c r="D98" s="3">
-        <v>2.7</v>
+        <v>2.49</v>
       </c>
       <c r="E98" s="4">
-        <v>-57.2</v>
+        <v>-54.1</v>
       </c>
       <c r="F98" s="4">
-        <v>-57.2</v>
+        <v>-59.5</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -9187,10 +8454,10 @@
     </row>
     <row r="102" spans="1:6">
       <c r="A102" s="3" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="C102" s="3">
         <v>21.25</v>
@@ -9207,10 +8474,10 @@
     </row>
     <row r="103" spans="1:6">
       <c r="A103" s="3" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="C103" s="3">
         <v>35</v>
@@ -9227,10 +8494,10 @@
     </row>
     <row r="104" spans="1:6">
       <c r="A104" s="3" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="C104" s="3">
         <v>5.87</v>
@@ -9247,10 +8514,10 @@
     </row>
     <row r="105" spans="1:6">
       <c r="A105" s="3" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="C105" s="3">
         <v>18</v>
@@ -9267,10 +8534,10 @@
     </row>
     <row r="106" spans="1:6">
       <c r="A106" s="3" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="C106" s="3">
         <v>2.26</v>
@@ -9312,10 +8579,10 @@
     </row>
     <row r="110" spans="1:6">
       <c r="A110" s="3" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="C110" s="3">
         <v>5.29</v>
@@ -9332,10 +8599,10 @@
     </row>
     <row r="111" spans="1:6">
       <c r="A111" s="3" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="C111" s="3">
         <v>5</v>
@@ -9352,10 +8619,10 @@
     </row>
     <row r="112" spans="1:6">
       <c r="A112" s="3" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="C112" s="3">
         <v>16.4</v>
@@ -9372,22 +8639,22 @@
     </row>
     <row r="113" spans="1:6">
       <c r="A113" s="3" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="C113" s="3">
         <v>11.57</v>
       </c>
       <c r="D113" s="3">
-        <v>4</v>
+        <v>4.65</v>
       </c>
       <c r="E113" s="4">
-        <v>-65.40000000000001</v>
+        <v>-59.8</v>
       </c>
       <c r="F113" s="4">
-        <v>-58.9</v>
+        <v>-53.8</v>
       </c>
     </row>
   </sheetData>
@@ -9405,7 +8672,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -9443,10 +8710,10 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="3" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="C6" s="3">
         <v>2</v>
@@ -9463,10 +8730,10 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="3" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="C7" s="3">
         <v>2.78</v>
@@ -9483,50 +8750,50 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="3" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="C8" s="3">
-        <v>1.32</v>
+        <v>2</v>
       </c>
       <c r="D8" s="3">
-        <v>1.45</v>
+        <v>2.3</v>
       </c>
       <c r="E8" s="4">
-        <v>9.800000000000001</v>
+        <v>15</v>
       </c>
       <c r="F8" s="4">
-        <v>9.800000000000001</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="3" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="C9" s="3">
-        <v>2</v>
+        <v>1.32</v>
       </c>
       <c r="D9" s="3">
-        <v>2.15</v>
+        <v>1.45</v>
       </c>
       <c r="E9" s="4">
-        <v>7.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="F9" s="4">
-        <v>8.199999999999999</v>
+        <v>9.800000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="3" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="C10" s="3">
         <v>3.18</v>
@@ -9568,10 +8835,10 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="3" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="C14" s="3">
         <v>1.41</v>
@@ -9588,10 +8855,10 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="3" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="C15" s="3">
         <v>2.22</v>
@@ -9608,10 +8875,10 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="3" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="C16" s="3">
         <v>1.23</v>
@@ -9628,10 +8895,10 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="3" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="C17" s="3">
         <v>1.55</v>
@@ -9648,10 +8915,10 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="3" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="C18" s="3">
         <v>1.12</v>
@@ -9693,10 +8960,10 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="3" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="C22" s="3">
         <v>9</v>
@@ -9713,10 +8980,10 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="3" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="C23" s="3">
         <v>2.72</v>
@@ -9733,10 +9000,10 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B24" s="3" t="s">
         <v>161</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>173</v>
       </c>
       <c r="C24" s="3">
         <v>3</v>
@@ -9753,10 +9020,10 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="3" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="C25" s="3">
         <v>6.25</v>
@@ -9773,10 +9040,10 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="3" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="C26" s="3">
         <v>15</v>
@@ -9818,10 +9085,10 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="3" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="C30" s="3">
         <v>1.81</v>
@@ -9838,10 +9105,10 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="3" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="C31" s="3">
         <v>3.4</v>
@@ -9858,10 +9125,10 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="3" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="C32" s="3">
         <v>2.45</v>
@@ -9878,10 +9145,10 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="3" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="C33" s="3">
         <v>1.46</v>
@@ -9898,10 +9165,10 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="3" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="C34" s="3">
         <v>3.85</v>
@@ -9943,10 +9210,10 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B38" s="3" t="s">
         <v>161</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>173</v>
       </c>
       <c r="C38" s="3">
         <v>6</v>
@@ -9963,10 +9230,10 @@
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="3" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="C39" s="3">
         <v>18.75</v>
@@ -9983,10 +9250,10 @@
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="3" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="C40" s="3">
         <v>4.41</v>
@@ -10003,10 +9270,10 @@
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="3" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="C41" s="3">
         <v>13.17</v>
@@ -10023,10 +9290,10 @@
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="3" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="C42" s="3">
         <v>6.73</v>
@@ -10068,10 +9335,10 @@
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="3" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="C46" s="3">
         <v>3.7</v>
@@ -10088,10 +9355,10 @@
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="3" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="C47" s="3">
         <v>11.33</v>
@@ -10108,10 +9375,10 @@
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="3" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="C48" s="3">
         <v>2.1</v>
@@ -10128,10 +9395,10 @@
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B49" s="3" t="s">
         <v>167</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>179</v>
       </c>
       <c r="C49" s="3">
         <v>28.67</v>
@@ -10148,10 +9415,10 @@
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="3" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="C50" s="3">
         <v>6.75</v>
@@ -10193,10 +9460,10 @@
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="3" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="C54" s="3">
         <v>2.88</v>
@@ -10213,10 +9480,10 @@
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="3" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="C55" s="3">
         <v>1.48</v>
@@ -10233,10 +9500,10 @@
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="3" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="C56" s="3">
         <v>1.4</v>
@@ -10253,10 +9520,10 @@
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="3" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="C57" s="3">
         <v>1.97</v>
@@ -10273,10 +9540,10 @@
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="3" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="C58" s="3">
         <v>9.880000000000001</v>
@@ -10318,10 +9585,10 @@
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="3" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C62" s="3">
         <v>1.33</v>
@@ -10338,10 +9605,10 @@
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="3" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="C63" s="3">
         <v>1.56</v>
@@ -10358,10 +9625,10 @@
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="3" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="C64" s="3">
         <v>1.24</v>
@@ -10378,10 +9645,10 @@
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="3" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="C65" s="3">
         <v>1.65</v>
@@ -10398,10 +9665,10 @@
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="3" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="C66" s="3">
         <v>1.17</v>
@@ -10443,10 +9710,10 @@
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="3" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="C70" s="3">
         <v>1.42</v>
@@ -10463,10 +9730,10 @@
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="3" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="C71" s="3">
         <v>1.42</v>
@@ -10483,10 +9750,10 @@
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="3" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="C72" s="3">
         <v>2.69</v>
@@ -10503,10 +9770,10 @@
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="3" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="C73" s="3">
         <v>10.71</v>
@@ -10523,10 +9790,10 @@
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="3" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="C74" s="3">
         <v>1.36</v>
@@ -10568,10 +9835,10 @@
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="3" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="C78" s="3">
         <v>2</v>
@@ -10588,10 +9855,10 @@
     </row>
     <row r="79" spans="1:6">
       <c r="A79" s="3" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C79" s="3">
         <v>3.5</v>
@@ -10608,10 +9875,10 @@
     </row>
     <row r="80" spans="1:6">
       <c r="A80" s="3" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="C80" s="3">
         <v>3</v>
@@ -10628,10 +9895,10 @@
     </row>
     <row r="81" spans="1:6">
       <c r="A81" s="3" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="C81" s="3">
         <v>4.94</v>
@@ -10648,10 +9915,10 @@
     </row>
     <row r="82" spans="1:6">
       <c r="A82" s="3" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="C82" s="3">
         <v>2.7</v>
@@ -10693,10 +9960,10 @@
     </row>
     <row r="86" spans="1:6">
       <c r="A86" s="3" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="C86" s="3">
         <v>2.5</v>
@@ -10713,10 +9980,10 @@
     </row>
     <row r="87" spans="1:6">
       <c r="A87" s="3" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="C87" s="3">
         <v>1.29</v>
@@ -10733,10 +10000,10 @@
     </row>
     <row r="88" spans="1:6">
       <c r="A88" s="3" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="C88" s="3">
         <v>17</v>
@@ -10753,30 +10020,30 @@
     </row>
     <row r="89" spans="1:6">
       <c r="A89" s="3" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="C89" s="3">
         <v>1.42</v>
       </c>
       <c r="D89" s="3">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="E89" s="4">
-        <v>2.1</v>
+        <v>4.2</v>
       </c>
       <c r="F89" s="4">
-        <v>2.1</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90" s="3" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="C90" s="3">
         <v>2.59</v>
@@ -10818,10 +10085,10 @@
     </row>
     <row r="94" spans="1:6">
       <c r="A94" s="3" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="C94" s="3">
         <v>4.53</v>
@@ -10838,10 +10105,10 @@
     </row>
     <row r="95" spans="1:6">
       <c r="A95" s="3" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="C95" s="3">
         <v>21</v>
@@ -10858,30 +10125,30 @@
     </row>
     <row r="96" spans="1:6">
       <c r="A96" s="3" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="C96" s="3">
         <v>1.55</v>
       </c>
       <c r="D96" s="3">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="E96" s="4">
-        <v>-20</v>
+        <v>-19.4</v>
       </c>
       <c r="F96" s="4">
-        <v>-20</v>
+        <v>-19.4</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97" s="3" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="C97" s="3">
         <v>8.33</v>
@@ -10898,10 +10165,10 @@
     </row>
     <row r="98" spans="1:6">
       <c r="A98" s="3" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="C98" s="3">
         <v>11.4</v>
@@ -10943,10 +10210,10 @@
     </row>
     <row r="102" spans="1:6">
       <c r="A102" s="3" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="C102" s="3">
         <v>2.07</v>
@@ -10963,10 +10230,10 @@
     </row>
     <row r="103" spans="1:6">
       <c r="A103" s="3" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="C103" s="3">
         <v>7.5</v>
@@ -10983,10 +10250,10 @@
     </row>
     <row r="104" spans="1:6">
       <c r="A104" s="3" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="C104" s="3">
         <v>35</v>
@@ -11003,10 +10270,10 @@
     </row>
     <row r="105" spans="1:6">
       <c r="A105" s="3" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="C105" s="3">
         <v>3.41</v>
@@ -11023,22 +10290,22 @@
     </row>
     <row r="106" spans="1:6">
       <c r="A106" s="3" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="C106" s="3">
         <v>3.78</v>
       </c>
       <c r="D106" s="3">
-        <v>1.85</v>
+        <v>2.06</v>
       </c>
       <c r="E106" s="4">
-        <v>-51.1</v>
+        <v>-45.5</v>
       </c>
       <c r="F106" s="4">
-        <v>-51.1</v>
+        <v>-45.5</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -11068,10 +10335,10 @@
     </row>
     <row r="110" spans="1:6">
       <c r="A110" s="3" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="C110" s="3">
         <v>22.67</v>
@@ -11088,50 +10355,50 @@
     </row>
     <row r="111" spans="1:6">
       <c r="A111" s="3" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="C111" s="3">
-        <v>57</v>
+        <v>2.83</v>
       </c>
       <c r="D111" s="3">
-        <v>41</v>
+        <v>2.14</v>
       </c>
       <c r="E111" s="4">
-        <v>-28.1</v>
+        <v>-24.4</v>
       </c>
       <c r="F111" s="4">
-        <v>-25.3</v>
+        <v>-24.4</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112" s="3" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="C112" s="3">
-        <v>2.83</v>
+        <v>57</v>
       </c>
       <c r="D112" s="3">
-        <v>1.9</v>
+        <v>41</v>
       </c>
       <c r="E112" s="4">
-        <v>-32.9</v>
+        <v>-28.1</v>
       </c>
       <c r="F112" s="4">
-        <v>-32.9</v>
+        <v>-25.3</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113" s="3" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="C113" s="3">
         <v>86</v>
@@ -11148,10 +10415,10 @@
     </row>
     <row r="114" spans="1:6">
       <c r="A114" s="3" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="C114" s="3">
         <v>87</v>
@@ -11181,7 +10448,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -11189,7 +10456,7 @@
         <v>45864</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -11219,10 +10486,10 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="3" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="C6" s="3">
         <v>1.57</v>
@@ -11239,10 +10506,10 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="3" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="C7" s="3">
         <v>1.09</v>
@@ -11259,10 +10526,10 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="3" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="C8" s="3">
         <v>1.18</v>
@@ -11279,10 +10546,10 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="3" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="C9" s="3">
         <v>1.32</v>
@@ -11299,10 +10566,10 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="3" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="C10" s="3">
         <v>2.12</v>
@@ -11344,10 +10611,10 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="3" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="C14" s="3">
         <v>2.69</v>
@@ -11364,10 +10631,10 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="3" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="C15" s="3">
         <v>1.45</v>
@@ -11384,10 +10651,10 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="3" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="C16" s="3">
         <v>1.86</v>
@@ -11404,10 +10671,10 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="3" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="C17" s="3">
         <v>1.2</v>
@@ -11424,10 +10691,10 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="3" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="C18" s="3">
         <v>4.22</v>
@@ -11469,10 +10736,10 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="3" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="C22" s="3">
         <v>1.47</v>
@@ -11489,10 +10756,10 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="3" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="C23" s="3">
         <v>3.3</v>
@@ -11509,10 +10776,10 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="3" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="C24" s="3">
         <v>1.97</v>
@@ -11529,10 +10796,10 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="3" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="C25" s="3">
         <v>1.7</v>
@@ -11549,10 +10816,10 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="B26" s="3" t="s">
         <v>195</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>207</v>
       </c>
       <c r="C26" s="3">
         <v>11.4</v>
@@ -11594,10 +10861,10 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="3" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="C30" s="3">
         <v>1.74</v>
@@ -11614,10 +10881,10 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="3" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="C31" s="3">
         <v>4.35</v>
@@ -11634,10 +10901,10 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="3" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="C32" s="3">
         <v>4.83</v>
@@ -11654,10 +10921,10 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="3" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="C33" s="3">
         <v>2.9</v>
@@ -11674,10 +10941,10 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="3" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="C34" s="3">
         <v>19</v>
@@ -11719,10 +10986,10 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="3" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="C38" s="3">
         <v>19</v>
@@ -11739,10 +11006,10 @@
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="B39" s="3" t="s">
         <v>195</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>207</v>
       </c>
       <c r="C39" s="3">
         <v>19</v>
@@ -11759,10 +11026,10 @@
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="3" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="C40" s="3">
         <v>3</v>
@@ -11779,10 +11046,10 @@
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="3" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="C41" s="3">
         <v>4.73</v>
@@ -11799,10 +11066,10 @@
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="3" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="C42" s="3">
         <v>3.25</v>
@@ -11844,30 +11111,30 @@
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="3" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="C46" s="3">
         <v>2.81</v>
       </c>
       <c r="D46" s="3">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="E46" s="4">
-        <v>21</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="F46" s="4">
-        <v>21</v>
+        <v>77.90000000000001</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="3" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="C47" s="3">
         <v>14.5</v>
@@ -11884,10 +11151,10 @@
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="3" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="C48" s="3">
         <v>7.62</v>
@@ -11904,10 +11171,10 @@
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="3" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="C49" s="3">
         <v>29</v>
@@ -11924,10 +11191,10 @@
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="3" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="C50" s="3">
         <v>64</v>
@@ -11969,10 +11236,10 @@
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="3" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="C54" s="3">
         <v>1.51</v>
@@ -11989,10 +11256,10 @@
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="3" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="C55" s="3">
         <v>3.12</v>
@@ -12009,10 +11276,10 @@
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="3" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="C56" s="3">
         <v>1.28</v>
@@ -12029,10 +11296,10 @@
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="3" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="C57" s="3">
         <v>1.27</v>
@@ -12049,10 +11316,10 @@
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="3" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="C58" s="3">
         <v>1.5</v>
@@ -12094,10 +11361,10 @@
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="3" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="C62" s="3">
         <v>1.2</v>
@@ -12114,30 +11381,30 @@
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="3" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="C63" s="3">
         <v>1.27</v>
       </c>
       <c r="D63" s="3">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="E63" s="4">
-        <v>-11</v>
+        <v>-7.9</v>
       </c>
       <c r="F63" s="4">
-        <v>-11</v>
+        <v>-7.9</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="3" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="C64" s="3">
         <v>3.15</v>
@@ -12154,10 +11421,10 @@
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="3" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="C65" s="3">
         <v>2.23</v>
@@ -12174,10 +11441,10 @@
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="3" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="C66" s="3">
         <v>3.21</v>
@@ -12219,10 +11486,10 @@
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="3" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="C70" s="3">
         <v>2.71</v>
@@ -12239,10 +11506,10 @@
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="3" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="C71" s="3">
         <v>1.04</v>
@@ -12259,10 +11526,10 @@
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="3" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="C72" s="3">
         <v>4.89</v>
@@ -12279,10 +11546,10 @@
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="3" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="C73" s="3">
         <v>1.16</v>
@@ -12299,10 +11566,10 @@
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="3" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="C74" s="3">
         <v>2.21</v>
@@ -12344,50 +11611,50 @@
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="3" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C78" s="3">
-        <v>5.44</v>
+        <v>1.77</v>
       </c>
       <c r="D78" s="3">
-        <v>6</v>
+        <v>2.24</v>
       </c>
       <c r="E78" s="4">
-        <v>10.3</v>
+        <v>26.6</v>
       </c>
       <c r="F78" s="4">
-        <v>9.300000000000001</v>
+        <v>26.6</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79" s="3" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>217</v>
+        <v>196</v>
       </c>
       <c r="C79" s="3">
-        <v>1.77</v>
+        <v>5.44</v>
       </c>
       <c r="D79" s="3">
-        <v>1.9</v>
+        <v>6</v>
       </c>
       <c r="E79" s="4">
-        <v>7.3</v>
+        <v>10.3</v>
       </c>
       <c r="F79" s="4">
-        <v>7.3</v>
+        <v>9.300000000000001</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80" s="3" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="C80" s="3">
         <v>3.14</v>
@@ -12404,42 +11671,42 @@
     </row>
     <row r="81" spans="1:6">
       <c r="A81" s="3" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C81" s="3">
-        <v>2.84</v>
+        <v>1.21</v>
       </c>
       <c r="D81" s="3">
-        <v>2.7</v>
+        <v>1.17</v>
       </c>
       <c r="E81" s="4">
-        <v>-4.9</v>
+        <v>-3.3</v>
       </c>
       <c r="F81" s="4">
-        <v>-4.4</v>
+        <v>-3.6</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82" s="3" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>223</v>
+        <v>204</v>
       </c>
       <c r="C82" s="3">
-        <v>1.21</v>
+        <v>2.84</v>
       </c>
       <c r="D82" s="3">
-        <v>1.13</v>
+        <v>2.7</v>
       </c>
       <c r="E82" s="4">
-        <v>-6.6</v>
+        <v>-4.9</v>
       </c>
       <c r="F82" s="4">
-        <v>-7.3</v>
+        <v>-4.4</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -12469,10 +11736,10 @@
     </row>
     <row r="86" spans="1:6">
       <c r="A86" s="3" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="C86" s="3">
         <v>7.22</v>
@@ -12489,10 +11756,10 @@
     </row>
     <row r="87" spans="1:6">
       <c r="A87" s="3" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="C87" s="3">
         <v>1.39</v>
@@ -12509,10 +11776,10 @@
     </row>
     <row r="88" spans="1:6">
       <c r="A88" s="3" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="C88" s="3">
         <v>4.1</v>
@@ -12529,10 +11796,10 @@
     </row>
     <row r="89" spans="1:6">
       <c r="A89" s="3" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="C89" s="3">
         <v>1.81</v>
@@ -12549,10 +11816,10 @@
     </row>
     <row r="90" spans="1:6">
       <c r="A90" s="3" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="C90" s="3">
         <v>31.5</v>
@@ -12594,10 +11861,10 @@
     </row>
     <row r="94" spans="1:6">
       <c r="A94" s="3" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="C94" s="3">
         <v>12.43</v>
@@ -12614,10 +11881,10 @@
     </row>
     <row r="95" spans="1:6">
       <c r="A95" s="3" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="C95" s="3">
         <v>3.45</v>
@@ -12634,10 +11901,10 @@
     </row>
     <row r="96" spans="1:6">
       <c r="A96" s="3" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="C96" s="3">
         <v>1.85</v>
@@ -12654,10 +11921,10 @@
     </row>
     <row r="97" spans="1:6">
       <c r="A97" s="3" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="C97" s="3">
         <v>1.54</v>
@@ -12674,10 +11941,10 @@
     </row>
     <row r="98" spans="1:6">
       <c r="A98" s="3" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="C98" s="3">
         <v>10.11</v>
@@ -12719,10 +11986,10 @@
     </row>
     <row r="102" spans="1:6">
       <c r="A102" s="3" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="C102" s="3">
         <v>2.48</v>
@@ -12739,10 +12006,10 @@
     </row>
     <row r="103" spans="1:6">
       <c r="A103" s="3" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="C103" s="3">
         <v>12.29</v>
@@ -12759,10 +12026,10 @@
     </row>
     <row r="104" spans="1:6">
       <c r="A104" s="3" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="C104" s="3">
         <v>32.5</v>
@@ -12779,10 +12046,10 @@
     </row>
     <row r="105" spans="1:6">
       <c r="A105" s="3" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="C105" s="3">
         <v>5</v>
@@ -12799,10 +12066,10 @@
     </row>
     <row r="106" spans="1:6">
       <c r="A106" s="3" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="C106" s="3">
         <v>54</v>
@@ -12844,10 +12111,10 @@
     </row>
     <row r="110" spans="1:6">
       <c r="A110" s="3" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="C110" s="3">
         <v>10.86</v>
@@ -12864,10 +12131,10 @@
     </row>
     <row r="111" spans="1:6">
       <c r="A111" s="3" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="C111" s="3">
         <v>59</v>
@@ -12884,30 +12151,30 @@
     </row>
     <row r="112" spans="1:6">
       <c r="A112" s="3" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="C112" s="3">
         <v>2.87</v>
       </c>
       <c r="D112" s="3">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="E112" s="4">
-        <v>-23.3</v>
+        <v>-20.9</v>
       </c>
       <c r="F112" s="4">
-        <v>-21</v>
+        <v>-18.8</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113" s="3" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="C113" s="3">
         <v>4.35</v>
@@ -12924,10 +12191,10 @@
     </row>
     <row r="114" spans="1:6">
       <c r="A114" s="3" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="C114" s="3">
         <v>87</v>
@@ -12957,7 +12224,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -12995,10 +12262,10 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="3" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="C6" s="3">
         <v>3.95</v>
@@ -13015,10 +12282,10 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="3" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="C7" s="3">
         <v>2.18</v>
@@ -13035,10 +12302,10 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="3" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="C8" s="3">
         <v>2</v>
@@ -13055,10 +12322,10 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="3" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="C9" s="3">
         <v>1.69</v>
@@ -13075,10 +12342,10 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="3" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="C10" s="3">
         <v>1.77</v>
@@ -13120,10 +12387,10 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="3" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="C14" s="3">
         <v>2.49</v>
@@ -13140,10 +12407,10 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="3" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="C15" s="3">
         <v>1.44</v>
@@ -13160,10 +12427,10 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="3" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="C16" s="3">
         <v>2.55</v>
@@ -13180,10 +12447,10 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="3" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="C17" s="3">
         <v>1.18</v>
@@ -13200,10 +12467,10 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="3" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="C18" s="3">
         <v>1.28</v>
@@ -13245,10 +12512,10 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>227</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>239</v>
       </c>
       <c r="C22" s="3">
         <v>5.25</v>
@@ -13265,10 +12532,10 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="3" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="C23" s="3">
         <v>16.6</v>
@@ -13285,10 +12552,10 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="3" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="C24" s="3">
         <v>8</v>
@@ -13305,10 +12572,10 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="3" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="C25" s="3">
         <v>13.25</v>
@@ -13325,10 +12592,10 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="3" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="C26" s="3">
         <v>4.89</v>
@@ -13370,10 +12637,10 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="3" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="C30" s="3">
         <v>2.78</v>
@@ -13390,10 +12657,10 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="3" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="C31" s="3">
         <v>1.66</v>
@@ -13410,10 +12677,10 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="3" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="C32" s="3">
         <v>2.37</v>
@@ -13430,10 +12697,10 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="3" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="C33" s="3">
         <v>2.35</v>
@@ -13450,10 +12717,10 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="3" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="C34" s="3">
         <v>11.86</v>
@@ -13495,10 +12762,10 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="3" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="C38" s="3">
         <v>24</v>
@@ -13515,10 +12782,10 @@
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="3" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="C39" s="3">
         <v>14.67</v>
@@ -13535,10 +12802,10 @@
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="3" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="C40" s="3">
         <v>37</v>
@@ -13555,10 +12822,10 @@
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="3" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="C41" s="3">
         <v>18.33</v>
@@ -13575,10 +12842,10 @@
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="3" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="C42" s="3">
         <v>22.67</v>
@@ -13620,10 +12887,10 @@
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="3" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="C46" s="3">
         <v>8.33</v>
@@ -13640,10 +12907,10 @@
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="3" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="C47" s="3">
         <v>3.48</v>
@@ -13660,10 +12927,10 @@
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="3" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="C48" s="3">
         <v>5.33</v>
@@ -13680,10 +12947,10 @@
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="B49" s="3" t="s">
         <v>233</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>245</v>
       </c>
       <c r="C49" s="3">
         <v>46</v>
@@ -13700,10 +12967,10 @@
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="3" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="C50" s="3">
         <v>4.22</v>
@@ -13745,10 +13012,10 @@
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="3" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="C54" s="3">
         <v>2</v>
@@ -13765,10 +13032,10 @@
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="3" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="C55" s="3">
         <v>1.64</v>
@@ -13785,10 +13052,10 @@
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="3" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="C56" s="3">
         <v>1.71</v>
@@ -13805,10 +13072,10 @@
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="3" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="C57" s="3">
         <v>1.49</v>
@@ -13825,10 +13092,10 @@
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="3" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="C58" s="3">
         <v>1.13</v>
@@ -13870,10 +13137,10 @@
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="3" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="C62" s="3">
         <v>1.22</v>
@@ -13890,10 +13157,10 @@
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="3" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="C63" s="3">
         <v>2.61</v>
@@ -13910,10 +13177,10 @@
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="3" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="C64" s="3">
         <v>2.42</v>
@@ -13930,10 +13197,10 @@
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="3" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="C65" s="3">
         <v>1.16</v>
@@ -13950,10 +13217,10 @@
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="3" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="C66" s="3">
         <v>1.38</v>
@@ -13995,10 +13262,10 @@
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="3" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="C70" s="3">
         <v>1.29</v>
@@ -14015,10 +13282,10 @@
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="3" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="C71" s="3">
         <v>4.56</v>
@@ -14035,10 +13302,10 @@
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="3" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="C72" s="3">
         <v>1.2</v>
@@ -14055,10 +13322,10 @@
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="3" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="C73" s="3">
         <v>1.62</v>
@@ -14075,10 +13342,10 @@
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="3" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="C74" s="3">
         <v>1.26</v>
@@ -14120,10 +13387,10 @@
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="3" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="C78" s="3">
         <v>2.85</v>
@@ -14140,10 +13407,10 @@
     </row>
     <row r="79" spans="1:6">
       <c r="A79" s="3" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="C79" s="3">
         <v>8.6</v>
@@ -14160,10 +13427,10 @@
     </row>
     <row r="80" spans="1:6">
       <c r="A80" s="3" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="C80" s="3">
         <v>1.31</v>
@@ -14180,10 +13447,10 @@
     </row>
     <row r="81" spans="1:6">
       <c r="A81" s="3" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="C81" s="3">
         <v>1.64</v>
@@ -14200,10 +13467,10 @@
     </row>
     <row r="82" spans="1:6">
       <c r="A82" s="3" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="C82" s="3">
         <v>2.17</v>
@@ -14245,10 +13512,10 @@
     </row>
     <row r="86" spans="1:6">
       <c r="A86" s="3" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="C86" s="3">
         <v>2.54</v>
@@ -14265,30 +13532,30 @@
     </row>
     <row r="87" spans="1:6">
       <c r="A87" s="3" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="C87" s="3">
         <v>1.5</v>
       </c>
       <c r="D87" s="3">
-        <v>1.42</v>
+        <v>1.63</v>
       </c>
       <c r="E87" s="4">
-        <v>-5.3</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="F87" s="4">
-        <v>-5.3</v>
+        <v>8.699999999999999</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88" s="3" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="C88" s="3">
         <v>27.33</v>
@@ -14305,10 +13572,10 @@
     </row>
     <row r="89" spans="1:6">
       <c r="A89" s="3" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="C89" s="3">
         <v>2.36</v>
@@ -14325,22 +13592,22 @@
     </row>
     <row r="90" spans="1:6">
       <c r="A90" s="3" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="C90" s="3">
-        <v>2.41</v>
+        <v>5.43</v>
       </c>
       <c r="D90" s="3">
-        <v>1.5</v>
+        <v>4.25</v>
       </c>
       <c r="E90" s="4">
-        <v>-37.8</v>
+        <v>-21.7</v>
       </c>
       <c r="F90" s="4">
-        <v>-37.8</v>
+        <v>-23.9</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -14370,10 +13637,10 @@
     </row>
     <row r="94" spans="1:6">
       <c r="A94" s="3" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="C94" s="3">
         <v>15.4</v>
@@ -14390,10 +13657,10 @@
     </row>
     <row r="95" spans="1:6">
       <c r="A95" s="3" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="C95" s="3">
         <v>1.26</v>
@@ -14410,10 +13677,10 @@
     </row>
     <row r="96" spans="1:6">
       <c r="A96" s="3" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="C96" s="3">
         <v>3.83</v>
@@ -14430,30 +13697,30 @@
     </row>
     <row r="97" spans="1:6">
       <c r="A97" s="3" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="C97" s="3">
         <v>2.93</v>
       </c>
       <c r="D97" s="3">
-        <v>2.15</v>
+        <v>2.23</v>
       </c>
       <c r="E97" s="4">
-        <v>-26.6</v>
+        <v>-23.9</v>
       </c>
       <c r="F97" s="4">
-        <v>-23.9</v>
+        <v>-21.5</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="B98" s="3" t="s">
         <v>233</v>
-      </c>
-      <c r="B98" s="3" t="s">
-        <v>245</v>
       </c>
       <c r="C98" s="3">
         <v>1.92</v>
@@ -14495,50 +13762,50 @@
     </row>
     <row r="102" spans="1:6">
       <c r="A102" s="3" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>255</v>
+        <v>217</v>
       </c>
       <c r="C102" s="3">
-        <v>8.880000000000001</v>
+        <v>3.27</v>
       </c>
       <c r="D102" s="3">
-        <v>9</v>
+        <v>3.45</v>
       </c>
       <c r="E102" s="4">
-        <v>1.4</v>
+        <v>5.5</v>
       </c>
       <c r="F102" s="4">
-        <v>1.3</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103" s="3" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>229</v>
+        <v>243</v>
       </c>
       <c r="C103" s="3">
-        <v>3.27</v>
+        <v>8.880000000000001</v>
       </c>
       <c r="D103" s="3">
-        <v>2.5</v>
+        <v>9</v>
       </c>
       <c r="E103" s="4">
-        <v>-23.5</v>
+        <v>1.4</v>
       </c>
       <c r="F103" s="4">
-        <v>-23.5</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104" s="3" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="C104" s="3">
         <v>6.56</v>
@@ -14555,10 +13822,10 @@
     </row>
     <row r="105" spans="1:6">
       <c r="A105" s="3" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="C105" s="3">
         <v>10.6</v>
@@ -14575,10 +13842,10 @@
     </row>
     <row r="106" spans="1:6">
       <c r="A106" s="3" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="C106" s="3">
         <v>78</v>
@@ -14620,10 +13887,10 @@
     </row>
     <row r="110" spans="1:6">
       <c r="A110" s="3" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="C110" s="3">
         <v>19.5</v>
@@ -14640,10 +13907,10 @@
     </row>
     <row r="111" spans="1:6">
       <c r="A111" s="3" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="C111" s="3">
         <v>2.1</v>
@@ -14660,10 +13927,10 @@
     </row>
     <row r="112" spans="1:6">
       <c r="A112" s="3" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="C112" s="3">
         <v>77</v>
@@ -14680,10 +13947,10 @@
     </row>
     <row r="113" spans="1:6">
       <c r="A113" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="B113" s="3" t="s">
         <v>233</v>
-      </c>
-      <c r="B113" s="3" t="s">
-        <v>245</v>
       </c>
       <c r="C113" s="3">
         <v>4.6</v>
@@ -14700,10 +13967,10 @@
     </row>
     <row r="114" spans="1:6">
       <c r="A114" s="3" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="C114" s="3">
         <v>20.75</v>
@@ -14733,7 +14000,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -14771,10 +14038,10 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="3" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="C6" s="3">
         <v>1.2</v>
@@ -14791,10 +14058,10 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="3" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="C7" s="3">
         <v>2.11</v>
@@ -14811,10 +14078,10 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="3" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="C8" s="3">
         <v>1.5</v>
@@ -14831,10 +14098,10 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="3" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="C9" s="3">
         <v>2</v>
@@ -14851,10 +14118,10 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="3" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="C10" s="3">
         <v>1.83</v>
@@ -14899,7 +14166,7 @@
         <v>1</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="C14" s="3">
         <v>2.46</v>
@@ -14919,7 +14186,7 @@
         <v>1</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="C15" s="3">
         <v>3.19</v>
@@ -14939,7 +14206,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="C16" s="3">
         <v>3.3</v>
@@ -14959,7 +14226,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="C17" s="3">
         <v>1.27</v>
@@ -14979,7 +14246,7 @@
         <v>1</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="C18" s="3">
         <v>2.67</v>
@@ -15021,10 +14288,10 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="3" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="C22" s="3">
         <v>1.9</v>
@@ -15041,10 +14308,10 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="3" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="C23" s="3">
         <v>7.6</v>
@@ -15061,10 +14328,10 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="3" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="C24" s="3">
         <v>3.6</v>
@@ -15081,10 +14348,10 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>260</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>271</v>
       </c>
       <c r="C25" s="3">
         <v>2.92</v>
@@ -15101,10 +14368,10 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="3" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="C26" s="3">
         <v>3.53</v>
@@ -15149,7 +14416,7 @@
         <v>1</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="C30" s="3">
         <v>6.4</v>
@@ -15169,7 +14436,7 @@
         <v>1</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="C31" s="3">
         <v>7.29</v>
@@ -15189,7 +14456,7 @@
         <v>1</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="C32" s="3">
         <v>1.53</v>
@@ -15209,7 +14476,7 @@
         <v>1</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="C33" s="3">
         <v>8.5</v>
@@ -15229,7 +14496,7 @@
         <v>1</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
       <c r="C34" s="3">
         <v>1.78</v>
@@ -15271,10 +14538,10 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="3" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="C38" s="3">
         <v>4.33</v>
@@ -15291,10 +14558,10 @@
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="3" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="C39" s="3">
         <v>9</v>
@@ -15311,10 +14578,10 @@
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="3" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="C40" s="3">
         <v>38</v>
@@ -15331,10 +14598,10 @@
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="3" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="C41" s="3">
         <v>15.4</v>
@@ -15351,10 +14618,10 @@
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="3" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="C42" s="3">
         <v>12</v>
@@ -15399,7 +14666,7 @@
         <v>1</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="C46" s="3">
         <v>8</v>
@@ -15419,7 +14686,7 @@
         <v>1</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="C47" s="3">
         <v>17</v>
@@ -15439,7 +14706,7 @@
         <v>1</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="C48" s="3">
         <v>17</v>
@@ -15459,7 +14726,7 @@
         <v>1</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="C49" s="3">
         <v>3.12</v>
@@ -15479,7 +14746,7 @@
         <v>1</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="C50" s="3">
         <v>9.710000000000001</v>
@@ -15521,90 +14788,90 @@
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="3" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>277</v>
+        <v>254</v>
       </c>
       <c r="C54" s="3">
-        <v>1.9</v>
+        <v>1.26</v>
       </c>
       <c r="D54" s="3">
-        <v>2.4</v>
+        <v>1.69</v>
       </c>
       <c r="E54" s="4">
-        <v>26.3</v>
+        <v>34.1</v>
       </c>
       <c r="F54" s="4">
-        <v>21</v>
+        <v>30.7</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="3" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C55" s="3">
-        <v>1.26</v>
+        <v>1.9</v>
       </c>
       <c r="D55" s="3">
-        <v>1.58</v>
+        <v>2.4</v>
       </c>
       <c r="E55" s="4">
-        <v>25.4</v>
+        <v>26.3</v>
       </c>
       <c r="F55" s="4">
-        <v>22.9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="3" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="C56" s="3">
         <v>1.28</v>
       </c>
       <c r="D56" s="3">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="E56" s="4">
-        <v>-3.1</v>
+        <v>-2.3</v>
       </c>
       <c r="F56" s="4">
-        <v>-3.1</v>
+        <v>-2.5</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="3" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="C57" s="3">
         <v>1.28</v>
       </c>
       <c r="D57" s="3">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="E57" s="4">
-        <v>-4.7</v>
+        <v>-3.1</v>
       </c>
       <c r="F57" s="4">
-        <v>-5.2</v>
+        <v>-3.1</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="3" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="C58" s="3">
         <v>4.11</v>
@@ -15649,7 +14916,7 @@
         <v>1</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="C62" s="3">
         <v>1.24</v>
@@ -15669,7 +14936,7 @@
         <v>1</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="C63" s="3">
         <v>1.17</v>
@@ -15689,7 +14956,7 @@
         <v>1</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="C64" s="3">
         <v>1.21</v>
@@ -15709,7 +14976,7 @@
         <v>1</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="C65" s="3">
         <v>1.83</v>
@@ -15729,7 +14996,7 @@
         <v>1</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="C66" s="3">
         <v>2.4</v>
@@ -15771,10 +15038,10 @@
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="3" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="C70" s="3">
         <v>4</v>
@@ -15791,10 +15058,10 @@
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="3" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="C71" s="3">
         <v>2.57</v>
@@ -15811,50 +15078,50 @@
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="3" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
       <c r="C72" s="3">
-        <v>1.22</v>
+        <v>2.21</v>
       </c>
       <c r="D72" s="3">
-        <v>1.32</v>
+        <v>2.65</v>
       </c>
       <c r="E72" s="4">
-        <v>8.199999999999999</v>
+        <v>19.9</v>
       </c>
       <c r="F72" s="4">
-        <v>8.199999999999999</v>
+        <v>17.9</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="3" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="C73" s="3">
-        <v>2.21</v>
+        <v>1.22</v>
       </c>
       <c r="D73" s="3">
-        <v>2.3</v>
+        <v>1.32</v>
       </c>
       <c r="E73" s="4">
-        <v>4.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="F73" s="4">
-        <v>3.7</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="3" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="C74" s="3">
         <v>1.07</v>
@@ -15899,7 +15166,7 @@
         <v>1</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="C78" s="3">
         <v>1.04</v>
@@ -15919,19 +15186,19 @@
         <v>1</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="C79" s="3">
-        <v>4.62</v>
+        <v>1.34</v>
       </c>
       <c r="D79" s="3">
-        <v>4.8</v>
+        <v>1.44</v>
       </c>
       <c r="E79" s="4">
-        <v>3.9</v>
+        <v>7.5</v>
       </c>
       <c r="F79" s="4">
-        <v>4.3</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -15939,19 +15206,19 @@
         <v>1</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="C80" s="3">
-        <v>1.34</v>
+        <v>4.62</v>
       </c>
       <c r="D80" s="3">
-        <v>1.38</v>
+        <v>4.8</v>
       </c>
       <c r="E80" s="4">
-        <v>3</v>
+        <v>3.9</v>
       </c>
       <c r="F80" s="4">
-        <v>3</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -15959,7 +15226,7 @@
         <v>1</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="C81" s="3">
         <v>1.17</v>
@@ -15979,7 +15246,7 @@
         <v>1</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="C82" s="3">
         <v>1.8</v>
@@ -16021,10 +15288,10 @@
     </row>
     <row r="86" spans="1:6">
       <c r="A86" s="3" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="C86" s="3">
         <v>13.33</v>
@@ -16041,10 +15308,10 @@
     </row>
     <row r="87" spans="1:6">
       <c r="A87" s="3" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="C87" s="3">
         <v>12.83</v>
@@ -16061,50 +15328,50 @@
     </row>
     <row r="88" spans="1:6">
       <c r="A88" s="3" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="C88" s="3">
-        <v>1.37</v>
+        <v>2.11</v>
       </c>
       <c r="D88" s="3">
-        <v>1.5</v>
+        <v>2.53</v>
       </c>
       <c r="E88" s="4">
-        <v>9.5</v>
+        <v>19.9</v>
       </c>
       <c r="F88" s="4">
-        <v>8.6</v>
+        <v>19.9</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89" s="3" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="C89" s="3">
-        <v>2.11</v>
+        <v>1.37</v>
       </c>
       <c r="D89" s="3">
-        <v>2.3</v>
+        <v>1.64</v>
       </c>
       <c r="E89" s="4">
-        <v>9</v>
+        <v>19.7</v>
       </c>
       <c r="F89" s="4">
-        <v>9</v>
+        <v>17.7</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90" s="3" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="C90" s="3">
         <v>6.14</v>
@@ -16149,19 +15416,19 @@
         <v>1</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="C94" s="3">
         <v>1.43</v>
       </c>
       <c r="D94" s="3">
-        <v>1.85</v>
+        <v>2.12</v>
       </c>
       <c r="E94" s="4">
-        <v>29.4</v>
+        <v>48.3</v>
       </c>
       <c r="F94" s="4">
-        <v>26.5</v>
+        <v>43.5</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -16169,19 +15436,19 @@
         <v>1</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="C95" s="3">
         <v>2.34</v>
       </c>
       <c r="D95" s="3">
-        <v>2.5</v>
+        <v>3.09</v>
       </c>
       <c r="E95" s="4">
-        <v>6.8</v>
+        <v>32.1</v>
       </c>
       <c r="F95" s="4">
-        <v>5.4</v>
+        <v>25.7</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -16189,7 +15456,7 @@
         <v>1</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="C96" s="3">
         <v>1.57</v>
@@ -16209,7 +15476,7 @@
         <v>1</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="C97" s="3">
         <v>5.93</v>
@@ -16229,7 +15496,7 @@
         <v>1</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="C98" s="3">
         <v>5.18</v>
@@ -16271,10 +15538,10 @@
     </row>
     <row r="102" spans="1:6">
       <c r="A102" s="3" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="C102" s="3">
         <v>13.33</v>
@@ -16291,70 +15558,70 @@
     </row>
     <row r="103" spans="1:6">
       <c r="A103" s="3" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="C103" s="3">
-        <v>21.5</v>
+        <v>2.69</v>
       </c>
       <c r="D103" s="3">
-        <v>26</v>
+        <v>3.45</v>
       </c>
       <c r="E103" s="4">
-        <v>20.9</v>
+        <v>28.3</v>
       </c>
       <c r="F103" s="4">
-        <v>18.8</v>
+        <v>22.6</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104" s="3" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>287</v>
+        <v>267</v>
       </c>
       <c r="C104" s="3">
-        <v>10.25</v>
+        <v>21.5</v>
       </c>
       <c r="D104" s="3">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="E104" s="4">
-        <v>17.1</v>
+        <v>20.9</v>
       </c>
       <c r="F104" s="4">
-        <v>15.4</v>
+        <v>18.8</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105" s="3" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="C105" s="3">
-        <v>2.69</v>
+        <v>10.25</v>
       </c>
       <c r="D105" s="3">
-        <v>2.7</v>
+        <v>12</v>
       </c>
       <c r="E105" s="4">
-        <v>0.4</v>
+        <v>17.1</v>
       </c>
       <c r="F105" s="4">
-        <v>0.3</v>
+        <v>15.4</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106" s="3" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="C106" s="3">
         <v>6.5</v>
@@ -16399,19 +15666,19 @@
         <v>1</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="C110" s="3">
         <v>2.38</v>
       </c>
       <c r="D110" s="3">
-        <v>4</v>
+        <v>5.4</v>
       </c>
       <c r="E110" s="4">
-        <v>68.09999999999999</v>
+        <v>126.9</v>
       </c>
       <c r="F110" s="4">
-        <v>61.3</v>
+        <v>114.2</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -16419,7 +15686,7 @@
         <v>1</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="C111" s="3">
         <v>5.12</v>
@@ -16439,7 +15706,7 @@
         <v>1</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="C112" s="3">
         <v>12.57</v>
@@ -16459,7 +15726,7 @@
         <v>1</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="C113" s="3">
         <v>3.48</v>
@@ -16479,7 +15746,7 @@
         <v>1</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="C114" s="3">
         <v>41.5</v>
